--- a/Docs/Plano de Testes_V1.xlsx
+++ b/Docs/Plano de Testes_V1.xlsx
@@ -1468,7 +1468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="231">
   <si>
     <t>CONTROLE DE VERSÕES DO TEMPLATE</t>
   </si>
@@ -1996,84 +1996,6 @@
     <t>Outros</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Você foi designado para garantir a qualidade da página inicial da </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>www.amazon.com.br</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, um dos sites de e-commerce mais acessados do mundo. 
-Sua tarefa envolve testar a funcionalidade, usabilidade, desempenho e segurança da página inicial.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>ESPECIFICAÇÕES DO SISTEMA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Sugestões de Pesquisa </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Autocomplete)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: À medida que o usuário digita na barra de pesquisa, o sistema deve sugerir resultados relacionados (autocomplete).
-2. Menu de Navegação: O menu deve ser responsivo e funcionar corretamente em diferentes tamanhos de tela </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>(desktop, tablet, celular)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>.
-3. Carregamento e Desempenho: A página inicial deve carregar rapidamente em diferentes navegadores e dispositivos.</t>
-    </r>
-  </si>
-  <si>
     <t>Iniciar um brower de sua escolha edigitar na barra de endereços "www.amazon.com.br".</t>
   </si>
   <si>
@@ -2102,9 +2024,6 @@
   </si>
   <si>
     <t>Pesquisa com caracteres únicos tipo "a" no campo de pesquisa.</t>
-  </si>
-  <si>
-    <t>Pesquisa com palavras inteiras tipo "casa" no campo de pesquisa.</t>
   </si>
   <si>
     <t>Usabilidade</t>
@@ -2224,9 +2143,6 @@
     <t>Verificar as sugestões apresentadas pelo sistema iniciados com a letra "a".</t>
   </si>
   <si>
-    <t>Verificar as sugestões apresentadas pelo sistema iniciados com a palavra "casa".</t>
-  </si>
-  <si>
     <t>Layout Página</t>
   </si>
   <si>
@@ -2246,6 +2162,108 @@
   </si>
   <si>
     <t>O campo de pesquisa deve estar visível.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Você foi designado para garantir a qualidade da página inicial da </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>www.amazon.com.br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, um dos sites de e-commerce mais acessados do mundo. 
+Sua tarefa envolve testar a funcionalidade, usabilidade, desempenho e segurança da página inicial.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>ESPECIFICAÇÕES DO SISTEMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Sugestões de Pesquisa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Autocomplete)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: À medida que o usuário digita na barra de pesquisa, o sistema deve sugerir resultados relacionados (autocomplete).
+2. Menu de Navegação: O menu deve ser responsivo e funcionar corretamente em diferentes tamanhos de tela </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(desktop, tablet, celular)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+3. Carregamento e Desempenho: A página inicial deve carregar rapidamente em diferentes navegadores e dispositivos.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Obs.:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Para todos os casos de teste será gerado um print de tela para evidência do resultado.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pesquisa com palavras inteiras tipo "iphone" no campo de pesquisa.</t>
+  </si>
+  <si>
+    <t>Verificar as sugestões apresentadas pelo sistema iniciados com a palavra "iphone".</t>
   </si>
 </sst>
 </file>
@@ -4451,7 +4469,7 @@
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1043">
+  <dxfs count="1121">
     <dxf>
       <font>
         <b/>
@@ -13317,6 +13335,891 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -16582,7 +17485,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -16594,7 +17497,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21103,7 +22006,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21146,7 +22049,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21189,7 +22092,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21232,7 +22135,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21275,7 +22178,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21318,7 +22221,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21361,7 +22264,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21404,7 +22307,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21447,7 +22350,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21490,7 +22393,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21533,7 +22436,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21576,7 +22479,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21619,7 +22522,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21662,7 +22565,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21710,7 +22613,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21758,7 +22661,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21806,7 +22709,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21854,7 +22757,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21902,7 +22805,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21950,7 +22853,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21998,7 +22901,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22046,7 +22949,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22094,7 +22997,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22142,7 +23045,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22190,7 +23093,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22238,7 +23141,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22286,7 +23189,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22334,7 +23237,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22382,7 +23285,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22430,7 +23333,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22478,7 +23381,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22526,7 +23429,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22574,7 +23477,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22622,7 +23525,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22670,7 +23573,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22718,7 +23621,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22766,7 +23669,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22814,7 +23717,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22862,7 +23765,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22910,7 +23813,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22958,7 +23861,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23006,7 +23909,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23054,7 +23957,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23102,7 +24005,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23150,7 +24053,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23198,7 +24101,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23246,7 +24149,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23294,7 +24197,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23342,7 +24245,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23390,7 +24293,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23438,7 +24341,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23486,7 +24389,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -31847,7 +32750,7 @@
   <dimension ref="A2:AMK75"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:M27"/>
+      <selection activeCell="B8" sqref="B8:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31875,7 +32778,7 @@
       <c r="D2" s="235"/>
       <c r="E2" s="235"/>
       <c r="F2" s="236" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="G2" s="237"/>
       <c r="H2" s="237"/>
@@ -38129,7 +39032,7 @@
       <c r="L10" s="243"/>
       <c r="M10" s="243"/>
       <c r="N10" s="54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O10" s="244" t="s">
         <v>37</v>
@@ -38168,13 +39071,13 @@
         <v>39</v>
       </c>
       <c r="E12" s="234" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F12" s="234"/>
       <c r="G12" s="234"/>
       <c r="H12" s="234"/>
       <c r="I12" s="228" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J12" s="228"/>
       <c r="K12" s="228"/>
@@ -38184,7 +39087,7 @@
         <v>44</v>
       </c>
       <c r="O12" s="233" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P12" s="233"/>
       <c r="Q12" s="233"/>
@@ -38200,13 +39103,13 @@
         <v>41</v>
       </c>
       <c r="E13" s="234" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F13" s="234"/>
       <c r="G13" s="234"/>
       <c r="H13" s="234"/>
       <c r="I13" s="228" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J13" s="228"/>
       <c r="K13" s="228"/>
@@ -38216,7 +39119,7 @@
         <v>44</v>
       </c>
       <c r="O13" s="229" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P13" s="229"/>
       <c r="Q13" s="229"/>
@@ -38232,13 +39135,13 @@
         <v>42</v>
       </c>
       <c r="E14" s="227" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F14" s="227"/>
       <c r="G14" s="227"/>
       <c r="H14" s="227"/>
       <c r="I14" s="228" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J14" s="228"/>
       <c r="K14" s="228"/>
@@ -38248,7 +39151,7 @@
         <v>44</v>
       </c>
       <c r="O14" s="229" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P14" s="229"/>
       <c r="Q14" s="229"/>
@@ -38264,13 +39167,13 @@
         <v>43</v>
       </c>
       <c r="E15" s="227" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F15" s="227"/>
       <c r="G15" s="227"/>
       <c r="H15" s="227"/>
       <c r="I15" s="228" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J15" s="228"/>
       <c r="K15" s="228"/>
@@ -38280,7 +39183,7 @@
         <v>44</v>
       </c>
       <c r="O15" s="229" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P15" s="229"/>
       <c r="Q15" s="229"/>
@@ -38300,7 +39203,7 @@
       <c r="G16" s="227"/>
       <c r="H16" s="227"/>
       <c r="I16" s="228" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J16" s="228"/>
       <c r="K16" s="228"/>
@@ -38310,7 +39213,7 @@
         <v>44</v>
       </c>
       <c r="O16" s="229" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P16" s="229"/>
       <c r="Q16" s="229"/>
@@ -38326,13 +39229,13 @@
         <v>46</v>
       </c>
       <c r="E17" s="227" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F17" s="227"/>
       <c r="G17" s="227"/>
       <c r="H17" s="227"/>
       <c r="I17" s="228" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J17" s="228"/>
       <c r="K17" s="228"/>
@@ -38342,7 +39245,7 @@
         <v>44</v>
       </c>
       <c r="O17" s="229" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P17" s="229"/>
       <c r="Q17" s="229"/>
@@ -38358,13 +39261,13 @@
         <v>47</v>
       </c>
       <c r="E18" s="227" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F18" s="227"/>
       <c r="G18" s="227"/>
       <c r="H18" s="227"/>
       <c r="I18" s="228" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J18" s="228"/>
       <c r="K18" s="228"/>
@@ -38374,7 +39277,7 @@
         <v>44</v>
       </c>
       <c r="O18" s="229" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P18" s="229"/>
       <c r="Q18" s="229"/>
@@ -38428,13 +39331,13 @@
         <v>48</v>
       </c>
       <c r="E21" s="234" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F21" s="234"/>
       <c r="G21" s="234"/>
       <c r="H21" s="234"/>
       <c r="I21" s="228" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J21" s="228"/>
       <c r="K21" s="228"/>
@@ -38444,7 +39347,7 @@
         <v>44</v>
       </c>
       <c r="O21" s="233" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P21" s="233"/>
       <c r="Q21" s="233"/>
@@ -38460,13 +39363,13 @@
         <v>49</v>
       </c>
       <c r="E22" s="227" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F22" s="227"/>
       <c r="G22" s="227"/>
       <c r="H22" s="227"/>
       <c r="I22" s="228" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J22" s="228"/>
       <c r="K22" s="228"/>
@@ -38476,7 +39379,7 @@
         <v>44</v>
       </c>
       <c r="O22" s="233" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P22" s="233"/>
       <c r="Q22" s="233"/>
@@ -38492,13 +39395,13 @@
         <v>50</v>
       </c>
       <c r="E23" s="227" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F23" s="227"/>
       <c r="G23" s="227"/>
       <c r="H23" s="227"/>
       <c r="I23" s="228" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J23" s="228"/>
       <c r="K23" s="228"/>
@@ -38508,7 +39411,7 @@
         <v>44</v>
       </c>
       <c r="O23" s="229" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P23" s="229"/>
       <c r="Q23" s="229"/>
@@ -38524,13 +39427,13 @@
         <v>51</v>
       </c>
       <c r="E24" s="227" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F24" s="227"/>
       <c r="G24" s="227"/>
       <c r="H24" s="227"/>
       <c r="I24" s="228" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J24" s="228"/>
       <c r="K24" s="228"/>
@@ -38540,7 +39443,7 @@
         <v>44</v>
       </c>
       <c r="O24" s="233" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P24" s="233"/>
       <c r="Q24" s="233"/>
@@ -38560,7 +39463,7 @@
       <c r="G25" s="227"/>
       <c r="H25" s="227"/>
       <c r="I25" s="228" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J25" s="228"/>
       <c r="K25" s="228"/>
@@ -38570,7 +39473,7 @@
         <v>44</v>
       </c>
       <c r="O25" s="233" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P25" s="233"/>
       <c r="Q25" s="233"/>
@@ -38590,7 +39493,7 @@
       <c r="G26" s="234"/>
       <c r="H26" s="234"/>
       <c r="I26" s="228" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J26" s="228"/>
       <c r="K26" s="228"/>
@@ -38600,7 +39503,7 @@
         <v>44</v>
       </c>
       <c r="O26" s="233" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P26" s="233"/>
       <c r="Q26" s="233"/>
@@ -38654,13 +39557,13 @@
         <v>54</v>
       </c>
       <c r="E29" s="234" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F29" s="234"/>
       <c r="G29" s="234"/>
       <c r="H29" s="234"/>
       <c r="I29" s="228" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J29" s="228"/>
       <c r="K29" s="228"/>
@@ -38670,7 +39573,7 @@
         <v>44</v>
       </c>
       <c r="O29" s="233" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P29" s="233"/>
       <c r="Q29" s="233"/>
@@ -38690,7 +39593,7 @@
       <c r="G30" s="227"/>
       <c r="H30" s="227"/>
       <c r="I30" s="228" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J30" s="228"/>
       <c r="K30" s="228"/>
@@ -38700,7 +39603,7 @@
         <v>44</v>
       </c>
       <c r="O30" s="233" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P30" s="233"/>
       <c r="Q30" s="233"/>
@@ -38720,7 +39623,7 @@
       <c r="G31" s="227"/>
       <c r="H31" s="227"/>
       <c r="I31" s="228" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J31" s="228"/>
       <c r="K31" s="228"/>
@@ -38730,7 +39633,7 @@
         <v>44</v>
       </c>
       <c r="O31" s="233" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P31" s="233"/>
       <c r="Q31" s="233"/>
@@ -38750,7 +39653,7 @@
       <c r="G32" s="227"/>
       <c r="H32" s="227"/>
       <c r="I32" s="228" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J32" s="228"/>
       <c r="K32" s="228"/>
@@ -38760,7 +39663,7 @@
         <v>44</v>
       </c>
       <c r="O32" s="233" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P32" s="233"/>
       <c r="Q32" s="233"/>
@@ -38780,7 +39683,7 @@
       <c r="G33" s="227"/>
       <c r="H33" s="227"/>
       <c r="I33" s="228" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J33" s="228"/>
       <c r="K33" s="228"/>
@@ -38790,7 +39693,7 @@
         <v>44</v>
       </c>
       <c r="O33" s="233" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P33" s="233"/>
       <c r="Q33" s="233"/>
@@ -38810,7 +39713,7 @@
       <c r="G34" s="227"/>
       <c r="H34" s="227"/>
       <c r="I34" s="228" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J34" s="228"/>
       <c r="K34" s="228"/>
@@ -38820,7 +39723,7 @@
         <v>44</v>
       </c>
       <c r="O34" s="233" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P34" s="233"/>
       <c r="Q34" s="233"/>
@@ -51542,170 +52445,170 @@
     <mergeCell ref="O42:Q42"/>
   </mergeCells>
   <conditionalFormatting sqref="N37:N42 N19 N35 N24:N27 N12:N17">
-    <cfRule type="cellIs" dxfId="1042" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="1120" priority="74" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1041" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="1119" priority="75" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1040" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="1118" priority="76" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1039" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="1117" priority="77" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="cellIs" dxfId="1038" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="1116" priority="78" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1037" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="1115" priority="79" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1036" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="1114" priority="80" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1035" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="1113" priority="81" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="cellIs" dxfId="1034" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="1112" priority="90" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1033" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="1111" priority="91" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1032" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="1110" priority="92" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1031" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="1109" priority="93" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="cellIs" dxfId="1030" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="1108" priority="21" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1029" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="1107" priority="22" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1028" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="1106" priority="23" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1027" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="1105" priority="24" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="cellIs" dxfId="1026" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="1104" priority="13" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1025" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="1103" priority="14" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1024" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="1102" priority="15" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1023" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="1101" priority="16" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
-    <cfRule type="cellIs" dxfId="1022" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1100" priority="25" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1021" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1099" priority="26" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1020" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1098" priority="27" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1019" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1097" priority="28" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="cellIs" dxfId="1018" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="1096" priority="17" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1017" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="1095" priority="18" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1016" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="1094" priority="19" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1015" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="1093" priority="20" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="cellIs" dxfId="1014" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1092" priority="9" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1013" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1091" priority="10" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1012" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1090" priority="11" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1011" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1089" priority="12" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33:N34">
-    <cfRule type="cellIs" dxfId="1010" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1088" priority="1" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1009" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1087" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1008" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1086" priority="3" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1007" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1085" priority="4" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="cellIs" dxfId="1006" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1084" priority="37" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1005" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1083" priority="38" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1004" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1082" priority="39" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1003" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1081" priority="40" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="cellIs" dxfId="1002" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="1080" priority="33" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1001" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="1079" priority="34" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1000" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1078" priority="35" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="999" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1077" priority="36" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="cellIs" dxfId="998" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1076" priority="29" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="997" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1075" priority="30" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="996" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="1074" priority="31" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="995" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="1073" priority="32" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51725,7 +52628,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.15763888888888899" right="0.15763888888888899" top="0.35416666666666702" bottom="0.39374999999999999" header="0.15763888888888899" footer="0.15763888888888899"/>
-  <pageSetup paperSize="9" scale="90" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="90" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LProjeto de Testes P2OI&amp;R&amp;D&amp;T</oddHeader>
     <oddFooter>&amp;L&amp;Z&amp;F&amp;R&amp;P de &amp;N</oddFooter>
@@ -51738,10 +52641,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AMK53"/>
+  <dimension ref="A2:AMK60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15:M15"/>
+      <selection activeCell="E17" sqref="E17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -51758,7 +52661,7 @@
     <col min="10" max="10" width="7.7109375" style="71" customWidth="1"/>
     <col min="11" max="11" width="7" style="71" customWidth="1"/>
     <col min="12" max="12" width="7" style="72" customWidth="1"/>
-    <col min="13" max="13" width="77.7109375" style="72" customWidth="1"/>
+    <col min="13" max="13" width="81.42578125" style="72" customWidth="1"/>
     <col min="14" max="15" width="8.85546875" style="73" customWidth="1"/>
     <col min="16" max="16" width="17" style="74" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" style="75" customWidth="1"/>
@@ -51844,7 +52747,8 @@
 ESPECIFICAÇÕES DO SISTEMA
 1. Sugestões de Pesquisa (Autocomplete): À medida que o usuário digita na barra de pesquisa, o sistema deve sugerir resultados relacionados (autocomplete).
 2. Menu de Navegação: O menu deve ser responsivo e funcionar corretamente em diferentes tamanhos de tela (desktop, tablet, celular).
-3. Carregamento e Desempenho: A página inicial deve carregar rapidamente em diferentes navegadores e dispositivos.</v>
+3. Carregamento e Desempenho: A página inicial deve carregar rapidamente em diferentes navegadores e dispositivos.
+Obs.: Para todos os casos de teste será gerado um print de tela para evidência do resultado.</v>
       </c>
       <c r="N3" s="261"/>
       <c r="O3" s="261"/>
@@ -51942,15 +52846,15 @@
         <v>72</v>
       </c>
       <c r="G5" s="86">
-        <f>COUNTIF(P13:P24,"Passou")</f>
-        <v>5</v>
+        <f>COUNTIF(P13:P31,"Passou")</f>
+        <v>6</v>
       </c>
       <c r="H5" s="83">
         <f>IF(G$4=0,0,IF(G9=0,0,G8/G$9))</f>
         <v>0</v>
       </c>
       <c r="I5" s="86">
-        <f>COUNTIF(R13:R24,"Passou")</f>
+        <f>COUNTIF(R13:R31,"Passou")</f>
         <v>0</v>
       </c>
       <c r="J5" s="83">
@@ -51958,7 +52862,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="86">
-        <f>COUNTIF(T13:T24,"Passou")</f>
+        <f>COUNTIF(T13:T31,"Passou")</f>
         <v>0</v>
       </c>
       <c r="L5" s="83">
@@ -52002,15 +52906,15 @@
         <v>73</v>
       </c>
       <c r="G6" s="86">
-        <f>COUNTIF(P13:P24,"Inconformidade") + COUNTIF(P13:P24,"Falhou")</f>
+        <f>COUNTIF(P13:P31,"Inconformidade") + COUNTIF(P13:P31,"Falhou")</f>
         <v>1</v>
       </c>
       <c r="H6" s="83">
         <f>IF(G$4=0,0,IF(G9=0,0,G6/G$9))</f>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I6" s="86">
-        <f>COUNTIF(R13:R24,"Inconformidade") + COUNTIF(R13:R24,"Falhou")</f>
+        <f>COUNTIF(R13:R31,"Inconformidade") + COUNTIF(R13:R31,"Falhou")</f>
         <v>0</v>
       </c>
       <c r="J6" s="83">
@@ -52018,7 +52922,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="86">
-        <f>COUNTIF(T13:T24,"Inconformidade") + COUNTIF(T13:T24,"Falhou")</f>
+        <f>COUNTIF(T13:T31,"Inconformidade") + COUNTIF(T13:T31,"Falhou")</f>
         <v>0</v>
       </c>
       <c r="L6" s="83">
@@ -52062,7 +52966,7 @@
         <v>74</v>
       </c>
       <c r="G7" s="86">
-        <f>COUNTIF(P13:P24,"Bloqueado")</f>
+        <f>COUNTIF(P13:P31,"Bloqueado")</f>
         <v>0</v>
       </c>
       <c r="H7" s="83">
@@ -52070,7 +52974,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="86">
-        <f>COUNTIF(R13:R24,"Bloqueado") + COUNTIF(R13:R24,"N/E")</f>
+        <f>COUNTIF(R13:R31,"Bloqueado") + COUNTIF(R13:R31,"N/E")</f>
         <v>0</v>
       </c>
       <c r="J7" s="83">
@@ -52078,7 +52982,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="86">
-        <f>COUNTIF(T13:T24,"Bloqueado") + COUNTIF(T13:T24,"N/E")</f>
+        <f>COUNTIF(T13:T31,"Bloqueado") + COUNTIF(T13:T31,"N/E")</f>
         <v>0</v>
       </c>
       <c r="L7" s="83">
@@ -52117,7 +53021,7 @@
         <v>75</v>
       </c>
       <c r="G8" s="86">
-        <f>COUNTIF(P14:P25,"N/E")</f>
+        <f>COUNTIF(P14:P32,"N/E")</f>
         <v>0</v>
       </c>
       <c r="H8" s="83">
@@ -52125,7 +53029,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="86">
-        <f>COUNTIF(R14:R25,"N/E")</f>
+        <f>COUNTIF(R14:R32,"N/E")</f>
         <v>0</v>
       </c>
       <c r="J8" s="83">
@@ -52133,7 +53037,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="86">
-        <f>COUNTIF(T14:T25,"N/E")</f>
+        <f>COUNTIF(T14:T32,"N/E")</f>
         <v>0</v>
       </c>
       <c r="L8" s="83">
@@ -52173,7 +53077,7 @@
       </c>
       <c r="G9" s="170">
         <f>SUM(G5:G7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" s="171"/>
       <c r="I9" s="170">
@@ -52263,16 +53167,16 @@
       <c r="L11" s="250"/>
       <c r="M11" s="250"/>
       <c r="N11" s="251">
-        <f>COUNTA(N13:N24)</f>
+        <f>COUNTA(N13:N31)</f>
         <v>10</v>
       </c>
       <c r="O11" s="251">
-        <f t="shared" ref="O11:T11" si="0">COUNTA(O12:O88)</f>
+        <f t="shared" ref="O11:T11" si="0">COUNTA(O12:O95)</f>
         <v>1</v>
       </c>
       <c r="P11" s="251">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="251">
         <f t="shared" si="0"/>
@@ -52291,11 +53195,11 @@
         <v>1</v>
       </c>
       <c r="U11" s="78">
-        <f>COUNTA(U23:U25)</f>
+        <f>COUNTA(U30:U32)</f>
         <v>0</v>
       </c>
       <c r="V11" s="78">
-        <f>COUNTA(V23:V25)</f>
+        <f>COUNTA(V30:V32)</f>
         <v>0</v>
       </c>
       <c r="W11" s="78"/>
@@ -52371,18 +53275,18 @@
         <v>88</v>
       </c>
       <c r="E13" s="246" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F13" s="246"/>
       <c r="G13" s="246"/>
       <c r="H13" s="246"/>
       <c r="I13" s="247" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J13" s="247"/>
       <c r="K13" s="247"/>
       <c r="L13" s="248" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M13" s="248"/>
       <c r="N13" s="201" t="s">
@@ -52409,7 +53313,7 @@
         <v>91</v>
       </c>
       <c r="E14" s="246" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F14" s="246"/>
       <c r="G14" s="246"/>
@@ -52418,14 +53322,16 @@
       <c r="J14" s="247"/>
       <c r="K14" s="247"/>
       <c r="L14" s="248" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M14" s="248"/>
       <c r="N14" s="201" t="s">
         <v>89</v>
       </c>
       <c r="O14" s="204"/>
-      <c r="P14" s="205"/>
+      <c r="P14" s="205" t="s">
+        <v>90</v>
+      </c>
       <c r="Q14" s="209"/>
       <c r="R14" s="205"/>
       <c r="S14" s="209"/>
@@ -52434,19 +53340,19 @@
       <c r="V14" s="78"/>
     </row>
     <row r="15" spans="2:34" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="102" t="e">
-        <f>Cenários!#REF!</f>
-        <v>#REF!</v>
+      <c r="B15" s="102" t="str">
+        <f>Cenários!D15</f>
+        <v>CEN - 1.1.40</v>
       </c>
       <c r="C15" s="103" t="str">
-        <f>Cenários!E14</f>
-        <v>Selecionar Deparamento específico</v>
+        <f>Cenários!E15</f>
+        <v>Autocomplete</v>
       </c>
       <c r="D15" s="104" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E15" s="246" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="F15" s="246"/>
       <c r="G15" s="246"/>
@@ -52455,7 +53361,7 @@
       <c r="J15" s="247"/>
       <c r="K15" s="247"/>
       <c r="L15" s="248" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="M15" s="248"/>
       <c r="N15" s="201" t="s">
@@ -52471,13 +53377,13 @@
       <c r="T15" s="205"/>
     </row>
     <row r="16" spans="2:34" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="102"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="103"/>
       <c r="D16" s="104" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E16" s="246" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="F16" s="246"/>
       <c r="G16" s="246"/>
@@ -52486,134 +53392,88 @@
       <c r="J16" s="247"/>
       <c r="K16" s="247"/>
       <c r="L16" s="248" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="M16" s="248"/>
-      <c r="N16" s="201" t="s">
+      <c r="N16" s="202" t="s">
         <v>89</v>
       </c>
       <c r="O16" s="204"/>
       <c r="P16" s="205" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="209"/>
-      <c r="R16" s="205"/>
-      <c r="S16" s="209"/>
-      <c r="T16" s="205"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
+        <v>90</v>
+      </c>
+      <c r="Q16" s="210"/>
+      <c r="R16" s="165"/>
+      <c r="S16" s="210"/>
+      <c r="T16" s="165"/>
     </row>
     <row r="17" spans="2:30" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="102" t="str">
-        <f>Cenários!D15</f>
-        <v>CEN - 1.1.40</v>
-      </c>
-      <c r="C17" s="103" t="str">
-        <f>Cenários!E15</f>
-        <v>Autocomplete</v>
-      </c>
-      <c r="D17" s="104" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="246" t="s">
-        <v>182</v>
-      </c>
+      <c r="B17" s="102"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="246"/>
       <c r="F17" s="246"/>
       <c r="G17" s="246"/>
       <c r="H17" s="246"/>
       <c r="I17" s="247"/>
       <c r="J17" s="247"/>
       <c r="K17" s="247"/>
-      <c r="L17" s="248" t="s">
-        <v>222</v>
-      </c>
+      <c r="L17" s="248"/>
       <c r="M17" s="248"/>
-      <c r="N17" s="201" t="s">
-        <v>89</v>
-      </c>
+      <c r="N17" s="201"/>
       <c r="O17" s="204"/>
-      <c r="P17" s="205" t="s">
-        <v>90</v>
-      </c>
+      <c r="P17" s="205"/>
       <c r="Q17" s="209"/>
       <c r="R17" s="205"/>
       <c r="S17" s="209"/>
       <c r="T17" s="205"/>
     </row>
     <row r="18" spans="2:30" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="110"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="103"/>
-      <c r="D18" s="104" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="246" t="s">
-        <v>183</v>
-      </c>
+      <c r="D18" s="104"/>
+      <c r="E18" s="246"/>
       <c r="F18" s="246"/>
       <c r="G18" s="246"/>
       <c r="H18" s="246"/>
       <c r="I18" s="247"/>
       <c r="J18" s="247"/>
       <c r="K18" s="247"/>
-      <c r="L18" s="248" t="s">
-        <v>223</v>
-      </c>
+      <c r="L18" s="248"/>
       <c r="M18" s="248"/>
-      <c r="N18" s="202" t="s">
-        <v>89</v>
-      </c>
+      <c r="N18" s="201"/>
       <c r="O18" s="204"/>
-      <c r="P18" s="205" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q18" s="210"/>
-      <c r="R18" s="165"/>
-      <c r="S18" s="210"/>
-      <c r="T18" s="165"/>
+      <c r="P18" s="205"/>
+      <c r="Q18" s="209"/>
+      <c r="R18" s="205"/>
+      <c r="S18" s="209"/>
+      <c r="T18" s="205"/>
     </row>
-    <row r="19" spans="2:30" s="101" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="212" t="str">
-        <f>Cenários!D17</f>
-        <v>CEN - 1.1.60</v>
-      </c>
-      <c r="C19" s="103" t="str">
-        <f>Cenários!E17 &amp; " - " &amp; Cenários!I17</f>
-        <v>Usabilidade - Teclas de navegação.</v>
-      </c>
-      <c r="D19" s="104" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="246" t="s">
-        <v>212</v>
-      </c>
+    <row r="19" spans="2:30" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="102"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="246"/>
       <c r="F19" s="246"/>
       <c r="G19" s="246"/>
       <c r="H19" s="246"/>
       <c r="I19" s="247"/>
       <c r="J19" s="247"/>
       <c r="K19" s="247"/>
-      <c r="L19" s="248" t="s">
-        <v>213</v>
-      </c>
+      <c r="L19" s="248"/>
       <c r="M19" s="248"/>
-      <c r="N19" s="201" t="s">
-        <v>89</v>
-      </c>
+      <c r="N19" s="201"/>
       <c r="O19" s="204"/>
-      <c r="P19" s="205" t="s">
-        <v>90</v>
-      </c>
+      <c r="P19" s="205"/>
       <c r="Q19" s="209"/>
       <c r="R19" s="205"/>
       <c r="S19" s="209"/>
       <c r="T19" s="205"/>
     </row>
     <row r="20" spans="2:30" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="110"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="103"/>
-      <c r="D20" s="104" t="s">
-        <v>105</v>
-      </c>
+      <c r="D20" s="104"/>
       <c r="E20" s="246"/>
       <c r="F20" s="246"/>
       <c r="G20" s="246"/>
@@ -52623,9 +53483,7 @@
       <c r="K20" s="247"/>
       <c r="L20" s="248"/>
       <c r="M20" s="248"/>
-      <c r="N20" s="201" t="s">
-        <v>89</v>
-      </c>
+      <c r="N20" s="201"/>
       <c r="O20" s="204"/>
       <c r="P20" s="205"/>
       <c r="Q20" s="209"/>
@@ -52634,11 +53492,9 @@
       <c r="T20" s="205"/>
     </row>
     <row r="21" spans="2:30" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="110"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="103"/>
-      <c r="D21" s="104" t="s">
-        <v>217</v>
-      </c>
+      <c r="D21" s="104"/>
       <c r="E21" s="246"/>
       <c r="F21" s="246"/>
       <c r="G21" s="246"/>
@@ -52648,319 +53504,247 @@
       <c r="K21" s="247"/>
       <c r="L21" s="248"/>
       <c r="M21" s="248"/>
-      <c r="N21" s="202" t="s">
-        <v>89</v>
-      </c>
+      <c r="N21" s="201"/>
       <c r="O21" s="204"/>
       <c r="P21" s="205"/>
-      <c r="Q21" s="210"/>
-      <c r="R21" s="165"/>
-      <c r="S21" s="210"/>
-      <c r="T21" s="165"/>
+      <c r="Q21" s="209"/>
+      <c r="R21" s="205"/>
+      <c r="S21" s="209"/>
+      <c r="T21" s="205"/>
     </row>
     <row r="22" spans="2:30" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="112"/>
-      <c r="C22" s="103"/>
+      <c r="B22" s="102" t="e">
+        <f>Cenários!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C22" s="103" t="str">
+        <f>Cenários!E14</f>
+        <v>Selecionar Deparamento específico</v>
+      </c>
       <c r="D22" s="104" t="s">
-        <v>218</v>
-      </c>
-      <c r="E22" s="246"/>
+        <v>97</v>
+      </c>
+      <c r="E22" s="246" t="s">
+        <v>207</v>
+      </c>
       <c r="F22" s="246"/>
       <c r="G22" s="246"/>
       <c r="H22" s="246"/>
       <c r="I22" s="247"/>
       <c r="J22" s="247"/>
       <c r="K22" s="247"/>
-      <c r="L22" s="248"/>
+      <c r="L22" s="248" t="s">
+        <v>208</v>
+      </c>
       <c r="M22" s="248"/>
-      <c r="N22" s="202" t="s">
+      <c r="N22" s="201" t="s">
         <v>89</v>
       </c>
       <c r="O22" s="204"/>
-      <c r="P22" s="205"/>
-      <c r="Q22" s="210"/>
-      <c r="R22" s="165"/>
-      <c r="S22" s="210"/>
-      <c r="T22" s="165"/>
+      <c r="P22" s="205" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q22" s="209"/>
+      <c r="R22" s="205"/>
+      <c r="S22" s="209"/>
+      <c r="T22" s="205"/>
     </row>
-    <row r="23" spans="2:30" s="101" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="113"/>
+    <row r="23" spans="2:30" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="102"/>
       <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="246"/>
+      <c r="D23" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="246" t="s">
+        <v>212</v>
+      </c>
       <c r="F23" s="246"/>
       <c r="G23" s="246"/>
       <c r="H23" s="246"/>
       <c r="I23" s="247"/>
       <c r="J23" s="247"/>
       <c r="K23" s="247"/>
-      <c r="L23" s="248"/>
+      <c r="L23" s="248" t="s">
+        <v>213</v>
+      </c>
       <c r="M23" s="248"/>
-      <c r="N23" s="202"/>
-      <c r="O23" s="206"/>
-      <c r="P23" s="169"/>
-      <c r="Q23" s="211"/>
-      <c r="R23" s="169"/>
-      <c r="S23" s="211"/>
-      <c r="T23" s="169"/>
+      <c r="N23" s="201" t="s">
+        <v>89</v>
+      </c>
+      <c r="O23" s="204"/>
+      <c r="P23" s="205" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q23" s="209"/>
+      <c r="R23" s="205"/>
+      <c r="S23" s="209"/>
+      <c r="T23" s="205"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="78"/>
     </row>
-    <row r="24" spans="2:30" s="76" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="245"/>
-      <c r="C24" s="245"/>
-      <c r="D24" s="245"/>
-      <c r="E24" s="245"/>
-      <c r="F24" s="245"/>
-      <c r="G24" s="245"/>
-      <c r="H24" s="245"/>
-      <c r="I24" s="245"/>
-      <c r="J24" s="245"/>
-      <c r="K24" s="245"/>
-      <c r="L24" s="245"/>
-      <c r="M24" s="245"/>
-      <c r="N24" s="245"/>
-      <c r="O24" s="245"/>
-      <c r="P24" s="245"/>
-      <c r="Q24" s="245"/>
-      <c r="R24" s="245"/>
-      <c r="S24" s="245"/>
-      <c r="T24" s="245"/>
-      <c r="U24" s="116"/>
-      <c r="V24" s="116"/>
-      <c r="W24" s="116"/>
-      <c r="X24" s="116"/>
-      <c r="Y24" s="116"/>
-      <c r="Z24" s="116"/>
-      <c r="AA24" s="116"/>
-      <c r="AB24" s="116"/>
-      <c r="AC24" s="116"/>
-      <c r="AD24" s="116"/>
+    <row r="26" spans="2:30" s="101" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="212" t="str">
+        <f>Cenários!D17</f>
+        <v>CEN - 1.1.60</v>
+      </c>
+      <c r="C26" s="103" t="str">
+        <f>Cenários!E17 &amp; " - " &amp; Cenários!I17</f>
+        <v>Usabilidade - Teclas de navegação.</v>
+      </c>
+      <c r="D26" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="246" t="s">
+        <v>210</v>
+      </c>
+      <c r="F26" s="246"/>
+      <c r="G26" s="246"/>
+      <c r="H26" s="246"/>
+      <c r="I26" s="247"/>
+      <c r="J26" s="247"/>
+      <c r="K26" s="247"/>
+      <c r="L26" s="248" t="s">
+        <v>211</v>
+      </c>
+      <c r="M26" s="248"/>
+      <c r="N26" s="201" t="s">
+        <v>89</v>
+      </c>
+      <c r="O26" s="204"/>
+      <c r="P26" s="205" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q26" s="209"/>
+      <c r="R26" s="205"/>
+      <c r="S26" s="209"/>
+      <c r="T26" s="205"/>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B25" s="117"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="214"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="120"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="121"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="124"/>
-      <c r="V25" s="124"/>
-      <c r="W25" s="124"/>
-      <c r="X25" s="124"/>
-      <c r="Y25" s="124"/>
-      <c r="Z25" s="124"/>
-      <c r="AA25" s="124"/>
-      <c r="AB25" s="124"/>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="124"/>
+    <row r="27" spans="2:30" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="110"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="246"/>
+      <c r="F27" s="246"/>
+      <c r="G27" s="246"/>
+      <c r="H27" s="246"/>
+      <c r="I27" s="247"/>
+      <c r="J27" s="247"/>
+      <c r="K27" s="247"/>
+      <c r="L27" s="248"/>
+      <c r="M27" s="248"/>
+      <c r="N27" s="201" t="s">
+        <v>89</v>
+      </c>
+      <c r="O27" s="204"/>
+      <c r="P27" s="205"/>
+      <c r="Q27" s="209"/>
+      <c r="R27" s="205"/>
+      <c r="S27" s="209"/>
+      <c r="T27" s="205"/>
     </row>
-    <row r="26" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="117"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="214"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="120"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="121"/>
-      <c r="P26" s="122"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="122"/>
-      <c r="S26" s="123"/>
-      <c r="T26" s="122"/>
-      <c r="U26" s="124"/>
-      <c r="V26" s="124"/>
-      <c r="W26" s="124"/>
-      <c r="X26" s="124"/>
-      <c r="Y26" s="124"/>
-      <c r="Z26" s="124"/>
-      <c r="AA26" s="124"/>
-      <c r="AB26" s="124"/>
-      <c r="AC26" s="124"/>
-      <c r="AD26" s="124"/>
+    <row r="28" spans="2:30" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="110"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="104" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="246"/>
+      <c r="F28" s="246"/>
+      <c r="G28" s="246"/>
+      <c r="H28" s="246"/>
+      <c r="I28" s="247"/>
+      <c r="J28" s="247"/>
+      <c r="K28" s="247"/>
+      <c r="L28" s="248"/>
+      <c r="M28" s="248"/>
+      <c r="N28" s="202" t="s">
+        <v>89</v>
+      </c>
+      <c r="O28" s="204"/>
+      <c r="P28" s="205"/>
+      <c r="Q28" s="210"/>
+      <c r="R28" s="165"/>
+      <c r="S28" s="210"/>
+      <c r="T28" s="165"/>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B27" s="117"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="214"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="197" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="122"/>
-      <c r="S27" s="123"/>
-      <c r="T27" s="122"/>
-      <c r="U27" s="124"/>
-      <c r="V27" s="124"/>
-      <c r="W27" s="124"/>
-      <c r="X27" s="124"/>
-      <c r="Y27" s="124"/>
-      <c r="Z27" s="124"/>
-      <c r="AA27" s="124"/>
-      <c r="AB27" s="124"/>
-      <c r="AC27" s="124"/>
-      <c r="AD27" s="124"/>
+    <row r="29" spans="2:30" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="112"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="104" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="246"/>
+      <c r="F29" s="246"/>
+      <c r="G29" s="246"/>
+      <c r="H29" s="246"/>
+      <c r="I29" s="247"/>
+      <c r="J29" s="247"/>
+      <c r="K29" s="247"/>
+      <c r="L29" s="248"/>
+      <c r="M29" s="248"/>
+      <c r="N29" s="202" t="s">
+        <v>89</v>
+      </c>
+      <c r="O29" s="204"/>
+      <c r="P29" s="205"/>
+      <c r="Q29" s="210"/>
+      <c r="R29" s="165"/>
+      <c r="S29" s="210"/>
+      <c r="T29" s="165"/>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B28" s="117"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="214"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="198" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="122"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="122"/>
-      <c r="U28" s="124"/>
-      <c r="V28" s="124"/>
-      <c r="W28" s="124"/>
-      <c r="X28" s="124"/>
-      <c r="Y28" s="124"/>
-      <c r="Z28" s="124"/>
-      <c r="AA28" s="124"/>
-      <c r="AB28" s="124"/>
-      <c r="AC28" s="124"/>
-      <c r="AD28" s="124"/>
+    <row r="30" spans="2:30" s="101" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="113"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="246"/>
+      <c r="F30" s="246"/>
+      <c r="G30" s="246"/>
+      <c r="H30" s="246"/>
+      <c r="I30" s="247"/>
+      <c r="J30" s="247"/>
+      <c r="K30" s="247"/>
+      <c r="L30" s="248"/>
+      <c r="M30" s="248"/>
+      <c r="N30" s="202"/>
+      <c r="O30" s="206"/>
+      <c r="P30" s="169"/>
+      <c r="Q30" s="211"/>
+      <c r="R30" s="169"/>
+      <c r="S30" s="211"/>
+      <c r="T30" s="169"/>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B29" s="117"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="214"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="120"/>
-      <c r="M29" s="120"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="198" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="122"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="122"/>
-      <c r="U29" s="124"/>
-      <c r="V29" s="124"/>
-      <c r="W29" s="124"/>
-      <c r="X29" s="124"/>
-      <c r="Y29" s="124"/>
-      <c r="Z29" s="124"/>
-      <c r="AA29" s="124"/>
-      <c r="AB29" s="124"/>
-      <c r="AC29" s="124"/>
-      <c r="AD29" s="124"/>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B30" s="117"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="214"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="119"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="121"/>
-      <c r="O30" s="121"/>
-      <c r="P30" s="198" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="123"/>
-      <c r="T30" s="122"/>
-      <c r="U30" s="124"/>
-      <c r="V30" s="124"/>
-      <c r="W30" s="124"/>
-      <c r="X30" s="124"/>
-      <c r="Y30" s="124"/>
-      <c r="Z30" s="124"/>
-      <c r="AA30" s="124"/>
-      <c r="AB30" s="124"/>
-      <c r="AC30" s="124"/>
-      <c r="AD30" s="124"/>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B31" s="117"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="119"/>
-      <c r="K31" s="119"/>
-      <c r="L31" s="120"/>
-      <c r="M31" s="120"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="198" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="123"/>
-      <c r="T31" s="122"/>
-      <c r="U31" s="124"/>
-      <c r="V31" s="124"/>
-      <c r="W31" s="124"/>
-      <c r="X31" s="124"/>
-      <c r="Y31" s="124"/>
-      <c r="Z31" s="124"/>
-      <c r="AA31" s="124"/>
-      <c r="AB31" s="124"/>
-      <c r="AC31" s="124"/>
-      <c r="AD31" s="124"/>
+    <row r="31" spans="2:30" s="76" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="245"/>
+      <c r="C31" s="245"/>
+      <c r="D31" s="245"/>
+      <c r="E31" s="245"/>
+      <c r="F31" s="245"/>
+      <c r="G31" s="245"/>
+      <c r="H31" s="245"/>
+      <c r="I31" s="245"/>
+      <c r="J31" s="245"/>
+      <c r="K31" s="245"/>
+      <c r="L31" s="245"/>
+      <c r="M31" s="245"/>
+      <c r="N31" s="245"/>
+      <c r="O31" s="245"/>
+      <c r="P31" s="245"/>
+      <c r="Q31" s="245"/>
+      <c r="R31" s="245"/>
+      <c r="S31" s="245"/>
+      <c r="T31" s="245"/>
+      <c r="U31" s="116"/>
+      <c r="V31" s="116"/>
+      <c r="W31" s="116"/>
+      <c r="X31" s="116"/>
+      <c r="Y31" s="116"/>
+      <c r="Z31" s="116"/>
+      <c r="AA31" s="116"/>
+      <c r="AB31" s="116"/>
+      <c r="AC31" s="116"/>
+      <c r="AD31" s="116"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B32" s="117"/>
@@ -52977,9 +53761,7 @@
       <c r="M32" s="120"/>
       <c r="N32" s="121"/>
       <c r="O32" s="121"/>
-      <c r="P32" s="198" t="s">
-        <v>100</v>
-      </c>
+      <c r="P32" s="122"/>
       <c r="Q32" s="123"/>
       <c r="R32" s="122"/>
       <c r="S32" s="123"/>
@@ -52995,7 +53777,7 @@
       <c r="AC32" s="124"/>
       <c r="AD32" s="124"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="117"/>
       <c r="C33" s="118"/>
       <c r="D33" s="118"/>
@@ -53010,9 +53792,7 @@
       <c r="M33" s="120"/>
       <c r="N33" s="121"/>
       <c r="O33" s="121"/>
-      <c r="P33" s="198" t="s">
-        <v>102</v>
-      </c>
+      <c r="P33" s="122"/>
       <c r="Q33" s="123"/>
       <c r="R33" s="122"/>
       <c r="S33" s="123"/>
@@ -53028,7 +53808,7 @@
       <c r="AC33" s="124"/>
       <c r="AD33" s="124"/>
     </row>
-    <row r="34" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B34" s="117"/>
       <c r="C34" s="118"/>
       <c r="D34" s="118"/>
@@ -53043,8 +53823,8 @@
       <c r="M34" s="120"/>
       <c r="N34" s="121"/>
       <c r="O34" s="121"/>
-      <c r="P34" s="199" t="s">
-        <v>40</v>
+      <c r="P34" s="197" t="s">
+        <v>90</v>
       </c>
       <c r="Q34" s="123"/>
       <c r="R34" s="122"/>
@@ -53076,7 +53856,9 @@
       <c r="M35" s="120"/>
       <c r="N35" s="121"/>
       <c r="O35" s="121"/>
-      <c r="P35" s="122"/>
+      <c r="P35" s="198" t="s">
+        <v>92</v>
+      </c>
       <c r="Q35" s="123"/>
       <c r="R35" s="122"/>
       <c r="S35" s="123"/>
@@ -53107,7 +53889,9 @@
       <c r="M36" s="120"/>
       <c r="N36" s="121"/>
       <c r="O36" s="121"/>
-      <c r="P36" s="122"/>
+      <c r="P36" s="198" t="s">
+        <v>94</v>
+      </c>
       <c r="Q36" s="123"/>
       <c r="R36" s="122"/>
       <c r="S36" s="123"/>
@@ -53138,7 +53922,9 @@
       <c r="M37" s="120"/>
       <c r="N37" s="121"/>
       <c r="O37" s="121"/>
-      <c r="P37" s="122"/>
+      <c r="P37" s="198" t="s">
+        <v>96</v>
+      </c>
       <c r="Q37" s="123"/>
       <c r="R37" s="122"/>
       <c r="S37" s="123"/>
@@ -53169,7 +53955,9 @@
       <c r="M38" s="120"/>
       <c r="N38" s="121"/>
       <c r="O38" s="121"/>
-      <c r="P38" s="122"/>
+      <c r="P38" s="198" t="s">
+        <v>98</v>
+      </c>
       <c r="Q38" s="123"/>
       <c r="R38" s="122"/>
       <c r="S38" s="123"/>
@@ -53200,7 +53988,9 @@
       <c r="M39" s="120"/>
       <c r="N39" s="121"/>
       <c r="O39" s="121"/>
-      <c r="P39" s="122"/>
+      <c r="P39" s="198" t="s">
+        <v>100</v>
+      </c>
       <c r="Q39" s="123"/>
       <c r="R39" s="122"/>
       <c r="S39" s="123"/>
@@ -53231,7 +54021,9 @@
       <c r="M40" s="120"/>
       <c r="N40" s="121"/>
       <c r="O40" s="121"/>
-      <c r="P40" s="122"/>
+      <c r="P40" s="198" t="s">
+        <v>102</v>
+      </c>
       <c r="Q40" s="123"/>
       <c r="R40" s="122"/>
       <c r="S40" s="123"/>
@@ -53247,7 +54039,7 @@
       <c r="AC40" s="124"/>
       <c r="AD40" s="124"/>
     </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="117"/>
       <c r="C41" s="118"/>
       <c r="D41" s="118"/>
@@ -53262,7 +54054,9 @@
       <c r="M41" s="120"/>
       <c r="N41" s="121"/>
       <c r="O41" s="121"/>
-      <c r="P41" s="122"/>
+      <c r="P41" s="199" t="s">
+        <v>40</v>
+      </c>
       <c r="Q41" s="123"/>
       <c r="R41" s="122"/>
       <c r="S41" s="123"/>
@@ -53403,6 +54197,13 @@
       <c r="AD45" s="124"/>
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B46" s="117"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="214"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
       <c r="I46" s="118"/>
       <c r="J46" s="119"/>
       <c r="K46" s="119"/>
@@ -53427,6 +54228,13 @@
       <c r="AD46" s="124"/>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B47" s="117"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="214"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="118"/>
       <c r="I47" s="118"/>
       <c r="J47" s="119"/>
       <c r="K47" s="119"/>
@@ -53451,6 +54259,13 @@
       <c r="AD47" s="124"/>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B48" s="117"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="214"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="118"/>
       <c r="I48" s="118"/>
       <c r="J48" s="119"/>
       <c r="K48" s="119"/>
@@ -53474,7 +54289,26 @@
       <c r="AC48" s="124"/>
       <c r="AD48" s="124"/>
     </row>
-    <row r="49" spans="21:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B49" s="117"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="214"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="119"/>
+      <c r="K49" s="119"/>
+      <c r="L49" s="120"/>
+      <c r="M49" s="120"/>
+      <c r="N49" s="121"/>
+      <c r="O49" s="121"/>
+      <c r="P49" s="122"/>
+      <c r="Q49" s="123"/>
+      <c r="R49" s="122"/>
+      <c r="S49" s="123"/>
+      <c r="T49" s="122"/>
       <c r="U49" s="124"/>
       <c r="V49" s="124"/>
       <c r="W49" s="124"/>
@@ -53486,7 +54320,26 @@
       <c r="AC49" s="124"/>
       <c r="AD49" s="124"/>
     </row>
-    <row r="50" spans="21:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B50" s="117"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="214"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="118"/>
+      <c r="J50" s="119"/>
+      <c r="K50" s="119"/>
+      <c r="L50" s="120"/>
+      <c r="M50" s="120"/>
+      <c r="N50" s="121"/>
+      <c r="O50" s="121"/>
+      <c r="P50" s="122"/>
+      <c r="Q50" s="123"/>
+      <c r="R50" s="122"/>
+      <c r="S50" s="123"/>
+      <c r="T50" s="122"/>
       <c r="U50" s="124"/>
       <c r="V50" s="124"/>
       <c r="W50" s="124"/>
@@ -53498,7 +54351,26 @@
       <c r="AC50" s="124"/>
       <c r="AD50" s="124"/>
     </row>
-    <row r="51" spans="21:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B51" s="117"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="214"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="118"/>
+      <c r="J51" s="119"/>
+      <c r="K51" s="119"/>
+      <c r="L51" s="120"/>
+      <c r="M51" s="120"/>
+      <c r="N51" s="121"/>
+      <c r="O51" s="121"/>
+      <c r="P51" s="122"/>
+      <c r="Q51" s="123"/>
+      <c r="R51" s="122"/>
+      <c r="S51" s="123"/>
+      <c r="T51" s="122"/>
       <c r="U51" s="124"/>
       <c r="V51" s="124"/>
       <c r="W51" s="124"/>
@@ -53510,7 +54382,26 @@
       <c r="AC51" s="124"/>
       <c r="AD51" s="124"/>
     </row>
-    <row r="52" spans="21:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B52" s="117"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="214"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="119"/>
+      <c r="K52" s="119"/>
+      <c r="L52" s="120"/>
+      <c r="M52" s="120"/>
+      <c r="N52" s="121"/>
+      <c r="O52" s="121"/>
+      <c r="P52" s="122"/>
+      <c r="Q52" s="123"/>
+      <c r="R52" s="122"/>
+      <c r="S52" s="123"/>
+      <c r="T52" s="122"/>
       <c r="U52" s="124"/>
       <c r="V52" s="124"/>
       <c r="W52" s="124"/>
@@ -53522,7 +54413,19 @@
       <c r="AC52" s="124"/>
       <c r="AD52" s="124"/>
     </row>
-    <row r="53" spans="21:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="I53" s="118"/>
+      <c r="J53" s="119"/>
+      <c r="K53" s="119"/>
+      <c r="L53" s="120"/>
+      <c r="M53" s="120"/>
+      <c r="N53" s="121"/>
+      <c r="O53" s="121"/>
+      <c r="P53" s="122"/>
+      <c r="Q53" s="123"/>
+      <c r="R53" s="122"/>
+      <c r="S53" s="123"/>
+      <c r="T53" s="122"/>
       <c r="U53" s="124"/>
       <c r="V53" s="124"/>
       <c r="W53" s="124"/>
@@ -53534,8 +54437,131 @@
       <c r="AC53" s="124"/>
       <c r="AD53" s="124"/>
     </row>
+    <row r="54" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="I54" s="118"/>
+      <c r="J54" s="119"/>
+      <c r="K54" s="119"/>
+      <c r="L54" s="120"/>
+      <c r="M54" s="120"/>
+      <c r="N54" s="121"/>
+      <c r="O54" s="121"/>
+      <c r="P54" s="122"/>
+      <c r="Q54" s="123"/>
+      <c r="R54" s="122"/>
+      <c r="S54" s="123"/>
+      <c r="T54" s="122"/>
+      <c r="U54" s="124"/>
+      <c r="V54" s="124"/>
+      <c r="W54" s="124"/>
+      <c r="X54" s="124"/>
+      <c r="Y54" s="124"/>
+      <c r="Z54" s="124"/>
+      <c r="AA54" s="124"/>
+      <c r="AB54" s="124"/>
+      <c r="AC54" s="124"/>
+      <c r="AD54" s="124"/>
+    </row>
+    <row r="55" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="I55" s="118"/>
+      <c r="J55" s="119"/>
+      <c r="K55" s="119"/>
+      <c r="L55" s="120"/>
+      <c r="M55" s="120"/>
+      <c r="N55" s="121"/>
+      <c r="O55" s="121"/>
+      <c r="P55" s="122"/>
+      <c r="Q55" s="123"/>
+      <c r="R55" s="122"/>
+      <c r="S55" s="123"/>
+      <c r="T55" s="122"/>
+      <c r="U55" s="124"/>
+      <c r="V55" s="124"/>
+      <c r="W55" s="124"/>
+      <c r="X55" s="124"/>
+      <c r="Y55" s="124"/>
+      <c r="Z55" s="124"/>
+      <c r="AA55" s="124"/>
+      <c r="AB55" s="124"/>
+      <c r="AC55" s="124"/>
+      <c r="AD55" s="124"/>
+    </row>
+    <row r="56" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="U56" s="124"/>
+      <c r="V56" s="124"/>
+      <c r="W56" s="124"/>
+      <c r="X56" s="124"/>
+      <c r="Y56" s="124"/>
+      <c r="Z56" s="124"/>
+      <c r="AA56" s="124"/>
+      <c r="AB56" s="124"/>
+      <c r="AC56" s="124"/>
+      <c r="AD56" s="124"/>
+    </row>
+    <row r="57" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="U57" s="124"/>
+      <c r="V57" s="124"/>
+      <c r="W57" s="124"/>
+      <c r="X57" s="124"/>
+      <c r="Y57" s="124"/>
+      <c r="Z57" s="124"/>
+      <c r="AA57" s="124"/>
+      <c r="AB57" s="124"/>
+      <c r="AC57" s="124"/>
+      <c r="AD57" s="124"/>
+    </row>
+    <row r="58" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="U58" s="124"/>
+      <c r="V58" s="124"/>
+      <c r="W58" s="124"/>
+      <c r="X58" s="124"/>
+      <c r="Y58" s="124"/>
+      <c r="Z58" s="124"/>
+      <c r="AA58" s="124"/>
+      <c r="AB58" s="124"/>
+      <c r="AC58" s="124"/>
+      <c r="AD58" s="124"/>
+    </row>
+    <row r="59" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="U59" s="124"/>
+      <c r="V59" s="124"/>
+      <c r="W59" s="124"/>
+      <c r="X59" s="124"/>
+      <c r="Y59" s="124"/>
+      <c r="Z59" s="124"/>
+      <c r="AA59" s="124"/>
+      <c r="AB59" s="124"/>
+      <c r="AC59" s="124"/>
+      <c r="AD59" s="124"/>
+    </row>
+    <row r="60" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="U60" s="124"/>
+      <c r="V60" s="124"/>
+      <c r="W60" s="124"/>
+      <c r="X60" s="124"/>
+      <c r="Y60" s="124"/>
+      <c r="Z60" s="124"/>
+      <c r="AA60" s="124"/>
+      <c r="AB60" s="124"/>
+      <c r="AC60" s="124"/>
+      <c r="AD60" s="124"/>
+    </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="68">
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:M18"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="M2:T2"/>
@@ -53561,915 +54587,1021 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="L14:M14"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="B31:T31"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:M30"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B24:T24"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:M29"/>
   </mergeCells>
-  <conditionalFormatting sqref="R23 T23 P23 R21 T21 P13:P16">
-    <cfRule type="cellIs" dxfId="994" priority="64" operator="equal">
+  <conditionalFormatting sqref="R30 T30 P30 R28 T28 P22:P23 P13:P14">
+    <cfRule type="cellIs" dxfId="1072" priority="142" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="993" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="1071" priority="143" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="992" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="1070" priority="144" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="991" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="1069" priority="145" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R23 T23 P23 R21 T21 P13:P16">
-    <cfRule type="cellIs" dxfId="990" priority="72" operator="equal">
+  <conditionalFormatting sqref="R30 T30 P30 R28 T28 P22:P23 P13:P14">
+    <cfRule type="cellIs" dxfId="1068" priority="150" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2 T2 P2 R12 T12 R23:R1048576 T23:T1048576 P23:P26 R21 T21 P35:P1048576 P12:P16">
-    <cfRule type="cellIs" dxfId="989" priority="73" operator="equal">
+  <conditionalFormatting sqref="R2 T2 P2 R12 T12 R30:R1048576 T30:T1048576 P30:P33 R28 T28 P42:P1048576 P22:P23 P12:P14">
+    <cfRule type="cellIs" dxfId="1067" priority="151" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="988" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="1066" priority="152" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T23 R23 P23 R21 T21 P13:P16">
-    <cfRule type="cellIs" dxfId="987" priority="96" operator="equal">
+  <conditionalFormatting sqref="T30 R30 P30 R28 T28 P22:P23 P13:P14">
+    <cfRule type="cellIs" dxfId="1065" priority="174" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R2 T1:T2 P1:P2 R12 T12 T23:T1048576 R23:R1048576 P23:P26 T21 R21 P35:P1048576 P12:P16">
-    <cfRule type="cellIs" dxfId="986" priority="382" operator="equal">
+  <conditionalFormatting sqref="R1:R2 T1:T2 P1:P2 R12 T12 T30:T1048576 R30:R1048576 P30:P33 T28 R28 P42:P1048576 P22:P23 P12:P14">
+    <cfRule type="cellIs" dxfId="1064" priority="460" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10 T10 P10">
-    <cfRule type="cellIs" dxfId="985" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="1063" priority="461" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="984" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="1062" priority="462" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10 T10 P10">
-    <cfRule type="cellIs" dxfId="983" priority="385" operator="equal">
+    <cfRule type="cellIs" dxfId="1061" priority="463" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R19">
-    <cfRule type="cellIs" dxfId="982" priority="1068" operator="equal">
+  <conditionalFormatting sqref="R26">
+    <cfRule type="cellIs" dxfId="1060" priority="1146" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="981" priority="1069" operator="equal">
+    <cfRule type="cellIs" dxfId="1059" priority="1147" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="980" priority="1070" operator="equal">
+    <cfRule type="cellIs" dxfId="1058" priority="1148" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="979" priority="1071" operator="equal">
+    <cfRule type="cellIs" dxfId="1057" priority="1149" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R19">
-    <cfRule type="cellIs" dxfId="978" priority="1072" operator="equal">
+  <conditionalFormatting sqref="R26">
+    <cfRule type="cellIs" dxfId="1056" priority="1150" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R19">
-    <cfRule type="cellIs" dxfId="977" priority="1073" operator="equal">
+  <conditionalFormatting sqref="R26">
+    <cfRule type="cellIs" dxfId="1055" priority="1151" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="976" priority="1074" operator="equal">
+    <cfRule type="cellIs" dxfId="1054" priority="1152" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="975" priority="1075" operator="equal">
+  <conditionalFormatting sqref="T26">
+    <cfRule type="cellIs" dxfId="1053" priority="1153" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="974" priority="1076" operator="equal">
+    <cfRule type="cellIs" dxfId="1052" priority="1154" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="973" priority="1077" operator="equal">
+    <cfRule type="cellIs" dxfId="1051" priority="1155" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="972" priority="1078" operator="equal">
+    <cfRule type="cellIs" dxfId="1050" priority="1156" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R19">
-    <cfRule type="cellIs" dxfId="971" priority="1079" operator="equal">
+  <conditionalFormatting sqref="R26">
+    <cfRule type="cellIs" dxfId="1049" priority="1157" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="970" priority="1080" operator="equal">
+  <conditionalFormatting sqref="T26">
+    <cfRule type="cellIs" dxfId="1048" priority="1158" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="969" priority="1081" operator="equal">
+  <conditionalFormatting sqref="T26">
+    <cfRule type="cellIs" dxfId="1047" priority="1159" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="968" priority="1082" operator="equal">
+    <cfRule type="cellIs" dxfId="1046" priority="1160" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="967" priority="1083" operator="equal">
+  <conditionalFormatting sqref="T26">
+    <cfRule type="cellIs" dxfId="1045" priority="1161" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R19 T19">
-    <cfRule type="cellIs" dxfId="966" priority="1084" operator="equal">
+  <conditionalFormatting sqref="R26 T26">
+    <cfRule type="cellIs" dxfId="1044" priority="1162" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R20">
-    <cfRule type="cellIs" dxfId="965" priority="1901" operator="equal">
+  <conditionalFormatting sqref="R27">
+    <cfRule type="cellIs" dxfId="1043" priority="1979" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="964" priority="1902" operator="equal">
+    <cfRule type="cellIs" dxfId="1042" priority="1980" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="963" priority="1903" operator="equal">
+    <cfRule type="cellIs" dxfId="1041" priority="1981" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="962" priority="1904" operator="equal">
+    <cfRule type="cellIs" dxfId="1040" priority="1982" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R20">
-    <cfRule type="cellIs" dxfId="961" priority="1905" operator="equal">
+  <conditionalFormatting sqref="R27">
+    <cfRule type="cellIs" dxfId="1039" priority="1983" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R20">
-    <cfRule type="cellIs" dxfId="960" priority="1906" operator="equal">
+  <conditionalFormatting sqref="R27">
+    <cfRule type="cellIs" dxfId="1038" priority="1984" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="959" priority="1907" operator="equal">
+    <cfRule type="cellIs" dxfId="1037" priority="1985" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R20">
-    <cfRule type="cellIs" dxfId="958" priority="1912" operator="equal">
+  <conditionalFormatting sqref="R27">
+    <cfRule type="cellIs" dxfId="1036" priority="1990" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T20">
-    <cfRule type="cellIs" dxfId="957" priority="1925" operator="equal">
+  <conditionalFormatting sqref="T27">
+    <cfRule type="cellIs" dxfId="1035" priority="2003" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="956" priority="1926" operator="equal">
+    <cfRule type="cellIs" dxfId="1034" priority="2004" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="955" priority="1927" operator="equal">
+    <cfRule type="cellIs" dxfId="1033" priority="2005" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="954" priority="1928" operator="equal">
+    <cfRule type="cellIs" dxfId="1032" priority="2006" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T20">
-    <cfRule type="cellIs" dxfId="953" priority="1930" operator="equal">
+  <conditionalFormatting sqref="T27">
+    <cfRule type="cellIs" dxfId="1031" priority="2008" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T20">
-    <cfRule type="cellIs" dxfId="952" priority="1931" operator="equal">
+  <conditionalFormatting sqref="T27">
+    <cfRule type="cellIs" dxfId="1030" priority="2009" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="951" priority="1932" operator="equal">
+    <cfRule type="cellIs" dxfId="1029" priority="2010" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T20">
-    <cfRule type="cellIs" dxfId="950" priority="1933" operator="equal">
+  <conditionalFormatting sqref="T27">
+    <cfRule type="cellIs" dxfId="1028" priority="2011" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R20 T20">
-    <cfRule type="cellIs" dxfId="949" priority="1934" operator="equal">
+  <conditionalFormatting sqref="R27 T27">
+    <cfRule type="cellIs" dxfId="1027" priority="2012" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11 R11 T11">
-    <cfRule type="cellIs" dxfId="948" priority="3074" operator="equal">
+    <cfRule type="cellIs" dxfId="1026" priority="3152" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="947" priority="3075" operator="equal">
+    <cfRule type="cellIs" dxfId="1025" priority="3153" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11 R11 T11">
-    <cfRule type="cellIs" dxfId="946" priority="3076" operator="equal">
+    <cfRule type="cellIs" dxfId="1024" priority="3154" operator="equal">
+      <formula>"Impedimento"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R29">
+    <cfRule type="cellIs" dxfId="1023" priority="3155" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1022" priority="3156" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1021" priority="3157" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1020" priority="3158" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R29">
+    <cfRule type="cellIs" dxfId="1019" priority="3159" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R29">
+    <cfRule type="cellIs" dxfId="1018" priority="3160" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1017" priority="3161" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T29">
+    <cfRule type="cellIs" dxfId="1016" priority="3162" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1015" priority="3163" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1014" priority="3164" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1013" priority="3165" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R29">
+    <cfRule type="cellIs" dxfId="1012" priority="3166" operator="equal">
+      <formula>"Bloqueado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T29">
+    <cfRule type="cellIs" dxfId="1011" priority="3167" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T29">
+    <cfRule type="cellIs" dxfId="1010" priority="3168" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1009" priority="3169" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T29">
+    <cfRule type="cellIs" dxfId="1008" priority="3170" operator="equal">
+      <formula>"Bloqueado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T29 R29">
+    <cfRule type="cellIs" dxfId="1007" priority="3171" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22">
-    <cfRule type="cellIs" dxfId="945" priority="3077" operator="equal">
+    <cfRule type="cellIs" dxfId="1006" priority="3471" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="944" priority="3078" operator="equal">
+    <cfRule type="cellIs" dxfId="1005" priority="3472" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="943" priority="3079" operator="equal">
+    <cfRule type="cellIs" dxfId="1004" priority="3473" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="942" priority="3080" operator="equal">
+    <cfRule type="cellIs" dxfId="1003" priority="3474" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22">
-    <cfRule type="cellIs" dxfId="941" priority="3081" operator="equal">
+    <cfRule type="cellIs" dxfId="1002" priority="3475" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22">
-    <cfRule type="cellIs" dxfId="940" priority="3082" operator="equal">
+    <cfRule type="cellIs" dxfId="1001" priority="3476" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="939" priority="3083" operator="equal">
+    <cfRule type="cellIs" dxfId="1000" priority="3477" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22">
-    <cfRule type="cellIs" dxfId="938" priority="3084" operator="equal">
+    <cfRule type="cellIs" dxfId="999" priority="3478" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="937" priority="3085" operator="equal">
+    <cfRule type="cellIs" dxfId="998" priority="3479" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="936" priority="3086" operator="equal">
+    <cfRule type="cellIs" dxfId="997" priority="3480" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="935" priority="3087" operator="equal">
+    <cfRule type="cellIs" dxfId="996" priority="3481" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22">
-    <cfRule type="cellIs" dxfId="934" priority="3088" operator="equal">
+    <cfRule type="cellIs" dxfId="995" priority="3482" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22">
-    <cfRule type="cellIs" dxfId="933" priority="3089" operator="equal">
+    <cfRule type="cellIs" dxfId="994" priority="3483" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22">
-    <cfRule type="cellIs" dxfId="932" priority="3090" operator="equal">
+    <cfRule type="cellIs" dxfId="993" priority="3484" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="931" priority="3091" operator="equal">
+    <cfRule type="cellIs" dxfId="992" priority="3485" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22">
-    <cfRule type="cellIs" dxfId="930" priority="3092" operator="equal">
+    <cfRule type="cellIs" dxfId="991" priority="3486" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22 R22">
-    <cfRule type="cellIs" dxfId="929" priority="3093" operator="equal">
+    <cfRule type="cellIs" dxfId="990" priority="3487" operator="equal">
+      <formula>"Impedimento"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14">
+    <cfRule type="cellIs" dxfId="989" priority="3488" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="988" priority="3489" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="987" priority="3490" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="986" priority="3491" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14">
+    <cfRule type="cellIs" dxfId="985" priority="3492" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14">
+    <cfRule type="cellIs" dxfId="984" priority="3493" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="983" priority="3494" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14">
+    <cfRule type="cellIs" dxfId="982" priority="3495" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="981" priority="3496" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="980" priority="3497" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="979" priority="3498" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14">
+    <cfRule type="cellIs" dxfId="978" priority="3499" operator="equal">
+      <formula>"Bloqueado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14">
+    <cfRule type="cellIs" dxfId="977" priority="3500" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14">
+    <cfRule type="cellIs" dxfId="976" priority="3501" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="975" priority="3502" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14">
+    <cfRule type="cellIs" dxfId="974" priority="3503" operator="equal">
+      <formula>"Bloqueado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14 R14">
+    <cfRule type="cellIs" dxfId="973" priority="3504" operator="equal">
+      <formula>"Impedimento"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R23">
+    <cfRule type="cellIs" dxfId="972" priority="3505" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="971" priority="3506" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="970" priority="3507" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="969" priority="3508" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R23">
+    <cfRule type="cellIs" dxfId="968" priority="3509" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R23">
+    <cfRule type="cellIs" dxfId="967" priority="3510" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="966" priority="3511" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R23">
+    <cfRule type="cellIs" dxfId="965" priority="3512" operator="equal">
+      <formula>"Bloqueado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13">
+    <cfRule type="cellIs" dxfId="964" priority="3513" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="963" priority="3514" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="962" priority="3515" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="961" priority="3516" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13">
+    <cfRule type="cellIs" dxfId="960" priority="3517" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13">
+    <cfRule type="cellIs" dxfId="959" priority="3518" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="958" priority="3519" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T13">
+    <cfRule type="cellIs" dxfId="957" priority="3520" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="956" priority="3521" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="955" priority="3522" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="954" priority="3523" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13">
+    <cfRule type="cellIs" dxfId="953" priority="3524" operator="equal">
+      <formula>"Bloqueado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T13">
+    <cfRule type="cellIs" dxfId="952" priority="3525" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T13">
+    <cfRule type="cellIs" dxfId="951" priority="3526" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="950" priority="3527" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T13">
+    <cfRule type="cellIs" dxfId="949" priority="3528" operator="equal">
+      <formula>"Bloqueado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T13 R13">
+    <cfRule type="cellIs" dxfId="948" priority="3529" operator="equal">
+      <formula>"Impedimento"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T23">
+    <cfRule type="cellIs" dxfId="947" priority="3530" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="946" priority="3531" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="945" priority="3532" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="944" priority="3533" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T23">
+    <cfRule type="cellIs" dxfId="943" priority="3534" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T23">
+    <cfRule type="cellIs" dxfId="942" priority="3535" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="941" priority="3536" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T23">
+    <cfRule type="cellIs" dxfId="940" priority="3537" operator="equal">
+      <formula>"Bloqueado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T23 R23">
+    <cfRule type="cellIs" dxfId="939" priority="3538" operator="equal">
+      <formula>"Impedimento"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26:P29">
+    <cfRule type="cellIs" dxfId="938" priority="4824" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="937" priority="4825" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26:P29">
+    <cfRule type="cellIs" dxfId="936" priority="4826" operator="equal">
+      <formula>"Bloqueado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26:P29">
+    <cfRule type="cellIs" dxfId="935" priority="4827" operator="equal">
+      <formula>"Impedimento"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26:P29">
+    <cfRule type="cellIs" dxfId="934" priority="4828" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="933" priority="4829" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="932" priority="4830" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="931" priority="4831" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26:P29">
+    <cfRule type="cellIs" dxfId="930" priority="4832" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="929" priority="4833" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="928" priority="4834" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="927" priority="4835" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26:P29">
+    <cfRule type="cellIs" dxfId="926" priority="4836" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26:P29">
+    <cfRule type="cellIs" dxfId="925" priority="4837" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26:P29">
+    <cfRule type="cellIs" dxfId="924" priority="4838" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="923" priority="4839" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26:P29">
+    <cfRule type="cellIs" dxfId="922" priority="4840" operator="equal">
+      <formula>"Bloqueado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26:P29">
+    <cfRule type="cellIs" dxfId="921" priority="4841" operator="equal">
+      <formula>"Impedimento"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:P41">
+    <cfRule type="cellIs" dxfId="920" priority="123" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="919" priority="124" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:P41">
+    <cfRule type="cellIs" dxfId="918" priority="125" operator="equal">
+      <formula>"Bloqueado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:P41">
+    <cfRule type="cellIs" dxfId="917" priority="126" operator="equal">
+      <formula>"Impedimento"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:P41">
+    <cfRule type="cellIs" dxfId="916" priority="127" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="915" priority="128" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="914" priority="129" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="913" priority="130" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:P41">
+    <cfRule type="cellIs" dxfId="912" priority="131" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="911" priority="132" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="910" priority="133" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="909" priority="134" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:P41">
+    <cfRule type="cellIs" dxfId="908" priority="135" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:P41">
+    <cfRule type="cellIs" dxfId="907" priority="136" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:P41">
+    <cfRule type="cellIs" dxfId="906" priority="137" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="905" priority="138" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:P41">
+    <cfRule type="cellIs" dxfId="904" priority="139" operator="equal">
+      <formula>"Bloqueado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:P41">
+    <cfRule type="cellIs" dxfId="903" priority="140" operator="equal">
+      <formula>"Impedimento"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16 T16">
+    <cfRule type="cellIs" dxfId="902" priority="79" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="901" priority="80" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="900" priority="81" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="899" priority="82" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16 T16">
+    <cfRule type="cellIs" dxfId="898" priority="83" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16 T16">
+    <cfRule type="cellIs" dxfId="897" priority="84" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="896" priority="85" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16 T16">
+    <cfRule type="cellIs" dxfId="895" priority="86" operator="equal">
+      <formula>"Bloqueado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16 R16">
+    <cfRule type="cellIs" dxfId="894" priority="87" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="928" priority="3393" operator="equal">
+    <cfRule type="cellIs" dxfId="893" priority="88" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="927" priority="3394" operator="equal">
+    <cfRule type="cellIs" dxfId="892" priority="89" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="926" priority="3395" operator="equal">
+    <cfRule type="cellIs" dxfId="891" priority="90" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="925" priority="3396" operator="equal">
+    <cfRule type="cellIs" dxfId="890" priority="91" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="924" priority="3397" operator="equal">
+    <cfRule type="cellIs" dxfId="889" priority="92" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="923" priority="3398" operator="equal">
+    <cfRule type="cellIs" dxfId="888" priority="93" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="922" priority="3399" operator="equal">
+    <cfRule type="cellIs" dxfId="887" priority="94" operator="equal">
       <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R15">
+    <cfRule type="cellIs" dxfId="886" priority="95" operator="equal">
+      <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15">
-    <cfRule type="cellIs" dxfId="921" priority="3400" operator="equal">
+    <cfRule type="cellIs" dxfId="885" priority="96" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="920" priority="3401" operator="equal">
+    <cfRule type="cellIs" dxfId="884" priority="97" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="919" priority="3402" operator="equal">
+    <cfRule type="cellIs" dxfId="883" priority="98" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="918" priority="3403" operator="equal">
+    <cfRule type="cellIs" dxfId="882" priority="99" operator="equal">
       <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="917" priority="3404" operator="equal">
-      <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15">
-    <cfRule type="cellIs" dxfId="916" priority="3405" operator="equal">
+    <cfRule type="cellIs" dxfId="881" priority="100" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15">
-    <cfRule type="cellIs" dxfId="915" priority="3406" operator="equal">
+    <cfRule type="cellIs" dxfId="880" priority="101" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="914" priority="3407" operator="equal">
+    <cfRule type="cellIs" dxfId="879" priority="102" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15">
-    <cfRule type="cellIs" dxfId="913" priority="3408" operator="equal">
+    <cfRule type="cellIs" dxfId="878" priority="103" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T15 R15">
-    <cfRule type="cellIs" dxfId="912" priority="3409" operator="equal">
+  <conditionalFormatting sqref="R15 T15">
+    <cfRule type="cellIs" dxfId="877" priority="104" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="911" priority="3410" operator="equal">
+  <conditionalFormatting sqref="P15:P16">
+    <cfRule type="cellIs" dxfId="876" priority="105" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="875" priority="106" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15:P16">
+    <cfRule type="cellIs" dxfId="874" priority="107" operator="equal">
+      <formula>"Bloqueado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15:P16">
+    <cfRule type="cellIs" dxfId="873" priority="108" operator="equal">
+      <formula>"Impedimento"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15:P16">
+    <cfRule type="cellIs" dxfId="872" priority="109" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="910" priority="3411" operator="equal">
+    <cfRule type="cellIs" dxfId="871" priority="110" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="909" priority="3412" operator="equal">
+    <cfRule type="cellIs" dxfId="870" priority="111" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="908" priority="3413" operator="equal">
+    <cfRule type="cellIs" dxfId="869" priority="112" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="907" priority="3414" operator="equal">
+  <conditionalFormatting sqref="P15:P16">
+    <cfRule type="cellIs" dxfId="868" priority="113" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="867" priority="114" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="866" priority="115" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="865" priority="116" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15:P16">
+    <cfRule type="cellIs" dxfId="864" priority="117" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="906" priority="3415" operator="equal">
+  <conditionalFormatting sqref="P15:P16">
+    <cfRule type="cellIs" dxfId="863" priority="118" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15:P16">
+    <cfRule type="cellIs" dxfId="862" priority="119" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="905" priority="3416" operator="equal">
+    <cfRule type="cellIs" dxfId="861" priority="120" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="904" priority="3417" operator="equal">
+  <conditionalFormatting sqref="P15:P16">
+    <cfRule type="cellIs" dxfId="860" priority="121" operator="equal">
+      <formula>"Bloqueado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15:P16">
+    <cfRule type="cellIs" dxfId="859" priority="122" operator="equal">
+      <formula>"Impedimento"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P17:P21">
+    <cfRule type="cellIs" dxfId="858" priority="53" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="903" priority="3418" operator="equal">
+    <cfRule type="cellIs" dxfId="857" priority="54" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="902" priority="3419" operator="equal">
+    <cfRule type="cellIs" dxfId="856" priority="55" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="901" priority="3420" operator="equal">
+    <cfRule type="cellIs" dxfId="855" priority="56" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="900" priority="3421" operator="equal">
+  <conditionalFormatting sqref="P17:P21">
+    <cfRule type="cellIs" dxfId="854" priority="57" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P17:P21">
+    <cfRule type="cellIs" dxfId="853" priority="58" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="852" priority="59" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P17:P21">
+    <cfRule type="cellIs" dxfId="851" priority="60" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="899" priority="3422" operator="equal">
+  <conditionalFormatting sqref="P17:P21">
+    <cfRule type="cellIs" dxfId="850" priority="61" operator="equal">
+      <formula>"Impedimento"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17:R21">
+    <cfRule type="cellIs" dxfId="849" priority="62" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="848" priority="63" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="847" priority="64" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="846" priority="65" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17:R21">
+    <cfRule type="cellIs" dxfId="845" priority="66" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="898" priority="3423" operator="equal">
+  <conditionalFormatting sqref="R17:R21">
+    <cfRule type="cellIs" dxfId="844" priority="67" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="897" priority="3424" operator="equal">
+    <cfRule type="cellIs" dxfId="843" priority="68" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="896" priority="3425" operator="equal">
+  <conditionalFormatting sqref="T17:T21">
+    <cfRule type="cellIs" dxfId="842" priority="69" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="841" priority="70" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="840" priority="71" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="839" priority="72" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17:R21">
+    <cfRule type="cellIs" dxfId="838" priority="73" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T14 R14">
-    <cfRule type="cellIs" dxfId="895" priority="3426" operator="equal">
-      <formula>"Impedimento"</formula>
+  <conditionalFormatting sqref="T17:T21">
+    <cfRule type="cellIs" dxfId="837" priority="74" operator="equal">
+      <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R16">
-    <cfRule type="cellIs" dxfId="894" priority="3427" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="893" priority="3428" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="892" priority="3429" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="891" priority="3430" operator="equal">
-      <formula>"Passou"</formula>
+  <conditionalFormatting sqref="T17:T21">
+    <cfRule type="cellIs" dxfId="836" priority="75" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="835" priority="76" operator="equal">
+      <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R16">
-    <cfRule type="cellIs" dxfId="890" priority="3431" operator="equal">
-      <formula>"Observação"</formula>
+  <conditionalFormatting sqref="T17:T21">
+    <cfRule type="cellIs" dxfId="834" priority="77" operator="equal">
+      <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R16">
-    <cfRule type="cellIs" dxfId="889" priority="3432" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="888" priority="3433" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R16">
-    <cfRule type="cellIs" dxfId="887" priority="3434" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="886" priority="3435" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="885" priority="3436" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="884" priority="3437" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="883" priority="3438" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="882" priority="3439" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="881" priority="3440" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="880" priority="3441" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T13">
-    <cfRule type="cellIs" dxfId="879" priority="3442" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="878" priority="3443" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="877" priority="3444" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="876" priority="3445" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="875" priority="3446" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T13">
-    <cfRule type="cellIs" dxfId="874" priority="3447" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T13">
-    <cfRule type="cellIs" dxfId="873" priority="3448" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="872" priority="3449" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T13">
-    <cfRule type="cellIs" dxfId="871" priority="3450" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T13 R13">
-    <cfRule type="cellIs" dxfId="870" priority="3451" operator="equal">
-      <formula>"Impedimento"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T16">
-    <cfRule type="cellIs" dxfId="869" priority="3452" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="868" priority="3453" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="867" priority="3454" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="866" priority="3455" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T16">
-    <cfRule type="cellIs" dxfId="865" priority="3456" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T16">
-    <cfRule type="cellIs" dxfId="864" priority="3457" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="863" priority="3458" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T16">
-    <cfRule type="cellIs" dxfId="862" priority="3459" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T16 R16">
-    <cfRule type="cellIs" dxfId="861" priority="3460" operator="equal">
-      <formula>"Impedimento"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P19:P22">
-    <cfRule type="cellIs" dxfId="860" priority="4746" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="859" priority="4747" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P19:P22">
-    <cfRule type="cellIs" dxfId="858" priority="4748" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P19:P22">
-    <cfRule type="cellIs" dxfId="857" priority="4749" operator="equal">
-      <formula>"Impedimento"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P19:P22">
-    <cfRule type="cellIs" dxfId="856" priority="4750" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="855" priority="4751" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="854" priority="4752" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="853" priority="4753" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P19:P22">
-    <cfRule type="cellIs" dxfId="852" priority="4754" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="851" priority="4755" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="850" priority="4756" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="849" priority="4757" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P19:P22">
-    <cfRule type="cellIs" dxfId="848" priority="4758" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P19:P22">
-    <cfRule type="cellIs" dxfId="847" priority="4759" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P19:P22">
-    <cfRule type="cellIs" dxfId="846" priority="4760" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="845" priority="4761" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P19:P22">
-    <cfRule type="cellIs" dxfId="844" priority="4762" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P19:P22">
-    <cfRule type="cellIs" dxfId="843" priority="4763" operator="equal">
-      <formula>"Impedimento"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P27:P34">
-    <cfRule type="cellIs" dxfId="842" priority="45" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="841" priority="46" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P27:P34">
-    <cfRule type="cellIs" dxfId="840" priority="47" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P27:P34">
-    <cfRule type="cellIs" dxfId="839" priority="48" operator="equal">
-      <formula>"Impedimento"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P27:P34">
-    <cfRule type="cellIs" dxfId="838" priority="49" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="837" priority="50" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="836" priority="51" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="835" priority="52" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P27:P34">
-    <cfRule type="cellIs" dxfId="834" priority="53" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="833" priority="54" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="832" priority="55" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="831" priority="56" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P27:P34">
-    <cfRule type="cellIs" dxfId="830" priority="57" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P27:P34">
-    <cfRule type="cellIs" dxfId="829" priority="58" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P27:P34">
-    <cfRule type="cellIs" dxfId="828" priority="59" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="827" priority="60" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P27:P34">
-    <cfRule type="cellIs" dxfId="826" priority="61" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P27:P34">
-    <cfRule type="cellIs" dxfId="825" priority="62" operator="equal">
-      <formula>"Impedimento"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R18 T18">
-    <cfRule type="cellIs" dxfId="824" priority="1" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="823" priority="2" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="822" priority="3" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="821" priority="4" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R18 T18">
-    <cfRule type="cellIs" dxfId="820" priority="5" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R18 T18">
-    <cfRule type="cellIs" dxfId="819" priority="6" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="818" priority="7" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R18 T18">
-    <cfRule type="cellIs" dxfId="817" priority="8" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T18 R18">
-    <cfRule type="cellIs" dxfId="816" priority="9" operator="equal">
-      <formula>"Impedimento"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R17">
-    <cfRule type="cellIs" dxfId="815" priority="10" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="814" priority="11" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="813" priority="12" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="812" priority="13" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R17">
-    <cfRule type="cellIs" dxfId="811" priority="14" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R17">
-    <cfRule type="cellIs" dxfId="810" priority="15" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="809" priority="16" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R17">
-    <cfRule type="cellIs" dxfId="808" priority="17" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T17">
-    <cfRule type="cellIs" dxfId="807" priority="18" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="806" priority="19" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="805" priority="20" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="804" priority="21" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T17">
-    <cfRule type="cellIs" dxfId="803" priority="22" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T17">
-    <cfRule type="cellIs" dxfId="802" priority="23" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="801" priority="24" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T17">
-    <cfRule type="cellIs" dxfId="800" priority="25" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R17 T17">
-    <cfRule type="cellIs" dxfId="799" priority="26" operator="equal">
-      <formula>"Impedimento"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="798" priority="27" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="797" priority="28" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="796" priority="29" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="795" priority="30" operator="equal">
-      <formula>"Impedimento"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="794" priority="31" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="793" priority="32" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="792" priority="33" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="791" priority="34" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="790" priority="35" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="789" priority="36" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="788" priority="37" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="787" priority="38" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="786" priority="39" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="785" priority="40" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="784" priority="41" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="783" priority="42" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="782" priority="43" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="781" priority="44" operator="equal">
+  <conditionalFormatting sqref="T17:T21 R17:R21">
+    <cfRule type="cellIs" dxfId="833" priority="78" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P27:P34 P13:P22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P34:P41 P13:P23 P26:P29">
       <formula1>"Passou,Falhou,Inconformidade,Impedimento,Bloqueado,Cancelado,Sugestão,N/A"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P23 T13:T23 R13:R23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P30 T13:T23 T26:T30 R13:R23 R26:R30">
       <formula1>"Passou,Falhou,Inconformidade,Impedimento,Bloqueado,Cancelado,Sugestão,N/A,N/E"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -54482,7 +55614,7 @@
     <oddFooter>&amp;L&amp;Z&amp;F&amp;R&amp;P de &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="C2:E5 B13:C13 B16:C16 B11 C15 B15 B19:C21 B17:C17 M3" unlockedFormula="1"/>
+    <ignoredError sqref="C2:E5 B13:C13 B23:C23 B11 C22 B22 B26:C28 M3 A15:C16 C14 E15:XFD15 F16:K16 M16:XFD16" unlockedFormula="1"/>
     <ignoredError sqref="H4:J8 K5:K8" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
@@ -54595,7 +55727,8 @@
 ESPECIFICAÇÕES DO SISTEMA
 1. Sugestões de Pesquisa (Autocomplete): À medida que o usuário digita na barra de pesquisa, o sistema deve sugerir resultados relacionados (autocomplete).
 2. Menu de Navegação: O menu deve ser responsivo e funcionar corretamente em diferentes tamanhos de tela (desktop, tablet, celular).
-3. Carregamento e Desempenho: A página inicial deve carregar rapidamente em diferentes navegadores e dispositivos.</v>
+3. Carregamento e Desempenho: A página inicial deve carregar rapidamente em diferentes navegadores e dispositivos.
+Obs.: Para todos os casos de teste será gerado um print de tela para evidência do resultado.</v>
       </c>
       <c r="N3" s="261"/>
       <c r="O3" s="261"/>
@@ -57023,7 +58156,8 @@
 ESPECIFICAÇÕES DO SISTEMA
 1. Sugestões de Pesquisa (Autocomplete): À medida que o usuário digita na barra de pesquisa, o sistema deve sugerir resultados relacionados (autocomplete).
 2. Menu de Navegação: O menu deve ser responsivo e funcionar corretamente em diferentes tamanhos de tela (desktop, tablet, celular).
-3. Carregamento e Desempenho: A página inicial deve carregar rapidamente em diferentes navegadores e dispositivos.</v>
+3. Carregamento e Desempenho: A página inicial deve carregar rapidamente em diferentes navegadores e dispositivos.
+Obs.: Para todos os casos de teste será gerado um print de tela para evidência do resultado.</v>
       </c>
       <c r="N3" s="278"/>
       <c r="O3" s="278"/>
@@ -58687,7 +59821,8 @@
 ESPECIFICAÇÕES DO SISTEMA
 1. Sugestões de Pesquisa (Autocomplete): À medida que o usuário digita na barra de pesquisa, o sistema deve sugerir resultados relacionados (autocomplete).
 2. Menu de Navegação: O menu deve ser responsivo e funcionar corretamente em diferentes tamanhos de tela (desktop, tablet, celular).
-3. Carregamento e Desempenho: A página inicial deve carregar rapidamente em diferentes navegadores e dispositivos.</v>
+3. Carregamento e Desempenho: A página inicial deve carregar rapidamente em diferentes navegadores e dispositivos.
+Obs.: Para todos os casos de teste será gerado um print de tela para evidência do resultado.</v>
       </c>
       <c r="N3" s="278"/>
       <c r="O3" s="278"/>

--- a/Docs/Plano de Testes_V1.xlsx
+++ b/Docs/Plano de Testes_V1.xlsx
@@ -1468,7 +1468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="227">
   <si>
     <t>CONTROLE DE VERSÕES DO TEMPLATE</t>
   </si>
@@ -2101,12 +2101,6 @@
     <t xml:space="preserve">Seleção de departamento </t>
   </si>
   <si>
-    <t>Selecionar um departamento na lista de opções</t>
-  </si>
-  <si>
-    <t>O campo de pesquisa deve possuir uma lista de opções para seleção</t>
-  </si>
-  <si>
     <t>Teclas de navegação.</t>
   </si>
   <si>
@@ -2116,19 +2110,7 @@
     <t>O sistema deve permitir a navegação com as setas do teclado para seleção de sugestão apresentada pelo sistema.</t>
   </si>
   <si>
-    <t>Selecionar o departamento "Pet Pop" na lista de opções</t>
-  </si>
-  <si>
-    <t>A opção deve estar presente na lista para seleção</t>
-  </si>
-  <si>
     <t>Autocomplete</t>
-  </si>
-  <si>
-    <t>CT-0011</t>
-  </si>
-  <si>
-    <t>CT-0012</t>
   </si>
   <si>
     <t xml:space="preserve">Pesquisa com caracteres </t>
@@ -2264,6 +2246,12 @@
   </si>
   <si>
     <t>Verificar as sugestões apresentadas pelo sistema iniciados com a palavra "iphone".</t>
+  </si>
+  <si>
+    <t>Pesquisa com caracteres, digitar "a" depois "b" e depois "c" no campo de pesquisa.</t>
+  </si>
+  <si>
+    <t>Verificar as sugestões apresentadas pelo sistema.</t>
   </si>
 </sst>
 </file>
@@ -4469,7 +4457,404 @@
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1121">
+  <dxfs count="1156">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -17482,13 +17867,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -17497,7 +17882,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22006,7 +22391,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22049,7 +22434,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22092,7 +22477,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22135,7 +22520,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22178,7 +22563,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22221,7 +22606,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22264,7 +22649,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22307,7 +22692,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22350,7 +22735,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22393,7 +22778,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22436,7 +22821,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22479,7 +22864,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22522,7 +22907,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22565,7 +22950,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22613,7 +22998,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22661,7 +23046,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22709,7 +23094,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22757,7 +23142,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22805,7 +23190,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22853,7 +23238,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22901,7 +23286,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22949,7 +23334,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22997,7 +23382,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23045,7 +23430,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23093,7 +23478,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23141,7 +23526,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23189,7 +23574,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23237,7 +23622,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23285,7 +23670,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23333,7 +23718,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23381,7 +23766,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23429,7 +23814,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23477,7 +23862,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23525,7 +23910,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23573,7 +23958,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23621,7 +24006,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23669,7 +24054,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23717,7 +24102,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23765,7 +24150,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23813,7 +24198,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23861,7 +24246,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23909,7 +24294,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23957,7 +24342,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24005,7 +24390,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24053,7 +24438,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24101,7 +24486,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24149,7 +24534,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24197,7 +24582,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24245,7 +24630,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24293,7 +24678,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24341,7 +24726,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24389,7 +24774,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -32778,7 +33163,7 @@
       <c r="D2" s="235"/>
       <c r="E2" s="235"/>
       <c r="F2" s="236" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G2" s="237"/>
       <c r="H2" s="237"/>
@@ -39167,13 +39552,13 @@
         <v>43</v>
       </c>
       <c r="E15" s="227" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F15" s="227"/>
       <c r="G15" s="227"/>
       <c r="H15" s="227"/>
       <c r="I15" s="228" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J15" s="228"/>
       <c r="K15" s="228"/>
@@ -39183,7 +39568,7 @@
         <v>44</v>
       </c>
       <c r="O15" s="229" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P15" s="229"/>
       <c r="Q15" s="229"/>
@@ -39203,7 +39588,7 @@
       <c r="G16" s="227"/>
       <c r="H16" s="227"/>
       <c r="I16" s="228" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J16" s="228"/>
       <c r="K16" s="228"/>
@@ -39235,7 +39620,7 @@
       <c r="G17" s="227"/>
       <c r="H17" s="227"/>
       <c r="I17" s="228" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J17" s="228"/>
       <c r="K17" s="228"/>
@@ -39363,7 +39748,7 @@
         <v>49</v>
       </c>
       <c r="E22" s="227" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F22" s="227"/>
       <c r="G22" s="227"/>
@@ -39427,13 +39812,13 @@
         <v>51</v>
       </c>
       <c r="E24" s="227" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F24" s="227"/>
       <c r="G24" s="227"/>
       <c r="H24" s="227"/>
       <c r="I24" s="228" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="J24" s="228"/>
       <c r="K24" s="228"/>
@@ -39463,7 +39848,7 @@
       <c r="G25" s="227"/>
       <c r="H25" s="227"/>
       <c r="I25" s="228" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J25" s="228"/>
       <c r="K25" s="228"/>
@@ -39493,7 +39878,7 @@
       <c r="G26" s="234"/>
       <c r="H26" s="234"/>
       <c r="I26" s="228" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J26" s="228"/>
       <c r="K26" s="228"/>
@@ -52445,170 +52830,170 @@
     <mergeCell ref="O42:Q42"/>
   </mergeCells>
   <conditionalFormatting sqref="N37:N42 N19 N35 N24:N27 N12:N17">
-    <cfRule type="cellIs" dxfId="1120" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="1155" priority="74" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1119" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="1154" priority="75" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1118" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="1153" priority="76" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1117" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="1152" priority="77" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="cellIs" dxfId="1116" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="1151" priority="78" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1115" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="1150" priority="79" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1114" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="1149" priority="80" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1113" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="1148" priority="81" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="cellIs" dxfId="1112" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="1147" priority="90" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1111" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="1146" priority="91" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1110" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="1145" priority="92" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1109" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="1144" priority="93" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="cellIs" dxfId="1108" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="1143" priority="21" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1107" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="1142" priority="22" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1106" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="1141" priority="23" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1105" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="1140" priority="24" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="cellIs" dxfId="1104" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="1139" priority="13" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1103" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="1138" priority="14" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1102" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="1137" priority="15" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1101" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="1136" priority="16" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
-    <cfRule type="cellIs" dxfId="1100" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1135" priority="25" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1099" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1134" priority="26" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1098" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1133" priority="27" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1097" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1132" priority="28" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="cellIs" dxfId="1096" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="1131" priority="17" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1095" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="1130" priority="18" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1094" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="1129" priority="19" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1093" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="1128" priority="20" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="cellIs" dxfId="1092" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1127" priority="9" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1091" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1126" priority="10" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1090" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1125" priority="11" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1089" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1124" priority="12" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33:N34">
-    <cfRule type="cellIs" dxfId="1088" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1123" priority="1" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1087" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1122" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1086" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1121" priority="3" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1085" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1120" priority="4" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="cellIs" dxfId="1084" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1119" priority="37" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1083" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1118" priority="38" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1082" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1117" priority="39" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1081" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1116" priority="40" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="cellIs" dxfId="1080" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="1115" priority="33" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1079" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="1114" priority="34" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1078" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1113" priority="35" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1077" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1112" priority="36" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="cellIs" dxfId="1076" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1111" priority="29" operator="equal">
       <formula>"CANCELADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1075" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1110" priority="30" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1074" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="1109" priority="31" operator="equal">
       <formula>"NÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1073" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="1108" priority="32" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52641,10 +53026,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AMK60"/>
+  <dimension ref="A2:AMK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:H17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -52787,7 +53172,7 @@
       </c>
       <c r="G4" s="82">
         <f>$N11</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H4" s="83">
         <f>IF(G4=0,0,IF(G2=0,0,G4/G9))</f>
@@ -52795,7 +53180,7 @@
       </c>
       <c r="I4" s="82">
         <f>$N11</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J4" s="83">
         <f>IF(I4=0,0,IF(I2=0,0,I4/I9))</f>
@@ -52803,7 +53188,7 @@
       </c>
       <c r="K4" s="82">
         <f>$N11</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L4" s="84">
         <f>IF(K4=0,0,IF(K9=0,0,K4/K9))</f>
@@ -52846,15 +53231,15 @@
         <v>72</v>
       </c>
       <c r="G5" s="86">
-        <f>COUNTIF(P13:P31,"Passou")</f>
-        <v>6</v>
+        <f>COUNTIF(P13:P23,"Passou")</f>
+        <v>5</v>
       </c>
       <c r="H5" s="83">
         <f>IF(G$4=0,0,IF(G9=0,0,G8/G$9))</f>
         <v>0</v>
       </c>
       <c r="I5" s="86">
-        <f>COUNTIF(R13:R31,"Passou")</f>
+        <f>COUNTIF(R13:R23,"Passou")</f>
         <v>0</v>
       </c>
       <c r="J5" s="83">
@@ -52862,7 +53247,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="86">
-        <f>COUNTIF(T13:T31,"Passou")</f>
+        <f>COUNTIF(T13:T23,"Passou")</f>
         <v>0</v>
       </c>
       <c r="L5" s="83">
@@ -52906,15 +53291,15 @@
         <v>73</v>
       </c>
       <c r="G6" s="86">
-        <f>COUNTIF(P13:P31,"Inconformidade") + COUNTIF(P13:P31,"Falhou")</f>
-        <v>1</v>
+        <f>COUNTIF(P13:P23,"Inconformidade") + COUNTIF(P13:P23,"Falhou")</f>
+        <v>0</v>
       </c>
       <c r="H6" s="83">
         <f>IF(G$4=0,0,IF(G9=0,0,G6/G$9))</f>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="I6" s="86">
-        <f>COUNTIF(R13:R31,"Inconformidade") + COUNTIF(R13:R31,"Falhou")</f>
+        <f>COUNTIF(R13:R23,"Inconformidade") + COUNTIF(R13:R23,"Falhou")</f>
         <v>0</v>
       </c>
       <c r="J6" s="83">
@@ -52922,7 +53307,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="86">
-        <f>COUNTIF(T13:T31,"Inconformidade") + COUNTIF(T13:T31,"Falhou")</f>
+        <f>COUNTIF(T13:T23,"Inconformidade") + COUNTIF(T13:T23,"Falhou")</f>
         <v>0</v>
       </c>
       <c r="L6" s="83">
@@ -52966,7 +53351,7 @@
         <v>74</v>
       </c>
       <c r="G7" s="86">
-        <f>COUNTIF(P13:P31,"Bloqueado")</f>
+        <f>COUNTIF(P13:P23,"Bloqueado")</f>
         <v>0</v>
       </c>
       <c r="H7" s="83">
@@ -52974,7 +53359,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="86">
-        <f>COUNTIF(R13:R31,"Bloqueado") + COUNTIF(R13:R31,"N/E")</f>
+        <f>COUNTIF(R13:R23,"Bloqueado") + COUNTIF(R13:R23,"N/E")</f>
         <v>0</v>
       </c>
       <c r="J7" s="83">
@@ -52982,7 +53367,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="86">
-        <f>COUNTIF(T13:T31,"Bloqueado") + COUNTIF(T13:T31,"N/E")</f>
+        <f>COUNTIF(T13:T23,"Bloqueado") + COUNTIF(T13:T23,"N/E")</f>
         <v>0</v>
       </c>
       <c r="L7" s="83">
@@ -53021,7 +53406,7 @@
         <v>75</v>
       </c>
       <c r="G8" s="86">
-        <f>COUNTIF(P14:P32,"N/E")</f>
+        <f>COUNTIF(P14:P24,"N/E")</f>
         <v>0</v>
       </c>
       <c r="H8" s="83">
@@ -53029,7 +53414,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="86">
-        <f>COUNTIF(R14:R32,"N/E")</f>
+        <f>COUNTIF(R14:R24,"N/E")</f>
         <v>0</v>
       </c>
       <c r="J8" s="83">
@@ -53037,7 +53422,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="86">
-        <f>COUNTIF(T14:T32,"N/E")</f>
+        <f>COUNTIF(T14:T24,"N/E")</f>
         <v>0</v>
       </c>
       <c r="L8" s="83">
@@ -53077,7 +53462,7 @@
       </c>
       <c r="G9" s="170">
         <f>SUM(G5:G7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H9" s="171"/>
       <c r="I9" s="170">
@@ -53167,16 +53552,16 @@
       <c r="L11" s="250"/>
       <c r="M11" s="250"/>
       <c r="N11" s="251">
-        <f>COUNTA(N13:N31)</f>
-        <v>10</v>
+        <f>COUNTA(N13:N23)</f>
+        <v>8</v>
       </c>
       <c r="O11" s="251">
-        <f t="shared" ref="O11:T11" si="0">COUNTA(O12:O95)</f>
+        <f t="shared" ref="O11:T11" si="0">COUNTA(O12:O87)</f>
         <v>1</v>
       </c>
       <c r="P11" s="251">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="251">
         <f t="shared" si="0"/>
@@ -53195,11 +53580,11 @@
         <v>1</v>
       </c>
       <c r="U11" s="78">
-        <f>COUNTA(U30:U32)</f>
+        <f>COUNTA(U22:U24)</f>
         <v>0</v>
       </c>
       <c r="V11" s="78">
-        <f>COUNTA(V30:V32)</f>
+        <f>COUNTA(V22:V24)</f>
         <v>0</v>
       </c>
       <c r="W11" s="78"/>
@@ -53313,7 +53698,7 @@
         <v>91</v>
       </c>
       <c r="E14" s="246" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F14" s="246"/>
       <c r="G14" s="246"/>
@@ -53322,7 +53707,7 @@
       <c r="J14" s="247"/>
       <c r="K14" s="247"/>
       <c r="L14" s="248" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M14" s="248"/>
       <c r="N14" s="201" t="s">
@@ -53361,7 +53746,7 @@
       <c r="J15" s="247"/>
       <c r="K15" s="247"/>
       <c r="L15" s="248" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M15" s="248"/>
       <c r="N15" s="201" t="s">
@@ -53377,13 +53762,13 @@
       <c r="T15" s="205"/>
     </row>
     <row r="16" spans="2:34" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="110"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="103"/>
       <c r="D16" s="104" t="s">
         <v>95</v>
       </c>
       <c r="E16" s="246" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F16" s="246"/>
       <c r="G16" s="246"/>
@@ -53392,67 +53777,91 @@
       <c r="J16" s="247"/>
       <c r="K16" s="247"/>
       <c r="L16" s="248" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M16" s="248"/>
-      <c r="N16" s="202" t="s">
-        <v>89</v>
-      </c>
+      <c r="N16" s="201"/>
       <c r="O16" s="204"/>
-      <c r="P16" s="205" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q16" s="210"/>
-      <c r="R16" s="165"/>
-      <c r="S16" s="210"/>
-      <c r="T16" s="165"/>
+      <c r="P16" s="205"/>
+      <c r="Q16" s="209"/>
+      <c r="R16" s="205"/>
+      <c r="S16" s="209"/>
+      <c r="T16" s="205"/>
     </row>
     <row r="17" spans="2:30" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="102"/>
+      <c r="B17" s="110"/>
       <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="246"/>
+      <c r="D17" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="246" t="s">
+        <v>223</v>
+      </c>
       <c r="F17" s="246"/>
       <c r="G17" s="246"/>
       <c r="H17" s="246"/>
       <c r="I17" s="247"/>
       <c r="J17" s="247"/>
       <c r="K17" s="247"/>
-      <c r="L17" s="248"/>
+      <c r="L17" s="248" t="s">
+        <v>224</v>
+      </c>
       <c r="M17" s="248"/>
-      <c r="N17" s="201"/>
+      <c r="N17" s="202" t="s">
+        <v>89</v>
+      </c>
       <c r="O17" s="204"/>
-      <c r="P17" s="205"/>
-      <c r="Q17" s="209"/>
-      <c r="R17" s="205"/>
-      <c r="S17" s="209"/>
-      <c r="T17" s="205"/>
+      <c r="P17" s="205" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="210"/>
+      <c r="R17" s="165"/>
+      <c r="S17" s="210"/>
+      <c r="T17" s="165"/>
     </row>
-    <row r="18" spans="2:30" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="102"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="246"/>
+    <row r="18" spans="2:30" s="101" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="212" t="str">
+        <f>Cenários!D17</f>
+        <v>CEN - 1.1.60</v>
+      </c>
+      <c r="C18" s="103" t="str">
+        <f>Cenários!E17 &amp; " - " &amp; Cenários!I17</f>
+        <v>Usabilidade - Teclas de navegação.</v>
+      </c>
+      <c r="D18" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="246" t="s">
+        <v>208</v>
+      </c>
       <c r="F18" s="246"/>
       <c r="G18" s="246"/>
       <c r="H18" s="246"/>
       <c r="I18" s="247"/>
       <c r="J18" s="247"/>
       <c r="K18" s="247"/>
-      <c r="L18" s="248"/>
+      <c r="L18" s="248" t="s">
+        <v>209</v>
+      </c>
       <c r="M18" s="248"/>
-      <c r="N18" s="201"/>
+      <c r="N18" s="201" t="s">
+        <v>89</v>
+      </c>
       <c r="O18" s="204"/>
-      <c r="P18" s="205"/>
+      <c r="P18" s="205" t="s">
+        <v>90</v>
+      </c>
       <c r="Q18" s="209"/>
       <c r="R18" s="205"/>
       <c r="S18" s="209"/>
       <c r="T18" s="205"/>
     </row>
     <row r="19" spans="2:30" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="102"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="103"/>
-      <c r="D19" s="104"/>
+      <c r="D19" s="104" t="s">
+        <v>101</v>
+      </c>
       <c r="E19" s="246"/>
       <c r="F19" s="246"/>
       <c r="G19" s="246"/>
@@ -53462,7 +53871,9 @@
       <c r="K19" s="247"/>
       <c r="L19" s="248"/>
       <c r="M19" s="248"/>
-      <c r="N19" s="201"/>
+      <c r="N19" s="201" t="s">
+        <v>89</v>
+      </c>
       <c r="O19" s="204"/>
       <c r="P19" s="205"/>
       <c r="Q19" s="209"/>
@@ -53471,9 +53882,11 @@
       <c r="T19" s="205"/>
     </row>
     <row r="20" spans="2:30" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="102"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="103"/>
-      <c r="D20" s="104"/>
+      <c r="D20" s="104" t="s">
+        <v>103</v>
+      </c>
       <c r="E20" s="246"/>
       <c r="F20" s="246"/>
       <c r="G20" s="246"/>
@@ -53483,18 +53896,22 @@
       <c r="K20" s="247"/>
       <c r="L20" s="248"/>
       <c r="M20" s="248"/>
-      <c r="N20" s="201"/>
+      <c r="N20" s="202" t="s">
+        <v>89</v>
+      </c>
       <c r="O20" s="204"/>
       <c r="P20" s="205"/>
-      <c r="Q20" s="209"/>
-      <c r="R20" s="205"/>
-      <c r="S20" s="209"/>
-      <c r="T20" s="205"/>
+      <c r="Q20" s="210"/>
+      <c r="R20" s="165"/>
+      <c r="S20" s="210"/>
+      <c r="T20" s="165"/>
     </row>
     <row r="21" spans="2:30" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="102"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="103"/>
-      <c r="D21" s="104"/>
+      <c r="D21" s="104" t="s">
+        <v>104</v>
+      </c>
       <c r="E21" s="246"/>
       <c r="F21" s="246"/>
       <c r="G21" s="246"/>
@@ -53504,247 +53921,327 @@
       <c r="K21" s="247"/>
       <c r="L21" s="248"/>
       <c r="M21" s="248"/>
-      <c r="N21" s="201"/>
+      <c r="N21" s="202" t="s">
+        <v>89</v>
+      </c>
       <c r="O21" s="204"/>
       <c r="P21" s="205"/>
-      <c r="Q21" s="209"/>
-      <c r="R21" s="205"/>
-      <c r="S21" s="209"/>
-      <c r="T21" s="205"/>
+      <c r="Q21" s="210"/>
+      <c r="R21" s="165"/>
+      <c r="S21" s="210"/>
+      <c r="T21" s="165"/>
     </row>
-    <row r="22" spans="2:30" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="102" t="e">
-        <f>Cenários!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C22" s="103" t="str">
-        <f>Cenários!E14</f>
-        <v>Selecionar Deparamento específico</v>
-      </c>
-      <c r="D22" s="104" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="246" t="s">
-        <v>207</v>
-      </c>
+    <row r="22" spans="2:30" s="101" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="113"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="246"/>
       <c r="F22" s="246"/>
       <c r="G22" s="246"/>
       <c r="H22" s="246"/>
       <c r="I22" s="247"/>
       <c r="J22" s="247"/>
       <c r="K22" s="247"/>
-      <c r="L22" s="248" t="s">
-        <v>208</v>
-      </c>
+      <c r="L22" s="248"/>
       <c r="M22" s="248"/>
-      <c r="N22" s="201" t="s">
-        <v>89</v>
-      </c>
-      <c r="O22" s="204"/>
-      <c r="P22" s="205" t="s">
+      <c r="N22" s="202"/>
+      <c r="O22" s="206"/>
+      <c r="P22" s="169"/>
+      <c r="Q22" s="211"/>
+      <c r="R22" s="169"/>
+      <c r="S22" s="211"/>
+      <c r="T22" s="169"/>
+    </row>
+    <row r="23" spans="2:30" s="76" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="245"/>
+      <c r="C23" s="245"/>
+      <c r="D23" s="245"/>
+      <c r="E23" s="245"/>
+      <c r="F23" s="245"/>
+      <c r="G23" s="245"/>
+      <c r="H23" s="245"/>
+      <c r="I23" s="245"/>
+      <c r="J23" s="245"/>
+      <c r="K23" s="245"/>
+      <c r="L23" s="245"/>
+      <c r="M23" s="245"/>
+      <c r="N23" s="245"/>
+      <c r="O23" s="245"/>
+      <c r="P23" s="245"/>
+      <c r="Q23" s="245"/>
+      <c r="R23" s="245"/>
+      <c r="S23" s="245"/>
+      <c r="T23" s="245"/>
+      <c r="U23" s="116"/>
+      <c r="V23" s="116"/>
+      <c r="W23" s="116"/>
+      <c r="X23" s="116"/>
+      <c r="Y23" s="116"/>
+      <c r="Z23" s="116"/>
+      <c r="AA23" s="116"/>
+      <c r="AB23" s="116"/>
+      <c r="AC23" s="116"/>
+      <c r="AD23" s="116"/>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B24" s="117"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="214"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="123"/>
+      <c r="T24" s="122"/>
+      <c r="U24" s="124"/>
+      <c r="V24" s="124"/>
+      <c r="W24" s="124"/>
+      <c r="X24" s="124"/>
+      <c r="Y24" s="124"/>
+      <c r="Z24" s="124"/>
+      <c r="AA24" s="124"/>
+      <c r="AB24" s="124"/>
+      <c r="AC24" s="124"/>
+      <c r="AD24" s="124"/>
+    </row>
+    <row r="25" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="117"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="120"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="123"/>
+      <c r="T25" s="122"/>
+      <c r="U25" s="124"/>
+      <c r="V25" s="124"/>
+      <c r="W25" s="124"/>
+      <c r="X25" s="124"/>
+      <c r="Y25" s="124"/>
+      <c r="Z25" s="124"/>
+      <c r="AA25" s="124"/>
+      <c r="AB25" s="124"/>
+      <c r="AC25" s="124"/>
+      <c r="AD25" s="124"/>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B26" s="117"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="197" t="s">
         <v>90</v>
       </c>
-      <c r="Q22" s="209"/>
-      <c r="R22" s="205"/>
-      <c r="S22" s="209"/>
-      <c r="T22" s="205"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="123"/>
+      <c r="T26" s="122"/>
+      <c r="U26" s="124"/>
+      <c r="V26" s="124"/>
+      <c r="W26" s="124"/>
+      <c r="X26" s="124"/>
+      <c r="Y26" s="124"/>
+      <c r="Z26" s="124"/>
+      <c r="AA26" s="124"/>
+      <c r="AB26" s="124"/>
+      <c r="AC26" s="124"/>
+      <c r="AD26" s="124"/>
     </row>
-    <row r="23" spans="2:30" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="102"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="246" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" s="246"/>
-      <c r="G23" s="246"/>
-      <c r="H23" s="246"/>
-      <c r="I23" s="247"/>
-      <c r="J23" s="247"/>
-      <c r="K23" s="247"/>
-      <c r="L23" s="248" t="s">
-        <v>213</v>
-      </c>
-      <c r="M23" s="248"/>
-      <c r="N23" s="201" t="s">
-        <v>89</v>
-      </c>
-      <c r="O23" s="204"/>
-      <c r="P23" s="205" t="s">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B27" s="117"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="119"/>
+      <c r="K27" s="119"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="Q23" s="209"/>
-      <c r="R23" s="205"/>
-      <c r="S23" s="209"/>
-      <c r="T23" s="205"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="78"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="123"/>
+      <c r="T27" s="122"/>
+      <c r="U27" s="124"/>
+      <c r="V27" s="124"/>
+      <c r="W27" s="124"/>
+      <c r="X27" s="124"/>
+      <c r="Y27" s="124"/>
+      <c r="Z27" s="124"/>
+      <c r="AA27" s="124"/>
+      <c r="AB27" s="124"/>
+      <c r="AC27" s="124"/>
+      <c r="AD27" s="124"/>
     </row>
-    <row r="26" spans="2:30" s="101" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="212" t="str">
-        <f>Cenários!D17</f>
-        <v>CEN - 1.1.60</v>
-      </c>
-      <c r="C26" s="103" t="str">
-        <f>Cenários!E17 &amp; " - " &amp; Cenários!I17</f>
-        <v>Usabilidade - Teclas de navegação.</v>
-      </c>
-      <c r="D26" s="104" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="246" t="s">
-        <v>210</v>
-      </c>
-      <c r="F26" s="246"/>
-      <c r="G26" s="246"/>
-      <c r="H26" s="246"/>
-      <c r="I26" s="247"/>
-      <c r="J26" s="247"/>
-      <c r="K26" s="247"/>
-      <c r="L26" s="248" t="s">
-        <v>211</v>
-      </c>
-      <c r="M26" s="248"/>
-      <c r="N26" s="201" t="s">
-        <v>89</v>
-      </c>
-      <c r="O26" s="204"/>
-      <c r="P26" s="205" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q26" s="209"/>
-      <c r="R26" s="205"/>
-      <c r="S26" s="209"/>
-      <c r="T26" s="205"/>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B28" s="117"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="198" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="122"/>
+      <c r="S28" s="123"/>
+      <c r="T28" s="122"/>
+      <c r="U28" s="124"/>
+      <c r="V28" s="124"/>
+      <c r="W28" s="124"/>
+      <c r="X28" s="124"/>
+      <c r="Y28" s="124"/>
+      <c r="Z28" s="124"/>
+      <c r="AA28" s="124"/>
+      <c r="AB28" s="124"/>
+      <c r="AC28" s="124"/>
+      <c r="AD28" s="124"/>
     </row>
-    <row r="27" spans="2:30" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="110"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="104" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="246"/>
-      <c r="F27" s="246"/>
-      <c r="G27" s="246"/>
-      <c r="H27" s="246"/>
-      <c r="I27" s="247"/>
-      <c r="J27" s="247"/>
-      <c r="K27" s="247"/>
-      <c r="L27" s="248"/>
-      <c r="M27" s="248"/>
-      <c r="N27" s="201" t="s">
-        <v>89</v>
-      </c>
-      <c r="O27" s="204"/>
-      <c r="P27" s="205"/>
-      <c r="Q27" s="209"/>
-      <c r="R27" s="205"/>
-      <c r="S27" s="209"/>
-      <c r="T27" s="205"/>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B29" s="117"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="119"/>
+      <c r="K29" s="119"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="198" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="123"/>
+      <c r="T29" s="122"/>
+      <c r="U29" s="124"/>
+      <c r="V29" s="124"/>
+      <c r="W29" s="124"/>
+      <c r="X29" s="124"/>
+      <c r="Y29" s="124"/>
+      <c r="Z29" s="124"/>
+      <c r="AA29" s="124"/>
+      <c r="AB29" s="124"/>
+      <c r="AC29" s="124"/>
+      <c r="AD29" s="124"/>
     </row>
-    <row r="28" spans="2:30" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="110"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="104" t="s">
-        <v>215</v>
-      </c>
-      <c r="E28" s="246"/>
-      <c r="F28" s="246"/>
-      <c r="G28" s="246"/>
-      <c r="H28" s="246"/>
-      <c r="I28" s="247"/>
-      <c r="J28" s="247"/>
-      <c r="K28" s="247"/>
-      <c r="L28" s="248"/>
-      <c r="M28" s="248"/>
-      <c r="N28" s="202" t="s">
-        <v>89</v>
-      </c>
-      <c r="O28" s="204"/>
-      <c r="P28" s="205"/>
-      <c r="Q28" s="210"/>
-      <c r="R28" s="165"/>
-      <c r="S28" s="210"/>
-      <c r="T28" s="165"/>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B30" s="117"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="214"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="119"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="121"/>
+      <c r="O30" s="121"/>
+      <c r="P30" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="123"/>
+      <c r="T30" s="122"/>
+      <c r="U30" s="124"/>
+      <c r="V30" s="124"/>
+      <c r="W30" s="124"/>
+      <c r="X30" s="124"/>
+      <c r="Y30" s="124"/>
+      <c r="Z30" s="124"/>
+      <c r="AA30" s="124"/>
+      <c r="AB30" s="124"/>
+      <c r="AC30" s="124"/>
+      <c r="AD30" s="124"/>
     </row>
-    <row r="29" spans="2:30" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="112"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="104" t="s">
-        <v>216</v>
-      </c>
-      <c r="E29" s="246"/>
-      <c r="F29" s="246"/>
-      <c r="G29" s="246"/>
-      <c r="H29" s="246"/>
-      <c r="I29" s="247"/>
-      <c r="J29" s="247"/>
-      <c r="K29" s="247"/>
-      <c r="L29" s="248"/>
-      <c r="M29" s="248"/>
-      <c r="N29" s="202" t="s">
-        <v>89</v>
-      </c>
-      <c r="O29" s="204"/>
-      <c r="P29" s="205"/>
-      <c r="Q29" s="210"/>
-      <c r="R29" s="165"/>
-      <c r="S29" s="210"/>
-      <c r="T29" s="165"/>
-    </row>
-    <row r="30" spans="2:30" s="101" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="113"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="246"/>
-      <c r="F30" s="246"/>
-      <c r="G30" s="246"/>
-      <c r="H30" s="246"/>
-      <c r="I30" s="247"/>
-      <c r="J30" s="247"/>
-      <c r="K30" s="247"/>
-      <c r="L30" s="248"/>
-      <c r="M30" s="248"/>
-      <c r="N30" s="202"/>
-      <c r="O30" s="206"/>
-      <c r="P30" s="169"/>
-      <c r="Q30" s="211"/>
-      <c r="R30" s="169"/>
-      <c r="S30" s="211"/>
-      <c r="T30" s="169"/>
-    </row>
-    <row r="31" spans="2:30" s="76" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="245"/>
-      <c r="C31" s="245"/>
-      <c r="D31" s="245"/>
-      <c r="E31" s="245"/>
-      <c r="F31" s="245"/>
-      <c r="G31" s="245"/>
-      <c r="H31" s="245"/>
-      <c r="I31" s="245"/>
-      <c r="J31" s="245"/>
-      <c r="K31" s="245"/>
-      <c r="L31" s="245"/>
-      <c r="M31" s="245"/>
-      <c r="N31" s="245"/>
-      <c r="O31" s="245"/>
-      <c r="P31" s="245"/>
-      <c r="Q31" s="245"/>
-      <c r="R31" s="245"/>
-      <c r="S31" s="245"/>
-      <c r="T31" s="245"/>
-      <c r="U31" s="116"/>
-      <c r="V31" s="116"/>
-      <c r="W31" s="116"/>
-      <c r="X31" s="116"/>
-      <c r="Y31" s="116"/>
-      <c r="Z31" s="116"/>
-      <c r="AA31" s="116"/>
-      <c r="AB31" s="116"/>
-      <c r="AC31" s="116"/>
-      <c r="AD31" s="116"/>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B31" s="117"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="119"/>
+      <c r="K31" s="119"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="120"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="121"/>
+      <c r="P31" s="198" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="123"/>
+      <c r="T31" s="122"/>
+      <c r="U31" s="124"/>
+      <c r="V31" s="124"/>
+      <c r="W31" s="124"/>
+      <c r="X31" s="124"/>
+      <c r="Y31" s="124"/>
+      <c r="Z31" s="124"/>
+      <c r="AA31" s="124"/>
+      <c r="AB31" s="124"/>
+      <c r="AC31" s="124"/>
+      <c r="AD31" s="124"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B32" s="117"/>
@@ -53761,7 +54258,9 @@
       <c r="M32" s="120"/>
       <c r="N32" s="121"/>
       <c r="O32" s="121"/>
-      <c r="P32" s="122"/>
+      <c r="P32" s="198" t="s">
+        <v>102</v>
+      </c>
       <c r="Q32" s="123"/>
       <c r="R32" s="122"/>
       <c r="S32" s="123"/>
@@ -53792,7 +54291,9 @@
       <c r="M33" s="120"/>
       <c r="N33" s="121"/>
       <c r="O33" s="121"/>
-      <c r="P33" s="122"/>
+      <c r="P33" s="199" t="s">
+        <v>40</v>
+      </c>
       <c r="Q33" s="123"/>
       <c r="R33" s="122"/>
       <c r="S33" s="123"/>
@@ -53823,9 +54324,7 @@
       <c r="M34" s="120"/>
       <c r="N34" s="121"/>
       <c r="O34" s="121"/>
-      <c r="P34" s="197" t="s">
-        <v>90</v>
-      </c>
+      <c r="P34" s="122"/>
       <c r="Q34" s="123"/>
       <c r="R34" s="122"/>
       <c r="S34" s="123"/>
@@ -53856,9 +54355,7 @@
       <c r="M35" s="120"/>
       <c r="N35" s="121"/>
       <c r="O35" s="121"/>
-      <c r="P35" s="198" t="s">
-        <v>92</v>
-      </c>
+      <c r="P35" s="122"/>
       <c r="Q35" s="123"/>
       <c r="R35" s="122"/>
       <c r="S35" s="123"/>
@@ -53889,9 +54386,7 @@
       <c r="M36" s="120"/>
       <c r="N36" s="121"/>
       <c r="O36" s="121"/>
-      <c r="P36" s="198" t="s">
-        <v>94</v>
-      </c>
+      <c r="P36" s="122"/>
       <c r="Q36" s="123"/>
       <c r="R36" s="122"/>
       <c r="S36" s="123"/>
@@ -53922,9 +54417,7 @@
       <c r="M37" s="120"/>
       <c r="N37" s="121"/>
       <c r="O37" s="121"/>
-      <c r="P37" s="198" t="s">
-        <v>96</v>
-      </c>
+      <c r="P37" s="122"/>
       <c r="Q37" s="123"/>
       <c r="R37" s="122"/>
       <c r="S37" s="123"/>
@@ -53955,9 +54448,7 @@
       <c r="M38" s="120"/>
       <c r="N38" s="121"/>
       <c r="O38" s="121"/>
-      <c r="P38" s="198" t="s">
-        <v>98</v>
-      </c>
+      <c r="P38" s="122"/>
       <c r="Q38" s="123"/>
       <c r="R38" s="122"/>
       <c r="S38" s="123"/>
@@ -53988,9 +54479,7 @@
       <c r="M39" s="120"/>
       <c r="N39" s="121"/>
       <c r="O39" s="121"/>
-      <c r="P39" s="198" t="s">
-        <v>100</v>
-      </c>
+      <c r="P39" s="122"/>
       <c r="Q39" s="123"/>
       <c r="R39" s="122"/>
       <c r="S39" s="123"/>
@@ -54021,9 +54510,7 @@
       <c r="M40" s="120"/>
       <c r="N40" s="121"/>
       <c r="O40" s="121"/>
-      <c r="P40" s="198" t="s">
-        <v>102</v>
-      </c>
+      <c r="P40" s="122"/>
       <c r="Q40" s="123"/>
       <c r="R40" s="122"/>
       <c r="S40" s="123"/>
@@ -54039,7 +54526,7 @@
       <c r="AC40" s="124"/>
       <c r="AD40" s="124"/>
     </row>
-    <row r="41" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B41" s="117"/>
       <c r="C41" s="118"/>
       <c r="D41" s="118"/>
@@ -54054,9 +54541,7 @@
       <c r="M41" s="120"/>
       <c r="N41" s="121"/>
       <c r="O41" s="121"/>
-      <c r="P41" s="199" t="s">
-        <v>40</v>
-      </c>
+      <c r="P41" s="122"/>
       <c r="Q41" s="123"/>
       <c r="R41" s="122"/>
       <c r="S41" s="123"/>
@@ -54166,13 +54651,6 @@
       <c r="AD44" s="124"/>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B45" s="117"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="214"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="118"/>
       <c r="I45" s="118"/>
       <c r="J45" s="119"/>
       <c r="K45" s="119"/>
@@ -54197,13 +54675,6 @@
       <c r="AD45" s="124"/>
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B46" s="117"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="214"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="118"/>
       <c r="I46" s="118"/>
       <c r="J46" s="119"/>
       <c r="K46" s="119"/>
@@ -54228,13 +54699,6 @@
       <c r="AD46" s="124"/>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B47" s="117"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="214"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="118"/>
       <c r="I47" s="118"/>
       <c r="J47" s="119"/>
       <c r="K47" s="119"/>
@@ -54259,25 +54723,6 @@
       <c r="AD47" s="124"/>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B48" s="117"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="214"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="118"/>
-      <c r="J48" s="119"/>
-      <c r="K48" s="119"/>
-      <c r="L48" s="120"/>
-      <c r="M48" s="120"/>
-      <c r="N48" s="121"/>
-      <c r="O48" s="121"/>
-      <c r="P48" s="122"/>
-      <c r="Q48" s="123"/>
-      <c r="R48" s="122"/>
-      <c r="S48" s="123"/>
-      <c r="T48" s="122"/>
       <c r="U48" s="124"/>
       <c r="V48" s="124"/>
       <c r="W48" s="124"/>
@@ -54289,26 +54734,7 @@
       <c r="AC48" s="124"/>
       <c r="AD48" s="124"/>
     </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B49" s="117"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="214"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="118"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="118"/>
-      <c r="J49" s="119"/>
-      <c r="K49" s="119"/>
-      <c r="L49" s="120"/>
-      <c r="M49" s="120"/>
-      <c r="N49" s="121"/>
-      <c r="O49" s="121"/>
-      <c r="P49" s="122"/>
-      <c r="Q49" s="123"/>
-      <c r="R49" s="122"/>
-      <c r="S49" s="123"/>
-      <c r="T49" s="122"/>
+    <row r="49" spans="21:30" x14ac:dyDescent="0.2">
       <c r="U49" s="124"/>
       <c r="V49" s="124"/>
       <c r="W49" s="124"/>
@@ -54320,26 +54746,7 @@
       <c r="AC49" s="124"/>
       <c r="AD49" s="124"/>
     </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B50" s="117"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="214"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="119"/>
-      <c r="K50" s="119"/>
-      <c r="L50" s="120"/>
-      <c r="M50" s="120"/>
-      <c r="N50" s="121"/>
-      <c r="O50" s="121"/>
-      <c r="P50" s="122"/>
-      <c r="Q50" s="123"/>
-      <c r="R50" s="122"/>
-      <c r="S50" s="123"/>
-      <c r="T50" s="122"/>
+    <row r="50" spans="21:30" x14ac:dyDescent="0.2">
       <c r="U50" s="124"/>
       <c r="V50" s="124"/>
       <c r="W50" s="124"/>
@@ -54351,26 +54758,7 @@
       <c r="AC50" s="124"/>
       <c r="AD50" s="124"/>
     </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B51" s="117"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="214"/>
-      <c r="F51" s="118"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="118"/>
-      <c r="J51" s="119"/>
-      <c r="K51" s="119"/>
-      <c r="L51" s="120"/>
-      <c r="M51" s="120"/>
-      <c r="N51" s="121"/>
-      <c r="O51" s="121"/>
-      <c r="P51" s="122"/>
-      <c r="Q51" s="123"/>
-      <c r="R51" s="122"/>
-      <c r="S51" s="123"/>
-      <c r="T51" s="122"/>
+    <row r="51" spans="21:30" x14ac:dyDescent="0.2">
       <c r="U51" s="124"/>
       <c r="V51" s="124"/>
       <c r="W51" s="124"/>
@@ -54382,26 +54770,7 @@
       <c r="AC51" s="124"/>
       <c r="AD51" s="124"/>
     </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B52" s="117"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="214"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="119"/>
-      <c r="K52" s="119"/>
-      <c r="L52" s="120"/>
-      <c r="M52" s="120"/>
-      <c r="N52" s="121"/>
-      <c r="O52" s="121"/>
-      <c r="P52" s="122"/>
-      <c r="Q52" s="123"/>
-      <c r="R52" s="122"/>
-      <c r="S52" s="123"/>
-      <c r="T52" s="122"/>
+    <row r="52" spans="21:30" x14ac:dyDescent="0.2">
       <c r="U52" s="124"/>
       <c r="V52" s="124"/>
       <c r="W52" s="124"/>
@@ -54413,155 +54782,8 @@
       <c r="AC52" s="124"/>
       <c r="AD52" s="124"/>
     </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="I53" s="118"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="119"/>
-      <c r="L53" s="120"/>
-      <c r="M53" s="120"/>
-      <c r="N53" s="121"/>
-      <c r="O53" s="121"/>
-      <c r="P53" s="122"/>
-      <c r="Q53" s="123"/>
-      <c r="R53" s="122"/>
-      <c r="S53" s="123"/>
-      <c r="T53" s="122"/>
-      <c r="U53" s="124"/>
-      <c r="V53" s="124"/>
-      <c r="W53" s="124"/>
-      <c r="X53" s="124"/>
-      <c r="Y53" s="124"/>
-      <c r="Z53" s="124"/>
-      <c r="AA53" s="124"/>
-      <c r="AB53" s="124"/>
-      <c r="AC53" s="124"/>
-      <c r="AD53" s="124"/>
-    </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="I54" s="118"/>
-      <c r="J54" s="119"/>
-      <c r="K54" s="119"/>
-      <c r="L54" s="120"/>
-      <c r="M54" s="120"/>
-      <c r="N54" s="121"/>
-      <c r="O54" s="121"/>
-      <c r="P54" s="122"/>
-      <c r="Q54" s="123"/>
-      <c r="R54" s="122"/>
-      <c r="S54" s="123"/>
-      <c r="T54" s="122"/>
-      <c r="U54" s="124"/>
-      <c r="V54" s="124"/>
-      <c r="W54" s="124"/>
-      <c r="X54" s="124"/>
-      <c r="Y54" s="124"/>
-      <c r="Z54" s="124"/>
-      <c r="AA54" s="124"/>
-      <c r="AB54" s="124"/>
-      <c r="AC54" s="124"/>
-      <c r="AD54" s="124"/>
-    </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="I55" s="118"/>
-      <c r="J55" s="119"/>
-      <c r="K55" s="119"/>
-      <c r="L55" s="120"/>
-      <c r="M55" s="120"/>
-      <c r="N55" s="121"/>
-      <c r="O55" s="121"/>
-      <c r="P55" s="122"/>
-      <c r="Q55" s="123"/>
-      <c r="R55" s="122"/>
-      <c r="S55" s="123"/>
-      <c r="T55" s="122"/>
-      <c r="U55" s="124"/>
-      <c r="V55" s="124"/>
-      <c r="W55" s="124"/>
-      <c r="X55" s="124"/>
-      <c r="Y55" s="124"/>
-      <c r="Z55" s="124"/>
-      <c r="AA55" s="124"/>
-      <c r="AB55" s="124"/>
-      <c r="AC55" s="124"/>
-      <c r="AD55" s="124"/>
-    </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="U56" s="124"/>
-      <c r="V56" s="124"/>
-      <c r="W56" s="124"/>
-      <c r="X56" s="124"/>
-      <c r="Y56" s="124"/>
-      <c r="Z56" s="124"/>
-      <c r="AA56" s="124"/>
-      <c r="AB56" s="124"/>
-      <c r="AC56" s="124"/>
-      <c r="AD56" s="124"/>
-    </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="U57" s="124"/>
-      <c r="V57" s="124"/>
-      <c r="W57" s="124"/>
-      <c r="X57" s="124"/>
-      <c r="Y57" s="124"/>
-      <c r="Z57" s="124"/>
-      <c r="AA57" s="124"/>
-      <c r="AB57" s="124"/>
-      <c r="AC57" s="124"/>
-      <c r="AD57" s="124"/>
-    </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="U58" s="124"/>
-      <c r="V58" s="124"/>
-      <c r="W58" s="124"/>
-      <c r="X58" s="124"/>
-      <c r="Y58" s="124"/>
-      <c r="Z58" s="124"/>
-      <c r="AA58" s="124"/>
-      <c r="AB58" s="124"/>
-      <c r="AC58" s="124"/>
-      <c r="AD58" s="124"/>
-    </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="U59" s="124"/>
-      <c r="V59" s="124"/>
-      <c r="W59" s="124"/>
-      <c r="X59" s="124"/>
-      <c r="Y59" s="124"/>
-      <c r="Z59" s="124"/>
-      <c r="AA59" s="124"/>
-      <c r="AB59" s="124"/>
-      <c r="AC59" s="124"/>
-      <c r="AD59" s="124"/>
-    </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="U60" s="124"/>
-      <c r="V60" s="124"/>
-      <c r="W60" s="124"/>
-      <c r="X60" s="124"/>
-      <c r="Y60" s="124"/>
-      <c r="Z60" s="124"/>
-      <c r="AA60" s="124"/>
-      <c r="AB60" s="124"/>
-      <c r="AC60" s="124"/>
-      <c r="AD60" s="124"/>
-    </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:M18"/>
+  <mergeCells count="50">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="M2:T2"/>
@@ -54587,1021 +54809,917 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="L14:M14"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B23:T23"/>
     <mergeCell ref="E22:H22"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="L22:M22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="B31:T31"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:M30"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="L15:M15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
-  <conditionalFormatting sqref="R30 T30 P30 R28 T28 P22:P23 P13:P14">
-    <cfRule type="cellIs" dxfId="1072" priority="142" operator="equal">
+  <conditionalFormatting sqref="R22 T22 P22 R20 T20 P13:P14">
+    <cfRule type="cellIs" dxfId="1107" priority="177" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1071" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="1106" priority="178" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1070" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="1105" priority="179" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1069" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="1104" priority="180" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R30 T30 P30 R28 T28 P22:P23 P13:P14">
-    <cfRule type="cellIs" dxfId="1068" priority="150" operator="equal">
+  <conditionalFormatting sqref="R22 T22 P22 R20 T20 P13:P14">
+    <cfRule type="cellIs" dxfId="1103" priority="185" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2 T2 P2 R12 T12 R30:R1048576 T30:T1048576 P30:P33 R28 T28 P42:P1048576 P22:P23 P12:P14">
-    <cfRule type="cellIs" dxfId="1067" priority="151" operator="equal">
+  <conditionalFormatting sqref="R2 T2 P2 R12 T12 R22:R1048576 T22:T1048576 P22:P25 R20 T20 P34:P1048576 P12:P14">
+    <cfRule type="cellIs" dxfId="1102" priority="186" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1066" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="1101" priority="187" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T30 R30 P30 R28 T28 P22:P23 P13:P14">
-    <cfRule type="cellIs" dxfId="1065" priority="174" operator="equal">
+  <conditionalFormatting sqref="T22 R22 P22 R20 T20 P13:P14">
+    <cfRule type="cellIs" dxfId="1100" priority="209" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R2 T1:T2 P1:P2 R12 T12 T30:T1048576 R30:R1048576 P30:P33 T28 R28 P42:P1048576 P22:P23 P12:P14">
-    <cfRule type="cellIs" dxfId="1064" priority="460" operator="equal">
+  <conditionalFormatting sqref="R1:R2 T1:T2 P1:P2 R12 T12 T22:T1048576 R22:R1048576 P22:P25 T20 R20 P34:P1048576 P12:P14">
+    <cfRule type="cellIs" dxfId="1099" priority="495" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10 T10 P10">
-    <cfRule type="cellIs" dxfId="1063" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="1098" priority="496" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1062" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="1097" priority="497" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10 T10 P10">
-    <cfRule type="cellIs" dxfId="1061" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="1096" priority="498" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R26">
-    <cfRule type="cellIs" dxfId="1060" priority="1146" operator="equal">
+  <conditionalFormatting sqref="R18">
+    <cfRule type="cellIs" dxfId="1095" priority="1181" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1059" priority="1147" operator="equal">
+    <cfRule type="cellIs" dxfId="1094" priority="1182" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1058" priority="1148" operator="equal">
+    <cfRule type="cellIs" dxfId="1093" priority="1183" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1057" priority="1149" operator="equal">
+    <cfRule type="cellIs" dxfId="1092" priority="1184" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R26">
-    <cfRule type="cellIs" dxfId="1056" priority="1150" operator="equal">
+  <conditionalFormatting sqref="R18">
+    <cfRule type="cellIs" dxfId="1091" priority="1185" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R26">
-    <cfRule type="cellIs" dxfId="1055" priority="1151" operator="equal">
+  <conditionalFormatting sqref="R18">
+    <cfRule type="cellIs" dxfId="1090" priority="1186" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1054" priority="1152" operator="equal">
+    <cfRule type="cellIs" dxfId="1089" priority="1187" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T26">
-    <cfRule type="cellIs" dxfId="1053" priority="1153" operator="equal">
+  <conditionalFormatting sqref="T18">
+    <cfRule type="cellIs" dxfId="1088" priority="1188" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1052" priority="1154" operator="equal">
+    <cfRule type="cellIs" dxfId="1087" priority="1189" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1051" priority="1155" operator="equal">
+    <cfRule type="cellIs" dxfId="1086" priority="1190" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1050" priority="1156" operator="equal">
+    <cfRule type="cellIs" dxfId="1085" priority="1191" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R26">
-    <cfRule type="cellIs" dxfId="1049" priority="1157" operator="equal">
+  <conditionalFormatting sqref="R18">
+    <cfRule type="cellIs" dxfId="1084" priority="1192" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T26">
-    <cfRule type="cellIs" dxfId="1048" priority="1158" operator="equal">
+  <conditionalFormatting sqref="T18">
+    <cfRule type="cellIs" dxfId="1083" priority="1193" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T26">
-    <cfRule type="cellIs" dxfId="1047" priority="1159" operator="equal">
+  <conditionalFormatting sqref="T18">
+    <cfRule type="cellIs" dxfId="1082" priority="1194" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1046" priority="1160" operator="equal">
+    <cfRule type="cellIs" dxfId="1081" priority="1195" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T26">
-    <cfRule type="cellIs" dxfId="1045" priority="1161" operator="equal">
+  <conditionalFormatting sqref="T18">
+    <cfRule type="cellIs" dxfId="1080" priority="1196" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R26 T26">
-    <cfRule type="cellIs" dxfId="1044" priority="1162" operator="equal">
+  <conditionalFormatting sqref="R18 T18">
+    <cfRule type="cellIs" dxfId="1079" priority="1197" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R27">
-    <cfRule type="cellIs" dxfId="1043" priority="1979" operator="equal">
+  <conditionalFormatting sqref="R19">
+    <cfRule type="cellIs" dxfId="1078" priority="2014" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1042" priority="1980" operator="equal">
+    <cfRule type="cellIs" dxfId="1077" priority="2015" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1041" priority="1981" operator="equal">
+    <cfRule type="cellIs" dxfId="1076" priority="2016" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1040" priority="1982" operator="equal">
+    <cfRule type="cellIs" dxfId="1075" priority="2017" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R27">
-    <cfRule type="cellIs" dxfId="1039" priority="1983" operator="equal">
+  <conditionalFormatting sqref="R19">
+    <cfRule type="cellIs" dxfId="1074" priority="2018" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R27">
-    <cfRule type="cellIs" dxfId="1038" priority="1984" operator="equal">
+  <conditionalFormatting sqref="R19">
+    <cfRule type="cellIs" dxfId="1073" priority="2019" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1037" priority="1985" operator="equal">
+    <cfRule type="cellIs" dxfId="1072" priority="2020" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R27">
-    <cfRule type="cellIs" dxfId="1036" priority="1990" operator="equal">
+  <conditionalFormatting sqref="R19">
+    <cfRule type="cellIs" dxfId="1071" priority="2025" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T27">
-    <cfRule type="cellIs" dxfId="1035" priority="2003" operator="equal">
+  <conditionalFormatting sqref="T19">
+    <cfRule type="cellIs" dxfId="1070" priority="2038" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1034" priority="2004" operator="equal">
+    <cfRule type="cellIs" dxfId="1069" priority="2039" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1033" priority="2005" operator="equal">
+    <cfRule type="cellIs" dxfId="1068" priority="2040" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1032" priority="2006" operator="equal">
+    <cfRule type="cellIs" dxfId="1067" priority="2041" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T27">
-    <cfRule type="cellIs" dxfId="1031" priority="2008" operator="equal">
+  <conditionalFormatting sqref="T19">
+    <cfRule type="cellIs" dxfId="1066" priority="2043" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T27">
-    <cfRule type="cellIs" dxfId="1030" priority="2009" operator="equal">
+  <conditionalFormatting sqref="T19">
+    <cfRule type="cellIs" dxfId="1065" priority="2044" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1029" priority="2010" operator="equal">
+    <cfRule type="cellIs" dxfId="1064" priority="2045" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T27">
-    <cfRule type="cellIs" dxfId="1028" priority="2011" operator="equal">
+  <conditionalFormatting sqref="T19">
+    <cfRule type="cellIs" dxfId="1063" priority="2046" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R27 T27">
-    <cfRule type="cellIs" dxfId="1027" priority="2012" operator="equal">
+  <conditionalFormatting sqref="R19 T19">
+    <cfRule type="cellIs" dxfId="1062" priority="2047" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11 R11 T11">
-    <cfRule type="cellIs" dxfId="1026" priority="3152" operator="equal">
+    <cfRule type="cellIs" dxfId="1061" priority="3187" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1025" priority="3153" operator="equal">
+    <cfRule type="cellIs" dxfId="1060" priority="3188" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11 R11 T11">
-    <cfRule type="cellIs" dxfId="1024" priority="3154" operator="equal">
+    <cfRule type="cellIs" dxfId="1059" priority="3189" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R29">
-    <cfRule type="cellIs" dxfId="1023" priority="3155" operator="equal">
+  <conditionalFormatting sqref="R21">
+    <cfRule type="cellIs" dxfId="1058" priority="3190" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1022" priority="3156" operator="equal">
+    <cfRule type="cellIs" dxfId="1057" priority="3191" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1021" priority="3157" operator="equal">
+    <cfRule type="cellIs" dxfId="1056" priority="3192" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1020" priority="3158" operator="equal">
+    <cfRule type="cellIs" dxfId="1055" priority="3193" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R29">
-    <cfRule type="cellIs" dxfId="1019" priority="3159" operator="equal">
+  <conditionalFormatting sqref="R21">
+    <cfRule type="cellIs" dxfId="1054" priority="3194" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R29">
-    <cfRule type="cellIs" dxfId="1018" priority="3160" operator="equal">
+  <conditionalFormatting sqref="R21">
+    <cfRule type="cellIs" dxfId="1053" priority="3195" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1017" priority="3161" operator="equal">
+    <cfRule type="cellIs" dxfId="1052" priority="3196" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T29">
-    <cfRule type="cellIs" dxfId="1016" priority="3162" operator="equal">
+  <conditionalFormatting sqref="T21">
+    <cfRule type="cellIs" dxfId="1051" priority="3197" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1015" priority="3163" operator="equal">
+    <cfRule type="cellIs" dxfId="1050" priority="3198" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1014" priority="3164" operator="equal">
+    <cfRule type="cellIs" dxfId="1049" priority="3199" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1013" priority="3165" operator="equal">
+    <cfRule type="cellIs" dxfId="1048" priority="3200" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R29">
-    <cfRule type="cellIs" dxfId="1012" priority="3166" operator="equal">
+  <conditionalFormatting sqref="R21">
+    <cfRule type="cellIs" dxfId="1047" priority="3201" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T29">
-    <cfRule type="cellIs" dxfId="1011" priority="3167" operator="equal">
+  <conditionalFormatting sqref="T21">
+    <cfRule type="cellIs" dxfId="1046" priority="3202" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T29">
-    <cfRule type="cellIs" dxfId="1010" priority="3168" operator="equal">
+  <conditionalFormatting sqref="T21">
+    <cfRule type="cellIs" dxfId="1045" priority="3203" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1009" priority="3169" operator="equal">
+    <cfRule type="cellIs" dxfId="1044" priority="3204" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T29">
-    <cfRule type="cellIs" dxfId="1008" priority="3170" operator="equal">
+  <conditionalFormatting sqref="T21">
+    <cfRule type="cellIs" dxfId="1043" priority="3205" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T29 R29">
-    <cfRule type="cellIs" dxfId="1007" priority="3171" operator="equal">
-      <formula>"Impedimento"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R22">
-    <cfRule type="cellIs" dxfId="1006" priority="3471" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1005" priority="3472" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1004" priority="3473" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1003" priority="3474" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R22">
-    <cfRule type="cellIs" dxfId="1002" priority="3475" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R22">
-    <cfRule type="cellIs" dxfId="1001" priority="3476" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1000" priority="3477" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T22">
-    <cfRule type="cellIs" dxfId="999" priority="3478" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="998" priority="3479" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="997" priority="3480" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="996" priority="3481" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R22">
-    <cfRule type="cellIs" dxfId="995" priority="3482" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T22">
-    <cfRule type="cellIs" dxfId="994" priority="3483" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T22">
-    <cfRule type="cellIs" dxfId="993" priority="3484" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="992" priority="3485" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T22">
-    <cfRule type="cellIs" dxfId="991" priority="3486" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T22 R22">
-    <cfRule type="cellIs" dxfId="990" priority="3487" operator="equal">
+  <conditionalFormatting sqref="T21 R21">
+    <cfRule type="cellIs" dxfId="1042" priority="3206" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="989" priority="3488" operator="equal">
+    <cfRule type="cellIs" dxfId="1024" priority="3523" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="988" priority="3489" operator="equal">
+    <cfRule type="cellIs" dxfId="1023" priority="3524" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="987" priority="3490" operator="equal">
+    <cfRule type="cellIs" dxfId="1022" priority="3525" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="986" priority="3491" operator="equal">
+    <cfRule type="cellIs" dxfId="1021" priority="3526" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="985" priority="3492" operator="equal">
+    <cfRule type="cellIs" dxfId="1020" priority="3527" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="984" priority="3493" operator="equal">
+    <cfRule type="cellIs" dxfId="1019" priority="3528" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="983" priority="3494" operator="equal">
+    <cfRule type="cellIs" dxfId="1018" priority="3529" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="982" priority="3495" operator="equal">
+    <cfRule type="cellIs" dxfId="1017" priority="3530" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="981" priority="3496" operator="equal">
+    <cfRule type="cellIs" dxfId="1016" priority="3531" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="980" priority="3497" operator="equal">
+    <cfRule type="cellIs" dxfId="1015" priority="3532" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="979" priority="3498" operator="equal">
+    <cfRule type="cellIs" dxfId="1014" priority="3533" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="978" priority="3499" operator="equal">
+    <cfRule type="cellIs" dxfId="1013" priority="3534" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="977" priority="3500" operator="equal">
+    <cfRule type="cellIs" dxfId="1012" priority="3535" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="976" priority="3501" operator="equal">
+    <cfRule type="cellIs" dxfId="1011" priority="3536" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="975" priority="3502" operator="equal">
+    <cfRule type="cellIs" dxfId="1010" priority="3537" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="974" priority="3503" operator="equal">
+    <cfRule type="cellIs" dxfId="1009" priority="3538" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14 R14">
-    <cfRule type="cellIs" dxfId="973" priority="3504" operator="equal">
+    <cfRule type="cellIs" dxfId="1008" priority="3539" operator="equal">
       <formula>"Impedimento"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R23">
-    <cfRule type="cellIs" dxfId="972" priority="3505" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="971" priority="3506" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="970" priority="3507" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="969" priority="3508" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R23">
-    <cfRule type="cellIs" dxfId="968" priority="3509" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R23">
-    <cfRule type="cellIs" dxfId="967" priority="3510" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="966" priority="3511" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R23">
-    <cfRule type="cellIs" dxfId="965" priority="3512" operator="equal">
-      <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="964" priority="3513" operator="equal">
+    <cfRule type="cellIs" dxfId="999" priority="3548" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="963" priority="3514" operator="equal">
+    <cfRule type="cellIs" dxfId="998" priority="3549" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="962" priority="3515" operator="equal">
+    <cfRule type="cellIs" dxfId="997" priority="3550" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="961" priority="3516" operator="equal">
+    <cfRule type="cellIs" dxfId="996" priority="3551" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="960" priority="3517" operator="equal">
+    <cfRule type="cellIs" dxfId="995" priority="3552" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="959" priority="3518" operator="equal">
+    <cfRule type="cellIs" dxfId="994" priority="3553" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="958" priority="3519" operator="equal">
+    <cfRule type="cellIs" dxfId="993" priority="3554" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="cellIs" dxfId="957" priority="3520" operator="equal">
+    <cfRule type="cellIs" dxfId="992" priority="3555" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="956" priority="3521" operator="equal">
+    <cfRule type="cellIs" dxfId="991" priority="3556" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="955" priority="3522" operator="equal">
+    <cfRule type="cellIs" dxfId="990" priority="3557" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="954" priority="3523" operator="equal">
+    <cfRule type="cellIs" dxfId="989" priority="3558" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="953" priority="3524" operator="equal">
+    <cfRule type="cellIs" dxfId="988" priority="3559" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="cellIs" dxfId="952" priority="3525" operator="equal">
+    <cfRule type="cellIs" dxfId="987" priority="3560" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="cellIs" dxfId="951" priority="3526" operator="equal">
+    <cfRule type="cellIs" dxfId="986" priority="3561" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="950" priority="3527" operator="equal">
+    <cfRule type="cellIs" dxfId="985" priority="3562" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="cellIs" dxfId="949" priority="3528" operator="equal">
+    <cfRule type="cellIs" dxfId="984" priority="3563" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13 R13">
-    <cfRule type="cellIs" dxfId="948" priority="3529" operator="equal">
+    <cfRule type="cellIs" dxfId="983" priority="3564" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T23">
-    <cfRule type="cellIs" dxfId="947" priority="3530" operator="equal">
+  <conditionalFormatting sqref="P18:P21">
+    <cfRule type="cellIs" dxfId="973" priority="4859" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="972" priority="4860" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18:P21">
+    <cfRule type="cellIs" dxfId="971" priority="4861" operator="equal">
+      <formula>"Bloqueado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18:P21">
+    <cfRule type="cellIs" dxfId="970" priority="4862" operator="equal">
+      <formula>"Impedimento"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18:P21">
+    <cfRule type="cellIs" dxfId="969" priority="4863" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="946" priority="3531" operator="equal">
+    <cfRule type="cellIs" dxfId="968" priority="4864" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="945" priority="3532" operator="equal">
+    <cfRule type="cellIs" dxfId="967" priority="4865" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="944" priority="3533" operator="equal">
+    <cfRule type="cellIs" dxfId="966" priority="4866" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T23">
-    <cfRule type="cellIs" dxfId="943" priority="3534" operator="equal">
+  <conditionalFormatting sqref="P18:P21">
+    <cfRule type="cellIs" dxfId="965" priority="4867" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="964" priority="4868" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="963" priority="4869" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="962" priority="4870" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18:P21">
+    <cfRule type="cellIs" dxfId="961" priority="4871" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T23">
-    <cfRule type="cellIs" dxfId="942" priority="3535" operator="equal">
+  <conditionalFormatting sqref="P18:P21">
+    <cfRule type="cellIs" dxfId="960" priority="4872" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18:P21">
+    <cfRule type="cellIs" dxfId="959" priority="4873" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="941" priority="3536" operator="equal">
+    <cfRule type="cellIs" dxfId="958" priority="4874" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T23">
-    <cfRule type="cellIs" dxfId="940" priority="3537" operator="equal">
+  <conditionalFormatting sqref="P18:P21">
+    <cfRule type="cellIs" dxfId="957" priority="4875" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T23 R23">
-    <cfRule type="cellIs" dxfId="939" priority="3538" operator="equal">
+  <conditionalFormatting sqref="P18:P21">
+    <cfRule type="cellIs" dxfId="956" priority="4876" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P29">
-    <cfRule type="cellIs" dxfId="938" priority="4824" operator="equal">
+  <conditionalFormatting sqref="P26:P33">
+    <cfRule type="cellIs" dxfId="955" priority="158" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="937" priority="4825" operator="equal">
+    <cfRule type="cellIs" dxfId="954" priority="159" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P29">
-    <cfRule type="cellIs" dxfId="936" priority="4826" operator="equal">
+  <conditionalFormatting sqref="P26:P33">
+    <cfRule type="cellIs" dxfId="953" priority="160" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P29">
-    <cfRule type="cellIs" dxfId="935" priority="4827" operator="equal">
+  <conditionalFormatting sqref="P26:P33">
+    <cfRule type="cellIs" dxfId="952" priority="161" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P29">
-    <cfRule type="cellIs" dxfId="934" priority="4828" operator="equal">
+  <conditionalFormatting sqref="P26:P33">
+    <cfRule type="cellIs" dxfId="951" priority="162" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="933" priority="4829" operator="equal">
+    <cfRule type="cellIs" dxfId="950" priority="163" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="932" priority="4830" operator="equal">
+    <cfRule type="cellIs" dxfId="949" priority="164" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="931" priority="4831" operator="equal">
+    <cfRule type="cellIs" dxfId="948" priority="165" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P29">
-    <cfRule type="cellIs" dxfId="930" priority="4832" operator="equal">
+  <conditionalFormatting sqref="P26:P33">
+    <cfRule type="cellIs" dxfId="947" priority="166" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="929" priority="4833" operator="equal">
+    <cfRule type="cellIs" dxfId="946" priority="167" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="928" priority="4834" operator="equal">
+    <cfRule type="cellIs" dxfId="945" priority="168" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="927" priority="4835" operator="equal">
+    <cfRule type="cellIs" dxfId="944" priority="169" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P29">
-    <cfRule type="cellIs" dxfId="926" priority="4836" operator="equal">
+  <conditionalFormatting sqref="P26:P33">
+    <cfRule type="cellIs" dxfId="943" priority="170" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P29">
-    <cfRule type="cellIs" dxfId="925" priority="4837" operator="equal">
+  <conditionalFormatting sqref="P26:P33">
+    <cfRule type="cellIs" dxfId="942" priority="171" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P29">
-    <cfRule type="cellIs" dxfId="924" priority="4838" operator="equal">
+  <conditionalFormatting sqref="P26:P33">
+    <cfRule type="cellIs" dxfId="941" priority="172" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="923" priority="4839" operator="equal">
+    <cfRule type="cellIs" dxfId="940" priority="173" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P29">
-    <cfRule type="cellIs" dxfId="922" priority="4840" operator="equal">
+  <conditionalFormatting sqref="P26:P33">
+    <cfRule type="cellIs" dxfId="939" priority="174" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P29">
-    <cfRule type="cellIs" dxfId="921" priority="4841" operator="equal">
+  <conditionalFormatting sqref="P26:P33">
+    <cfRule type="cellIs" dxfId="938" priority="175" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P34:P41">
-    <cfRule type="cellIs" dxfId="920" priority="123" operator="equal">
+  <conditionalFormatting sqref="R17 T17">
+    <cfRule type="cellIs" dxfId="937" priority="114" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="936" priority="115" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="935" priority="116" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="934" priority="117" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17 T17">
+    <cfRule type="cellIs" dxfId="933" priority="118" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17 T17">
+    <cfRule type="cellIs" dxfId="932" priority="119" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="919" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="931" priority="120" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P34:P41">
-    <cfRule type="cellIs" dxfId="918" priority="125" operator="equal">
+  <conditionalFormatting sqref="R17 T17">
+    <cfRule type="cellIs" dxfId="930" priority="121" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P34:P41">
-    <cfRule type="cellIs" dxfId="917" priority="126" operator="equal">
+  <conditionalFormatting sqref="T17 R17">
+    <cfRule type="cellIs" dxfId="929" priority="122" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P34:P41">
-    <cfRule type="cellIs" dxfId="916" priority="127" operator="equal">
+  <conditionalFormatting sqref="R15">
+    <cfRule type="cellIs" dxfId="928" priority="123" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="915" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="927" priority="124" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="914" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="926" priority="125" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="913" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="925" priority="126" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P34:P41">
-    <cfRule type="cellIs" dxfId="912" priority="131" operator="equal">
+  <conditionalFormatting sqref="R15">
+    <cfRule type="cellIs" dxfId="924" priority="127" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R15">
+    <cfRule type="cellIs" dxfId="923" priority="128" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="922" priority="129" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R15">
+    <cfRule type="cellIs" dxfId="921" priority="130" operator="equal">
+      <formula>"Bloqueado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T15">
+    <cfRule type="cellIs" dxfId="920" priority="131" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="911" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="919" priority="132" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="910" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="918" priority="133" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="909" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="917" priority="134" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P34:P41">
-    <cfRule type="cellIs" dxfId="908" priority="135" operator="equal">
+  <conditionalFormatting sqref="T15">
+    <cfRule type="cellIs" dxfId="916" priority="135" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P34:P41">
-    <cfRule type="cellIs" dxfId="907" priority="136" operator="equal">
+  <conditionalFormatting sqref="T15">
+    <cfRule type="cellIs" dxfId="915" priority="136" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="914" priority="137" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T15">
+    <cfRule type="cellIs" dxfId="913" priority="138" operator="equal">
+      <formula>"Bloqueado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R15 T15">
+    <cfRule type="cellIs" dxfId="912" priority="139" operator="equal">
+      <formula>"Impedimento"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15 P17">
+    <cfRule type="cellIs" dxfId="911" priority="140" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="910" priority="141" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15 P17">
+    <cfRule type="cellIs" dxfId="909" priority="142" operator="equal">
+      <formula>"Bloqueado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15 P17">
+    <cfRule type="cellIs" dxfId="908" priority="143" operator="equal">
+      <formula>"Impedimento"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15 P17">
+    <cfRule type="cellIs" dxfId="907" priority="144" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="906" priority="145" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="905" priority="146" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="904" priority="147" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15 P17">
+    <cfRule type="cellIs" dxfId="903" priority="148" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="902" priority="149" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="901" priority="150" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="900" priority="151" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15 P17">
+    <cfRule type="cellIs" dxfId="899" priority="152" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P34:P41">
-    <cfRule type="cellIs" dxfId="906" priority="137" operator="equal">
+  <conditionalFormatting sqref="P15 P17">
+    <cfRule type="cellIs" dxfId="898" priority="153" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15 P17">
+    <cfRule type="cellIs" dxfId="897" priority="154" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="905" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="896" priority="155" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P34:P41">
-    <cfRule type="cellIs" dxfId="904" priority="139" operator="equal">
+  <conditionalFormatting sqref="P15 P17">
+    <cfRule type="cellIs" dxfId="895" priority="156" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P34:P41">
-    <cfRule type="cellIs" dxfId="903" priority="140" operator="equal">
+  <conditionalFormatting sqref="P15 P17">
+    <cfRule type="cellIs" dxfId="894" priority="157" operator="equal">
       <formula>"Impedimento"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16">
+    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
+      <formula>"Bloqueado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16">
+    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+      <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16 T16">
-    <cfRule type="cellIs" dxfId="902" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+      <formula>"Impedimento"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"Inconformidade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+      <formula>"Sugestão"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+      <formula>"Bloqueado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
+      <formula>"Impedimento"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16">
+    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="901" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="900" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="24" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="899" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="25" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R16 T16">
-    <cfRule type="cellIs" dxfId="898" priority="83" operator="equal">
+  <conditionalFormatting sqref="P16">
+    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
+      <formula>"Cancelado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="28" operator="equal">
+      <formula>"Falhou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="29" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16">
+    <cfRule type="cellIs" dxfId="5" priority="30" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R16 T16">
-    <cfRule type="cellIs" dxfId="897" priority="84" operator="equal">
+  <conditionalFormatting sqref="P16">
+    <cfRule type="cellIs" dxfId="4" priority="31" operator="equal">
+      <formula>"Observação"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16">
+    <cfRule type="cellIs" dxfId="3" priority="32" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="896" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="33" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R16 T16">
-    <cfRule type="cellIs" dxfId="895" priority="86" operator="equal">
+  <conditionalFormatting sqref="P16">
+    <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T16 R16">
-    <cfRule type="cellIs" dxfId="894" priority="87" operator="equal">
-      <formula>"Impedimento"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="893" priority="88" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="892" priority="89" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="891" priority="90" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="890" priority="91" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="889" priority="92" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="888" priority="93" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="887" priority="94" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="886" priority="95" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T15">
-    <cfRule type="cellIs" dxfId="885" priority="96" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="884" priority="97" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="883" priority="98" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="882" priority="99" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T15">
-    <cfRule type="cellIs" dxfId="881" priority="100" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T15">
-    <cfRule type="cellIs" dxfId="880" priority="101" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="879" priority="102" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T15">
-    <cfRule type="cellIs" dxfId="878" priority="103" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R15 T15">
-    <cfRule type="cellIs" dxfId="877" priority="104" operator="equal">
-      <formula>"Impedimento"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P16">
-    <cfRule type="cellIs" dxfId="876" priority="105" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="875" priority="106" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P16">
-    <cfRule type="cellIs" dxfId="874" priority="107" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P16">
-    <cfRule type="cellIs" dxfId="873" priority="108" operator="equal">
-      <formula>"Impedimento"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P16">
-    <cfRule type="cellIs" dxfId="872" priority="109" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="871" priority="110" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="870" priority="111" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="869" priority="112" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P16">
-    <cfRule type="cellIs" dxfId="868" priority="113" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="867" priority="114" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="866" priority="115" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="865" priority="116" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P16">
-    <cfRule type="cellIs" dxfId="864" priority="117" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P16">
-    <cfRule type="cellIs" dxfId="863" priority="118" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P16">
-    <cfRule type="cellIs" dxfId="862" priority="119" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="861" priority="120" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P16">
-    <cfRule type="cellIs" dxfId="860" priority="121" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P16">
-    <cfRule type="cellIs" dxfId="859" priority="122" operator="equal">
-      <formula>"Impedimento"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P21">
-    <cfRule type="cellIs" dxfId="858" priority="53" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="857" priority="54" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="856" priority="55" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="855" priority="56" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P21">
-    <cfRule type="cellIs" dxfId="854" priority="57" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P21">
-    <cfRule type="cellIs" dxfId="853" priority="58" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="852" priority="59" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P21">
-    <cfRule type="cellIs" dxfId="851" priority="60" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P21">
-    <cfRule type="cellIs" dxfId="850" priority="61" operator="equal">
-      <formula>"Impedimento"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R17:R21">
-    <cfRule type="cellIs" dxfId="849" priority="62" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="848" priority="63" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="847" priority="64" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="846" priority="65" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R17:R21">
-    <cfRule type="cellIs" dxfId="845" priority="66" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R17:R21">
-    <cfRule type="cellIs" dxfId="844" priority="67" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="843" priority="68" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T17:T21">
-    <cfRule type="cellIs" dxfId="842" priority="69" operator="equal">
-      <formula>"Cancelado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="841" priority="70" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="840" priority="71" operator="equal">
-      <formula>"Falhou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="839" priority="72" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R17:R21">
-    <cfRule type="cellIs" dxfId="838" priority="73" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T17:T21">
-    <cfRule type="cellIs" dxfId="837" priority="74" operator="equal">
-      <formula>"Observação"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T17:T21">
-    <cfRule type="cellIs" dxfId="836" priority="75" operator="equal">
-      <formula>"Inconformidade"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="835" priority="76" operator="equal">
-      <formula>"Sugestão"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T17:T21">
-    <cfRule type="cellIs" dxfId="834" priority="77" operator="equal">
-      <formula>"Bloqueado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T17:T21 R17:R21">
-    <cfRule type="cellIs" dxfId="833" priority="78" operator="equal">
+  <conditionalFormatting sqref="P16">
+    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P34:P41 P13:P23 P26:P29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P26:P33 P13:P21">
       <formula1>"Passou,Falhou,Inconformidade,Impedimento,Bloqueado,Cancelado,Sugestão,N/A"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P30 T13:T23 T26:T30 R13:R23 R26:R30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P22 T13:T22 R13:R22">
       <formula1>"Passou,Falhou,Inconformidade,Impedimento,Bloqueado,Cancelado,Sugestão,N/A,N/E"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -55614,7 +55732,7 @@
     <oddFooter>&amp;L&amp;Z&amp;F&amp;R&amp;P de &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="C2:E5 B13:C13 B23:C23 B11 C22 B22 B26:C28 M3 A15:C16 C14 E15:XFD15 F16:K16 M16:XFD16" unlockedFormula="1"/>
+    <ignoredError sqref="C2:E5 B13:C13 B11 B18:C20 M3 A17:C17 C14 E15:XFD15 F17:K17 M17:XFD17 A15:C15" unlockedFormula="1"/>
     <ignoredError sqref="H4:J8 K5:K8" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
@@ -56554,1473 +56672,1473 @@
     <mergeCell ref="L21:M21"/>
   </mergeCells>
   <conditionalFormatting sqref="P24:P1048576 T24:T1048576 R24:R1048576">
-    <cfRule type="cellIs" dxfId="780" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="815" priority="2" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="779" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="814" priority="3" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:P1048576 R24:R1048576 T24:T1048576">
-    <cfRule type="cellIs" dxfId="778" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="813" priority="4" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="777" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="812" priority="54" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="776" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="811" priority="55" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="775" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="810" priority="56" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="774" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="809" priority="57" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="773" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="808" priority="58" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="772" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="807" priority="59" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="771" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="806" priority="60" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="770" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="805" priority="61" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="769" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="62" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="768" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="803" priority="72" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="767" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="802" priority="73" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="766" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="801" priority="74" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="765" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="800" priority="75" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="764" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="799" priority="76" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="763" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="77" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="762" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="797" priority="78" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="761" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="796" priority="79" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="760" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="795" priority="80" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2 T2 P2">
-    <cfRule type="cellIs" dxfId="759" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="794" priority="198" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="758" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="793" priority="199" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R2 T1:T2 P1:P2">
-    <cfRule type="cellIs" dxfId="757" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="372" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="cellIs" dxfId="756" priority="861" operator="equal">
+    <cfRule type="cellIs" dxfId="791" priority="861" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="755" priority="862" operator="equal">
+    <cfRule type="cellIs" dxfId="790" priority="862" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="754" priority="863" operator="equal">
+    <cfRule type="cellIs" dxfId="789" priority="863" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="753" priority="864" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="864" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="cellIs" dxfId="752" priority="865" operator="equal">
+    <cfRule type="cellIs" dxfId="787" priority="865" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="cellIs" dxfId="751" priority="866" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="866" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="750" priority="867" operator="equal">
+    <cfRule type="cellIs" dxfId="785" priority="867" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="cellIs" dxfId="749" priority="868" operator="equal">
+    <cfRule type="cellIs" dxfId="784" priority="868" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="cellIs" dxfId="748" priority="869" operator="equal">
+    <cfRule type="cellIs" dxfId="783" priority="869" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="747" priority="870" operator="equal">
+    <cfRule type="cellIs" dxfId="782" priority="870" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="746" priority="871" operator="equal">
+    <cfRule type="cellIs" dxfId="781" priority="871" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="745" priority="872" operator="equal">
+    <cfRule type="cellIs" dxfId="780" priority="872" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="cellIs" dxfId="744" priority="873" operator="equal">
+    <cfRule type="cellIs" dxfId="779" priority="873" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="cellIs" dxfId="743" priority="874" operator="equal">
+    <cfRule type="cellIs" dxfId="778" priority="874" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="742" priority="875" operator="equal">
+    <cfRule type="cellIs" dxfId="777" priority="875" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="cellIs" dxfId="741" priority="876" operator="equal">
+    <cfRule type="cellIs" dxfId="776" priority="876" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16 R16">
-    <cfRule type="cellIs" dxfId="740" priority="877" operator="equal">
+    <cfRule type="cellIs" dxfId="775" priority="877" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="cellIs" dxfId="739" priority="905" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="905" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="738" priority="906" operator="equal">
+    <cfRule type="cellIs" dxfId="773" priority="906" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="737" priority="907" operator="equal">
+    <cfRule type="cellIs" dxfId="772" priority="907" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="736" priority="908" operator="equal">
+    <cfRule type="cellIs" dxfId="771" priority="908" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="cellIs" dxfId="735" priority="909" operator="equal">
+    <cfRule type="cellIs" dxfId="770" priority="909" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="cellIs" dxfId="734" priority="910" operator="equal">
+    <cfRule type="cellIs" dxfId="769" priority="910" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="733" priority="911" operator="equal">
+    <cfRule type="cellIs" dxfId="768" priority="911" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="cellIs" dxfId="732" priority="912" operator="equal">
+    <cfRule type="cellIs" dxfId="767" priority="912" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18 R18">
-    <cfRule type="cellIs" dxfId="731" priority="913" operator="equal">
+    <cfRule type="cellIs" dxfId="766" priority="913" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18">
-    <cfRule type="cellIs" dxfId="730" priority="914" operator="equal">
+    <cfRule type="cellIs" dxfId="765" priority="914" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="729" priority="915" operator="equal">
+    <cfRule type="cellIs" dxfId="764" priority="915" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="728" priority="916" operator="equal">
+    <cfRule type="cellIs" dxfId="763" priority="916" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="727" priority="917" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="917" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18">
-    <cfRule type="cellIs" dxfId="726" priority="918" operator="equal">
+    <cfRule type="cellIs" dxfId="761" priority="918" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18">
-    <cfRule type="cellIs" dxfId="725" priority="919" operator="equal">
+    <cfRule type="cellIs" dxfId="760" priority="919" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="724" priority="920" operator="equal">
+    <cfRule type="cellIs" dxfId="759" priority="920" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18">
-    <cfRule type="cellIs" dxfId="723" priority="925" operator="equal">
+    <cfRule type="cellIs" dxfId="758" priority="925" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="722" priority="940" operator="equal">
+    <cfRule type="cellIs" dxfId="757" priority="940" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="721" priority="941" operator="equal">
+    <cfRule type="cellIs" dxfId="756" priority="941" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="720" priority="942" operator="equal">
+    <cfRule type="cellIs" dxfId="755" priority="942" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="719" priority="943" operator="equal">
+    <cfRule type="cellIs" dxfId="754" priority="943" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="718" priority="944" operator="equal">
+    <cfRule type="cellIs" dxfId="753" priority="944" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="717" priority="945" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="945" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="716" priority="946" operator="equal">
+    <cfRule type="cellIs" dxfId="751" priority="946" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="715" priority="947" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="947" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="714" priority="948" operator="equal">
+    <cfRule type="cellIs" dxfId="749" priority="948" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="713" priority="949" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="949" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="712" priority="950" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="950" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="711" priority="951" operator="equal">
+    <cfRule type="cellIs" dxfId="746" priority="951" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="710" priority="952" operator="equal">
+    <cfRule type="cellIs" dxfId="745" priority="952" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="709" priority="953" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="953" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="708" priority="954" operator="equal">
+    <cfRule type="cellIs" dxfId="743" priority="954" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="707" priority="955" operator="equal">
+    <cfRule type="cellIs" dxfId="742" priority="955" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="706" priority="956" operator="equal">
+    <cfRule type="cellIs" dxfId="741" priority="956" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="705" priority="957" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="957" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="704" priority="1307" operator="equal">
+    <cfRule type="cellIs" dxfId="739" priority="1307" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="703" priority="1308" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="1308" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="702" priority="1309" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="1309" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="701" priority="1310" operator="equal">
+    <cfRule type="cellIs" dxfId="736" priority="1310" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="700" priority="1311" operator="equal">
+    <cfRule type="cellIs" dxfId="735" priority="1311" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="699" priority="1312" operator="equal">
+    <cfRule type="cellIs" dxfId="734" priority="1312" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="1313" operator="equal">
+    <cfRule type="cellIs" dxfId="733" priority="1313" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="697" priority="1314" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="1314" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="696" priority="1354" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="1354" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="695" priority="1355" operator="equal">
+    <cfRule type="cellIs" dxfId="730" priority="1355" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="694" priority="1356" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="1356" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="693" priority="1357" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="1357" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="692" priority="1358" operator="equal">
+    <cfRule type="cellIs" dxfId="727" priority="1358" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="691" priority="1359" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="1359" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="690" priority="1360" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="1360" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="cellIs" dxfId="689" priority="1361" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="1361" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="688" priority="1362" operator="equal">
+    <cfRule type="cellIs" dxfId="723" priority="1362" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="687" priority="1363" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="1363" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="686" priority="1364" operator="equal">
+    <cfRule type="cellIs" dxfId="721" priority="1364" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="685" priority="1365" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="1365" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="cellIs" dxfId="684" priority="1366" operator="equal">
+    <cfRule type="cellIs" dxfId="719" priority="1366" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="cellIs" dxfId="683" priority="1367" operator="equal">
+    <cfRule type="cellIs" dxfId="718" priority="1367" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="682" priority="1368" operator="equal">
+    <cfRule type="cellIs" dxfId="717" priority="1368" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="cellIs" dxfId="681" priority="1369" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="1369" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13 R13">
-    <cfRule type="cellIs" dxfId="680" priority="1370" operator="equal">
+    <cfRule type="cellIs" dxfId="715" priority="1370" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="679" priority="1371" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="1371" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="678" priority="1372" operator="equal">
+    <cfRule type="cellIs" dxfId="713" priority="1372" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="677" priority="1373" operator="equal">
+    <cfRule type="cellIs" dxfId="712" priority="1373" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="676" priority="1374" operator="equal">
+    <cfRule type="cellIs" dxfId="711" priority="1374" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="675" priority="1375" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="1375" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="674" priority="1376" operator="equal">
+    <cfRule type="cellIs" dxfId="709" priority="1376" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="673" priority="1377" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="1377" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="672" priority="1378" operator="equal">
+    <cfRule type="cellIs" dxfId="707" priority="1378" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="671" priority="1379" operator="equal">
+    <cfRule type="cellIs" dxfId="706" priority="1379" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="670" priority="1380" operator="equal">
+    <cfRule type="cellIs" dxfId="705" priority="1380" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="669" priority="1381" operator="equal">
+    <cfRule type="cellIs" dxfId="704" priority="1381" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="668" priority="1382" operator="equal">
+    <cfRule type="cellIs" dxfId="703" priority="1382" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="667" priority="1383" operator="equal">
+    <cfRule type="cellIs" dxfId="702" priority="1383" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="666" priority="1384" operator="equal">
+    <cfRule type="cellIs" dxfId="701" priority="1384" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="665" priority="1385" operator="equal">
+    <cfRule type="cellIs" dxfId="700" priority="1385" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="664" priority="1386" operator="equal">
+    <cfRule type="cellIs" dxfId="699" priority="1386" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="663" priority="1387" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="1387" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="662" priority="1388" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="1388" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="661" priority="1389" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="1389" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="660" priority="1390" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="1390" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="659" priority="1391" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="1391" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="658" priority="1392" operator="equal">
+    <cfRule type="cellIs" dxfId="693" priority="1392" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="657" priority="1393" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="1393" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="656" priority="1394" operator="equal">
+    <cfRule type="cellIs" dxfId="691" priority="1394" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="655" priority="1395" operator="equal">
+    <cfRule type="cellIs" dxfId="690" priority="1395" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="654" priority="1396" operator="equal">
+    <cfRule type="cellIs" dxfId="689" priority="1396" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="653" priority="1397" operator="equal">
+    <cfRule type="cellIs" dxfId="688" priority="1397" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="652" priority="1398" operator="equal">
+    <cfRule type="cellIs" dxfId="687" priority="1398" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="651" priority="1399" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="1399" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="650" priority="1400" operator="equal">
+    <cfRule type="cellIs" dxfId="685" priority="1400" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="649" priority="1401" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="1401" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="648" priority="1402" operator="equal">
+    <cfRule type="cellIs" dxfId="683" priority="1402" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="647" priority="1403" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="1403" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="646" priority="1404" operator="equal">
+    <cfRule type="cellIs" dxfId="681" priority="1404" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14 R14">
-    <cfRule type="cellIs" dxfId="645" priority="1405" operator="equal">
+    <cfRule type="cellIs" dxfId="680" priority="1405" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15">
-    <cfRule type="cellIs" dxfId="644" priority="1406" operator="equal">
+    <cfRule type="cellIs" dxfId="679" priority="1406" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="643" priority="1407" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="1407" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="642" priority="1408" operator="equal">
+    <cfRule type="cellIs" dxfId="677" priority="1408" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="641" priority="1409" operator="equal">
+    <cfRule type="cellIs" dxfId="676" priority="1409" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15">
-    <cfRule type="cellIs" dxfId="640" priority="1410" operator="equal">
+    <cfRule type="cellIs" dxfId="675" priority="1410" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15">
-    <cfRule type="cellIs" dxfId="639" priority="1411" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="1411" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="638" priority="1412" operator="equal">
+    <cfRule type="cellIs" dxfId="673" priority="1412" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15">
-    <cfRule type="cellIs" dxfId="637" priority="1413" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="1413" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15 R15">
-    <cfRule type="cellIs" dxfId="636" priority="1414" operator="equal">
+    <cfRule type="cellIs" dxfId="671" priority="1414" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14:P15">
-    <cfRule type="cellIs" dxfId="635" priority="1415" operator="equal">
+    <cfRule type="cellIs" dxfId="670" priority="1415" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="1416" operator="equal">
+    <cfRule type="cellIs" dxfId="669" priority="1416" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="1417" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="1417" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="632" priority="1418" operator="equal">
+    <cfRule type="cellIs" dxfId="667" priority="1418" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14:P15">
-    <cfRule type="cellIs" dxfId="631" priority="1419" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="1419" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14:P15">
-    <cfRule type="cellIs" dxfId="630" priority="1420" operator="equal">
+    <cfRule type="cellIs" dxfId="665" priority="1420" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="629" priority="1421" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="1421" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14:P15">
-    <cfRule type="cellIs" dxfId="628" priority="1422" operator="equal">
+    <cfRule type="cellIs" dxfId="663" priority="1422" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14:P15">
-    <cfRule type="cellIs" dxfId="627" priority="1423" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="1423" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14:P15">
-    <cfRule type="cellIs" dxfId="626" priority="1424" operator="equal">
+    <cfRule type="cellIs" dxfId="661" priority="1424" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="1425" operator="equal">
+    <cfRule type="cellIs" dxfId="660" priority="1425" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="1426" operator="equal">
+    <cfRule type="cellIs" dxfId="659" priority="1426" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="623" priority="1427" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="1427" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14:P15">
-    <cfRule type="cellIs" dxfId="622" priority="1428" operator="equal">
+    <cfRule type="cellIs" dxfId="657" priority="1428" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14:P15">
-    <cfRule type="cellIs" dxfId="621" priority="1429" operator="equal">
+    <cfRule type="cellIs" dxfId="656" priority="1429" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="620" priority="1430" operator="equal">
+    <cfRule type="cellIs" dxfId="655" priority="1430" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14:P15">
-    <cfRule type="cellIs" dxfId="619" priority="1431" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="1431" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14:P15">
-    <cfRule type="cellIs" dxfId="618" priority="1432" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="1432" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R21">
-    <cfRule type="cellIs" dxfId="617" priority="1715" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="1715" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="1716" operator="equal">
+    <cfRule type="cellIs" dxfId="651" priority="1716" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="615" priority="1717" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="1717" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="614" priority="1718" operator="equal">
+    <cfRule type="cellIs" dxfId="649" priority="1718" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R21">
-    <cfRule type="cellIs" dxfId="613" priority="1719" operator="equal">
+    <cfRule type="cellIs" dxfId="648" priority="1719" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="612" priority="1784" operator="equal">
+    <cfRule type="cellIs" dxfId="647" priority="1784" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="611" priority="1785" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="1785" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="610" priority="1786" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="1786" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="609" priority="1787" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="1787" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="608" priority="1788" operator="equal">
+    <cfRule type="cellIs" dxfId="643" priority="1788" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="607" priority="1789" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="1789" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="1790" operator="equal">
+    <cfRule type="cellIs" dxfId="641" priority="1790" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="605" priority="1791" operator="equal">
+    <cfRule type="cellIs" dxfId="640" priority="1791" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="604" priority="1792" operator="equal">
+    <cfRule type="cellIs" dxfId="639" priority="1792" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="603" priority="1793" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="1793" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="602" priority="1794" operator="equal">
+    <cfRule type="cellIs" dxfId="637" priority="1794" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="601" priority="1795" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="1795" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="1796" operator="equal">
+    <cfRule type="cellIs" dxfId="635" priority="1796" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="599" priority="1797" operator="equal">
+    <cfRule type="cellIs" dxfId="634" priority="1797" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="598" priority="1798" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="1798" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="1799" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="1799" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="596" priority="1800" operator="equal">
+    <cfRule type="cellIs" dxfId="631" priority="1800" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="595" priority="1801" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="1801" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="594" priority="1802" operator="equal">
+    <cfRule type="cellIs" dxfId="629" priority="1802" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="593" priority="1803" operator="equal">
+    <cfRule type="cellIs" dxfId="628" priority="1803" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="1804" operator="equal">
+    <cfRule type="cellIs" dxfId="627" priority="1804" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="1805" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="1805" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="590" priority="1806" operator="equal">
+    <cfRule type="cellIs" dxfId="625" priority="1806" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="589" priority="1807" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="1807" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="1808" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="1808" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="587" priority="1809" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="1809" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19 T19">
-    <cfRule type="cellIs" dxfId="586" priority="1810" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="1810" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19">
-    <cfRule type="cellIs" dxfId="585" priority="1811" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="1811" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="584" priority="1812" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="1812" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="1813" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="1813" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="1814" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="1814" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19">
-    <cfRule type="cellIs" dxfId="581" priority="1815" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="1815" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19">
-    <cfRule type="cellIs" dxfId="580" priority="1816" operator="equal">
+    <cfRule type="cellIs" dxfId="615" priority="1816" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="1817" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="1817" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19">
-    <cfRule type="cellIs" dxfId="578" priority="1818" operator="equal">
+    <cfRule type="cellIs" dxfId="613" priority="1818" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="577" priority="1819" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="1819" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="1820" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="1820" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="1821" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="1821" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="1822" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="1822" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="573" priority="1823" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="1823" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="572" priority="1824" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="1824" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="1825" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="1825" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="570" priority="1826" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="1826" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="569" priority="1827" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="1827" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="568" priority="1828" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="1828" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="1829" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="1829" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="566" priority="1830" operator="equal">
+    <cfRule type="cellIs" dxfId="601" priority="1830" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="1831" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="1831" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="564" priority="1832" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="1832" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="563" priority="1833" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="1833" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="1834" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="1834" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="561" priority="1835" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="1835" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="560" priority="1836" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="1836" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21">
-    <cfRule type="cellIs" dxfId="559" priority="1837" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="1837" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="1838" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="1838" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="557" priority="1839" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="1839" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="1840" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="1840" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21">
-    <cfRule type="cellIs" dxfId="555" priority="1841" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="1841" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21">
-    <cfRule type="cellIs" dxfId="554" priority="1842" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="1842" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="1843" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="1843" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21">
-    <cfRule type="cellIs" dxfId="552" priority="1844" operator="equal">
+    <cfRule type="cellIs" dxfId="587" priority="1844" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R21 T21">
-    <cfRule type="cellIs" dxfId="551" priority="1845" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="1845" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R21">
-    <cfRule type="cellIs" dxfId="550" priority="1846" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="1846" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="1847" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="1847" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R21">
-    <cfRule type="cellIs" dxfId="548" priority="1848" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="1848" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20">
-    <cfRule type="cellIs" dxfId="547" priority="1849" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="1849" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="1850" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="1850" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="545" priority="1851" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="1851" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="1852" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="1852" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20">
-    <cfRule type="cellIs" dxfId="543" priority="1853" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="1853" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20">
-    <cfRule type="cellIs" dxfId="542" priority="1854" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="1854" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="1855" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="1855" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20">
-    <cfRule type="cellIs" dxfId="540" priority="1856" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="1856" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20 T20">
-    <cfRule type="cellIs" dxfId="539" priority="1857" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="1857" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20">
-    <cfRule type="cellIs" dxfId="538" priority="1858" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="1858" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="1859" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="1859" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="1860" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="1860" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="1861" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="1861" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20">
-    <cfRule type="cellIs" dxfId="534" priority="1862" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="1862" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20">
-    <cfRule type="cellIs" dxfId="533" priority="1863" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="1863" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="1864" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="1864" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20">
-    <cfRule type="cellIs" dxfId="531" priority="1865" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="1865" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="cellIs" dxfId="530" priority="1866" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="1866" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="1867" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="1867" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="1868" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="1868" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="527" priority="1869" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="1869" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="cellIs" dxfId="526" priority="1870" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="1870" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="cellIs" dxfId="525" priority="1871" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="1871" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="524" priority="1872" operator="equal">
+    <cfRule type="cellIs" dxfId="559" priority="1872" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="cellIs" dxfId="523" priority="1873" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="1873" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="cellIs" dxfId="522" priority="1874" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="1874" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="cellIs" dxfId="521" priority="1875" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="1875" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="1876" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="1876" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="519" priority="1877" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="1877" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="518" priority="1878" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="1878" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="cellIs" dxfId="517" priority="1879" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="1879" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="cellIs" dxfId="516" priority="1880" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="1880" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="515" priority="1881" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="1881" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="cellIs" dxfId="514" priority="1882" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="1882" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="cellIs" dxfId="513" priority="1883" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="1883" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="512" priority="2335" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="2335" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9 T9 P9">
-    <cfRule type="cellIs" dxfId="511" priority="2337" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="2337" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="2338" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="2338" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9 T9 P9">
-    <cfRule type="cellIs" dxfId="509" priority="2339" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="2339" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T23 R23 P23">
-    <cfRule type="cellIs" dxfId="508" priority="2375" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="2375" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23 T23 P23">
-    <cfRule type="cellIs" dxfId="507" priority="2412" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="2412" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="2413" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="2413" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22 T22 P22">
-    <cfRule type="cellIs" dxfId="505" priority="2414" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="2414" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="2415" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="2415" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="503" priority="2416" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="2416" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="2417" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="2417" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22 T22 P22">
-    <cfRule type="cellIs" dxfId="501" priority="2418" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="2418" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22 T22 P22">
-    <cfRule type="cellIs" dxfId="500" priority="2419" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="2419" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="2420" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="2420" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22 R22 P22">
-    <cfRule type="cellIs" dxfId="498" priority="2421" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="2421" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22 R22 P22">
-    <cfRule type="cellIs" dxfId="497" priority="2422" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="2422" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="cellIs" dxfId="496" priority="2423" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="2423" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="2424" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="2424" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="2425" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="2425" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="2426" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="2426" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="cellIs" dxfId="492" priority="2427" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="2427" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="cellIs" dxfId="491" priority="2428" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="2428" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="2429" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="2429" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12">
-    <cfRule type="cellIs" dxfId="489" priority="2430" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="2430" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="2431" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="2431" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="2432" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="2432" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="2433" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="2433" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="cellIs" dxfId="485" priority="2434" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="2434" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12">
-    <cfRule type="cellIs" dxfId="484" priority="2435" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="2435" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12">
-    <cfRule type="cellIs" dxfId="483" priority="2436" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="2436" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="2437" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="2437" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12">
-    <cfRule type="cellIs" dxfId="481" priority="2438" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="2438" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12 R12">
-    <cfRule type="cellIs" dxfId="480" priority="2439" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="2439" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="479" priority="2440" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="2440" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="2441" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="2441" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="2442" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="2442" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="2443" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="2443" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="475" priority="2444" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="2444" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="474" priority="2445" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="2445" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="2446" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="2446" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="472" priority="2447" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="2447" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="471" priority="2448" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="2448" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="470" priority="2449" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="2449" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="2450" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="2450" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="2451" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="2451" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="2452" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="2452" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="466" priority="2453" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="2453" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="465" priority="2454" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="2454" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="2455" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="2455" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="463" priority="2456" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="2456" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11 R11 T11">
-    <cfRule type="cellIs" dxfId="462" priority="2457" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="2457" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="2458" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="2458" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11 R11 T11">
-    <cfRule type="cellIs" dxfId="460" priority="2459" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="2459" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="459" priority="2468" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="2468" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="2469" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="2469" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="2470" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="2470" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="2471" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="2471" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="455" priority="2472" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="2472" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="454" priority="2473" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="2473" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="2474" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="2474" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="452" priority="2475" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="2475" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="451" priority="2476" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="2476" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="450" priority="2477" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="2477" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="2478" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="2478" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="2479" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="2479" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="2480" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="2480" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="446" priority="2481" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="2481" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="445" priority="2482" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="2482" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="2483" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="2483" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="443" priority="2484" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="2484" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="442" priority="2485" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="2485" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17">
-    <cfRule type="cellIs" dxfId="441" priority="2486" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="2486" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="2487" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="2487" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="2488" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="2488" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="2489" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="2489" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17">
-    <cfRule type="cellIs" dxfId="437" priority="2490" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="2490" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17">
-    <cfRule type="cellIs" dxfId="436" priority="2491" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="2491" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="2492" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="2492" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17">
-    <cfRule type="cellIs" dxfId="434" priority="2493" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="2493" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="2494" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="2494" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="2495" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="2495" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="2496" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="2496" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17">
-    <cfRule type="cellIs" dxfId="430" priority="2497" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="2497" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17">
-    <cfRule type="cellIs" dxfId="429" priority="2498" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="2498" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17">
-    <cfRule type="cellIs" dxfId="428" priority="2499" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="2499" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="2500" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="2500" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17">
-    <cfRule type="cellIs" dxfId="426" priority="2501" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="2501" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17 R17">
-    <cfRule type="cellIs" dxfId="425" priority="2502" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="2502" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10 R10 T10">
-    <cfRule type="cellIs" dxfId="424" priority="5000" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="5000" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="5001" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="5001" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10 R10 T10">
-    <cfRule type="cellIs" dxfId="422" priority="5002" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="5002" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58967,731 +59085,731 @@
     <mergeCell ref="L21:M21"/>
   </mergeCells>
   <conditionalFormatting sqref="P23:P1048576 R23:R1048576 T23:T1048576 P9 T9 R9 R11 T11 P11">
-    <cfRule type="cellIs" dxfId="421" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="2" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="3" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1 P1 P23:P1048576 R23:R1048576 R1 R9 P9 T9 T23:T1048576 T11 P11 R11">
-    <cfRule type="cellIs" dxfId="419" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="12" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:P13">
-    <cfRule type="cellIs" dxfId="418" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="13" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="14" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="15" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="16" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:P13">
-    <cfRule type="cellIs" dxfId="414" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="17" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:P13">
-    <cfRule type="cellIs" dxfId="413" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="18" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="19" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:P13">
-    <cfRule type="cellIs" dxfId="411" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="20" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:P13">
-    <cfRule type="cellIs" dxfId="410" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="21" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:T13 T16 T18:T21">
-    <cfRule type="cellIs" dxfId="409" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="22" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="23" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="24" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="25" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:T13 T16 T18:T21">
-    <cfRule type="cellIs" dxfId="405" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="26" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:T13 T16 T18:T21">
-    <cfRule type="cellIs" dxfId="404" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="27" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="28" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:T13 T16 T18:T21">
-    <cfRule type="cellIs" dxfId="402" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="29" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:T13 T16 T18:T21">
-    <cfRule type="cellIs" dxfId="401" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="30" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18:R21">
-    <cfRule type="cellIs" dxfId="400" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="31" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="32" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="33" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="34" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18:R21">
-    <cfRule type="cellIs" dxfId="396" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="35" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18:R21">
-    <cfRule type="cellIs" dxfId="395" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="36" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="37" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18:R21">
-    <cfRule type="cellIs" dxfId="393" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="38" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18:R21">
-    <cfRule type="cellIs" dxfId="392" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="39" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="391" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="40" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="41" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="42" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="43" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="387" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="44" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="386" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="45" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="46" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="384" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="47" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="383" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="48" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="382" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="49" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="50" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="51" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="52" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="378" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="53" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="377" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="54" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="55" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="375" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="56" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="374" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="57" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="373" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="58" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="59" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="60" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="61" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="369" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="62" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="368" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="63" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="64" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="366" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="65" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="365" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="66" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="364" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="67" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="68" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="69" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="70" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="360" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="71" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="359" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="72" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="73" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="357" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="74" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="356" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="75" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="355" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="166" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="167" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="168" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="169" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="351" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="170" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="350" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="171" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="172" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="348" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="173" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="347" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="174" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22">
-    <cfRule type="cellIs" dxfId="346" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="265" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="266" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="267" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="268" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22">
-    <cfRule type="cellIs" dxfId="342" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="269" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22">
-    <cfRule type="cellIs" dxfId="341" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="270" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="271" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22">
-    <cfRule type="cellIs" dxfId="339" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="272" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22">
-    <cfRule type="cellIs" dxfId="338" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="273" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="337" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="301" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="302" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="303" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="304" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="333" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="305" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="332" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="306" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="307" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="330" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="308" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="329" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="309" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="328" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="328" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="329" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="330" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="331" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="324" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="332" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="323" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="333" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="334" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="321" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="335" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="320" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="336" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15">
-    <cfRule type="cellIs" dxfId="319" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="337" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="338" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="339" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="340" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15">
-    <cfRule type="cellIs" dxfId="315" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="341" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15">
-    <cfRule type="cellIs" dxfId="314" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="342" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="343" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15">
-    <cfRule type="cellIs" dxfId="312" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="344" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15">
-    <cfRule type="cellIs" dxfId="311" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="345" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="310" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="346" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="347" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="348" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="349" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="306" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="350" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="305" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="351" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="352" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="303" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="353" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="302" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="354" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22">
-    <cfRule type="cellIs" dxfId="301" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="364" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="365" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="366" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="367" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22">
-    <cfRule type="cellIs" dxfId="297" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="368" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22">
-    <cfRule type="cellIs" dxfId="296" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="369" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="370" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22">
-    <cfRule type="cellIs" dxfId="294" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="371" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22">
-    <cfRule type="cellIs" dxfId="293" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="372" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R16">
-    <cfRule type="cellIs" dxfId="292" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="373" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="374" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="375" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="376" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R16">
-    <cfRule type="cellIs" dxfId="288" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="377" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R16">
-    <cfRule type="cellIs" dxfId="287" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="378" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="379" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R16">
-    <cfRule type="cellIs" dxfId="285" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="380" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R16">
-    <cfRule type="cellIs" dxfId="284" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="381" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="cellIs" dxfId="283" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="382" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="383" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="384" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="385" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="385" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="cellIs" dxfId="279" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="386" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="cellIs" dxfId="278" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="387" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="388" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="cellIs" dxfId="276" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="389" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="cellIs" dxfId="275" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="390" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="274" priority="751" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="751" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="273" priority="752" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="752" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17">
-    <cfRule type="cellIs" dxfId="272" priority="753" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="753" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="754" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="754" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="755" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="755" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="756" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="756" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17">
-    <cfRule type="cellIs" dxfId="268" priority="757" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="757" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17">
-    <cfRule type="cellIs" dxfId="267" priority="758" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="758" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="759" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="759" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17">
-    <cfRule type="cellIs" dxfId="265" priority="773" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="773" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17">
-    <cfRule type="cellIs" dxfId="264" priority="774" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="774" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17">
-    <cfRule type="cellIs" dxfId="263" priority="843" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="843" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="844" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="844" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="845" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="845" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="846" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="846" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17">
-    <cfRule type="cellIs" dxfId="259" priority="847" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="847" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17">
-    <cfRule type="cellIs" dxfId="258" priority="848" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="848" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="849" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="849" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17">
-    <cfRule type="cellIs" dxfId="256" priority="850" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="850" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17">
-    <cfRule type="cellIs" dxfId="255" priority="851" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="851" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="254" priority="852" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="852" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="853" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="853" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="854" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="854" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="855" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="855" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="250" priority="856" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="856" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="249" priority="857" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="857" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="858" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="858" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10 R10 T10">
-    <cfRule type="cellIs" dxfId="247" priority="2128" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="2128" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10 R10 T10">
-    <cfRule type="cellIs" dxfId="246" priority="2129" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="2129" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="2130" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="2130" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60638,827 +60756,827 @@
     <mergeCell ref="L21:M21"/>
   </mergeCells>
   <conditionalFormatting sqref="R18:R19 T18:T19 P22 R22 T22">
-    <cfRule type="cellIs" dxfId="244" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="27" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="28" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="29" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="30" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18:R19 T18:T19 P22 R22 T22">
-    <cfRule type="cellIs" dxfId="240" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="31" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18:R19 T18:T19 P22:P1048576 R22:R1048576 T22:T1048576">
-    <cfRule type="cellIs" dxfId="239" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="32" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="33" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14 R14 T18:T20 R18:R20 P22 R22 T22">
-    <cfRule type="cellIs" dxfId="237" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="41" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14 T14 T18:T20 R18:R20 P22:P1048576 R22:R1048576 T22:T1048576">
-    <cfRule type="cellIs" dxfId="236" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="86" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:P20">
-    <cfRule type="cellIs" dxfId="235" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="188" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="189" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="190" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="191" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:P20">
-    <cfRule type="cellIs" dxfId="231" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="192" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:P20">
-    <cfRule type="cellIs" dxfId="230" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="193" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="194" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="228" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="195" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="196" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="197" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="198" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="224" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="199" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="223" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="200" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="201" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:P20">
-    <cfRule type="cellIs" dxfId="221" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="202" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14 R20">
-    <cfRule type="cellIs" dxfId="220" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="203" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="204" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="205" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="206" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14 R20">
-    <cfRule type="cellIs" dxfId="216" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="207" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14 R20">
-    <cfRule type="cellIs" dxfId="215" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="208" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="209" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14 T20">
-    <cfRule type="cellIs" dxfId="213" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="217" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="218" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="219" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="220" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14 T20">
-    <cfRule type="cellIs" dxfId="209" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="221" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14 T20">
-    <cfRule type="cellIs" dxfId="208" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="222" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="223" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:P20">
-    <cfRule type="cellIs" dxfId="206" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="231" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="205" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="232" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="233" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="234" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="235" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="201" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="236" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="200" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="237" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="238" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="198" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="239" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="197" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="240" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="196" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="241" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="242" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="243" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="244" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="192" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="245" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="191" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="246" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="247" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="189" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="248" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="188" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="249" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9 T9 P9">
-    <cfRule type="cellIs" dxfId="187" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="250" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="251" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9 T9 P9">
-    <cfRule type="cellIs" dxfId="185" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="252" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12 R12">
-    <cfRule type="cellIs" dxfId="184" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="253" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12 T12">
-    <cfRule type="cellIs" dxfId="183" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="254" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="cellIs" dxfId="182" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="255" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="256" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="257" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="258" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="cellIs" dxfId="178" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="259" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="cellIs" dxfId="177" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="260" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="261" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12">
-    <cfRule type="cellIs" dxfId="175" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="262" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="263" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="264" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="265" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12">
-    <cfRule type="cellIs" dxfId="171" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="266" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12">
-    <cfRule type="cellIs" dxfId="170" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="267" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="268" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="168" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="269" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="270" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="271" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="272" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="164" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="273" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="163" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="274" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="275" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="161" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="276" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="160" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="277" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13 R13">
-    <cfRule type="cellIs" dxfId="159" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="278" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13 T13">
-    <cfRule type="cellIs" dxfId="158" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="279" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="157" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="280" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="281" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="282" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="283" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="153" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="284" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="152" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="285" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="286" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="cellIs" dxfId="150" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="287" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="288" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="289" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="290" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="cellIs" dxfId="146" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="291" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="cellIs" dxfId="145" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="292" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="293" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="143" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="294" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="295" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="296" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="297" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="139" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="298" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="138" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="299" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="300" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="136" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="301" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="135" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="302" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15 T15">
-    <cfRule type="cellIs" dxfId="134" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="303" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="304" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="305" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="306" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15 T15">
-    <cfRule type="cellIs" dxfId="130" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="307" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15 T15">
-    <cfRule type="cellIs" dxfId="129" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="308" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="309" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15 T15">
-    <cfRule type="cellIs" dxfId="127" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="310" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15 R15">
-    <cfRule type="cellIs" dxfId="126" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="311" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="125" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="312" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="313" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="314" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="315" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="121" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="316" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="120" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="317" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="318" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="118" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="319" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="117" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="320" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17 T17">
-    <cfRule type="cellIs" dxfId="116" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="330" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="331" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="332" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="333" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17 T17">
-    <cfRule type="cellIs" dxfId="112" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="334" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17 T17">
-    <cfRule type="cellIs" dxfId="111" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="335" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="336" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17 T17">
-    <cfRule type="cellIs" dxfId="109" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="337" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17 R17">
-    <cfRule type="cellIs" dxfId="108" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="338" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="107" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="339" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="340" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="341" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="342" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="103" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="343" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="102" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="344" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="345" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="100" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="346" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="99" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="347" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16 T16">
-    <cfRule type="cellIs" dxfId="98" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="348" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16 R16">
-    <cfRule type="cellIs" dxfId="97" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="349" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="96" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="350" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="351" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="352" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="353" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="92" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="354" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="91" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="355" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="356" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="89" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="357" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="cellIs" dxfId="88" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="358" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="359" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="360" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="361" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="cellIs" dxfId="84" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="362" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="cellIs" dxfId="83" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="363" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="364" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="cellIs" dxfId="81" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="365" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="366" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="367" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="368" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="cellIs" dxfId="77" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="369" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="cellIs" dxfId="76" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="370" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="371" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="74" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="372" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1 P1 R1">
-    <cfRule type="cellIs" dxfId="73" priority="517" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="517" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11 T11 P11">
-    <cfRule type="cellIs" dxfId="72" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="518" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="519" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="519" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11 P11 R11">
-    <cfRule type="cellIs" dxfId="70" priority="520" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="520" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10 R10 T10">
-    <cfRule type="cellIs" dxfId="69" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="521" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10 R10 T10">
-    <cfRule type="cellIs" dxfId="68" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="522" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="523" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21 R21">
-    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="1" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21 R21">
-    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="2" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="3" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="6" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="60" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="7" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="59" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="8" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="9" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="57" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="10" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R21">
-    <cfRule type="cellIs" dxfId="56" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="11" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="12" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="13" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="14" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R21">
-    <cfRule type="cellIs" dxfId="52" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="15" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R21">
-    <cfRule type="cellIs" dxfId="51" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="16" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="17" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21">
-    <cfRule type="cellIs" dxfId="49" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="18" operator="equal">
       <formula>"Cancelado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="19" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="20" operator="equal">
       <formula>"Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="21" operator="equal">
       <formula>"Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21">
-    <cfRule type="cellIs" dxfId="45" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="22" operator="equal">
       <formula>"Observação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21">
-    <cfRule type="cellIs" dxfId="44" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="23" operator="equal">
       <formula>"Inconformidade"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="24" operator="equal">
       <formula>"Sugestão"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="42" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="25" operator="equal">
       <formula>"Impedimento"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62179,174 +62297,174 @@
     <mergeCell ref="F5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
       <formula>"F - Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="3" operator="equal">
       <formula>"P - Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="4" operator="equal">
       <formula>"R - Reincidência"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
       <formula>"SIm"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="7" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="8" operator="equal">
       <formula>"SIm"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="17" operator="equal">
       <formula>"N - N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="18" operator="equal">
       <formula>"F - Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="19" operator="equal">
       <formula>"P - Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" dxfId="31" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="51" operator="equal">
       <formula>"F - Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="52" operator="equal">
       <formula>"P - Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" dxfId="29" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
       <formula>"R - Reincidência"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" dxfId="28" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="54" operator="equal">
       <formula>"N - N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
       <formula>"F - Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
       <formula>"P - Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" dxfId="25" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
       <formula>"R - Reincidência"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="cellIs" dxfId="24" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>"F - Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
       <formula>"P - Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="cellIs" dxfId="22" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
       <formula>"R - Reincidência"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="cellIs" dxfId="21" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"N - N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
       <formula>"F - Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
       <formula>"P - Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="cellIs" dxfId="18" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
       <formula>"R - Reincidência"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" dxfId="17" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
       <formula>"F - Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="66" operator="equal">
       <formula>"P - Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" dxfId="15" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="67" operator="equal">
       <formula>"R - Reincidência"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" dxfId="14" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="68" operator="equal">
       <formula>"N - N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="69" operator="equal">
       <formula>"F - Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="70" operator="equal">
       <formula>"P - Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" dxfId="11" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="71" operator="equal">
       <formula>"R - Reincidência"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" dxfId="10" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="72" operator="equal">
       <formula>"F - Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="73" operator="equal">
       <formula>"P - Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" dxfId="8" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="74" operator="equal">
       <formula>"R - Reincidência"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" dxfId="7" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="75" operator="equal">
       <formula>"N - N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="76" operator="equal">
       <formula>"F - Falhou"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="77" operator="equal">
       <formula>"P - Passou"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" dxfId="4" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="78" operator="equal">
       <formula>"R - Reincidência"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N6">
-    <cfRule type="cellIs" dxfId="3" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="86" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="87" operator="equal">
       <formula>"SIm"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O6">
-    <cfRule type="cellIs" dxfId="1" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="88" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="89" operator="equal">
       <formula>"SIm"</formula>
     </cfRule>
   </conditionalFormatting>
